--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -1439,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="280">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +899,70 @@
   </si>
   <si>
     <t>d358c0d6-48e9-4641-85a9-c36f50b6541d</t>
+  </si>
+  <si>
+    <t>采购入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10e54122-4f03-41be-9a5a-dd9c7f71afae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>676eab64-51f5-49fd-8c6b-8bc6c46330bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignDrawMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>764b3642-d1c7-45f1-8283-e8bdd8278a21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f88e4850-1ae5-4b53-b16f-a08725cdc5cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d36dc9d7-c7f2-4a7c-be1a-fb21210c8f04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98c4258b-2428-42fd-933a-411b22fa7a81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31d71311-4db6-4269-966e-b2d8957ddff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc8ce899-f7a9-48f6-9d8f-bfb3bd160a87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8e8c6b68-9288-4b75-94c7-033d63f79ac0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ce00ea6-f2e0-4a0b-8f26-673ec2697c86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc0261d0-245e-478f-a674-c242ebd0afed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1437,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3019,10 +3083,10 @@
         <v>121</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>37</v>
@@ -3042,22 +3106,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>14</v>
@@ -3068,7 +3132,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>123</v>
@@ -3080,10 +3144,10 @@
         <v>37</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>14</v>
@@ -3094,7 +3158,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>123</v>
@@ -3106,10 +3170,10 @@
         <v>37</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>14</v>
@@ -3120,7 +3184,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>123</v>
@@ -3132,10 +3196,10 @@
         <v>37</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>14</v>
@@ -3146,22 +3210,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>14</v>
@@ -3172,22 +3236,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>14</v>
@@ -3198,7 +3262,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>129</v>
@@ -3210,10 +3274,10 @@
         <v>37</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>14</v>
@@ -3224,7 +3288,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>129</v>
@@ -3236,10 +3300,10 @@
         <v>37</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>14</v>
@@ -3250,22 +3314,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>14</v>
@@ -3276,22 +3340,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>14</v>
@@ -3302,22 +3366,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6" t="s">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>14</v>
@@ -3328,7 +3392,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>135</v>
@@ -3340,10 +3404,10 @@
         <v>37</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>14</v>
@@ -3354,22 +3418,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>14</v>
@@ -3380,22 +3444,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
@@ -3406,22 +3470,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>14</v>
@@ -3432,22 +3496,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>14</v>
@@ -3458,13 +3522,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>37</v>
@@ -3484,13 +3548,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>37</v>
@@ -3510,13 +3574,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>37</v>
@@ -3536,13 +3600,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>37</v>
@@ -3562,22 +3626,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>14</v>
@@ -3588,22 +3652,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>14</v>
@@ -3614,22 +3678,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>14</v>
@@ -3640,22 +3704,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>14</v>
@@ -3666,22 +3730,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>14</v>
@@ -3692,22 +3756,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>14</v>
@@ -3718,22 +3782,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>14</v>
@@ -3744,22 +3808,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>14</v>
@@ -3770,22 +3834,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>14</v>
@@ -3796,22 +3860,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>14</v>
@@ -3822,22 +3886,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>14</v>
@@ -3848,22 +3912,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>14</v>
@@ -3874,22 +3938,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>14</v>
@@ -3900,22 +3964,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>14</v>
@@ -3926,22 +3990,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>14</v>
@@ -3952,22 +4016,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>14</v>
@@ -3978,13 +4042,13 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>37</v>
@@ -4004,13 +4068,13 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>37</v>
@@ -4030,13 +4094,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>37</v>
@@ -4056,13 +4120,13 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>37</v>
@@ -4082,22 +4146,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="6" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>14</v>
@@ -4108,13 +4172,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>37</v>
@@ -4134,22 +4198,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>14</v>
@@ -4160,22 +4224,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>14</v>
@@ -4186,334 +4250,334 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C117" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="6" t="s">
+      <c r="D117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>198</v>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>203</v>
@@ -4524,22 +4588,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>203</v>
@@ -4550,13 +4614,13 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>37</v>
@@ -4576,22 +4640,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>203</v>
@@ -4602,22 +4666,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>203</v>
@@ -4628,22 +4692,22 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>203</v>
@@ -4654,22 +4718,22 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>203</v>
@@ -4680,22 +4744,22 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>203</v>
@@ -4706,22 +4770,22 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>203</v>
@@ -4732,22 +4796,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>203</v>
@@ -4758,22 +4822,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>203</v>
@@ -4784,22 +4848,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>203</v>
@@ -4810,22 +4874,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>203</v>
@@ -4836,22 +4900,22 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>203</v>
@@ -4862,22 +4926,22 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>203</v>
@@ -4888,22 +4952,22 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>203</v>
@@ -4914,22 +4978,22 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>203</v>
@@ -4940,22 +5004,22 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>203</v>
@@ -4966,22 +5030,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>203</v>
@@ -4992,22 +5056,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>203</v>
@@ -5018,22 +5082,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="5" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>203</v>
@@ -5044,22 +5108,22 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>203</v>
@@ -5070,22 +5134,22 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>203</v>
@@ -5096,22 +5160,22 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>203</v>
@@ -5122,22 +5186,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>203</v>
@@ -5148,22 +5212,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>203</v>
@@ -5174,22 +5238,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>203</v>
@@ -5200,22 +5264,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>203</v>
@@ -5226,22 +5290,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>203</v>
@@ -5252,13 +5316,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="5" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>37</v>
@@ -5278,22 +5342,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>203</v>
@@ -5304,22 +5368,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>203</v>
@@ -5330,27 +5394,313 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="5" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H150" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H161" s="5" t="s">
         <v>198</v>
       </c>
     </row>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="292">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,6 +963,48 @@
   <si>
     <t>dc0261d0-245e-478f-a674-c242ebd0afed</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SupplierMaintaince</t>
+  </si>
+  <si>
+    <t>9c6f3732-e563-41f1-a76a-bae0a9c33d89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cca3d0b0-4b61-41d0-bf2a-88ce60742527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5c2bddc4-bdb5-41e4-adef-6aec7050cb88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc41d4f4-ea93-411b-81e1-3fc7b4b6a5dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商资料维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkshopMaintaince</t>
+  </si>
+  <si>
+    <t>车间资料维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f04ff492-e5ee-4e8b-80ff-a785476949b5</t>
+  </si>
+  <si>
+    <t>d491eb7b-3ca6-40d7-8d68-a9445d954418</t>
+  </si>
+  <si>
+    <t>686ec56b-3af9-4298-aa86-9db3fe3e5808</t>
+  </si>
+  <si>
+    <t>94fd8955-ddf9-4cd4-bdbe-db76c74afb2d</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2872,16 +2914,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>37</v>
+        <v>285</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>12</v>
@@ -2898,16 +2940,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>37</v>
+        <v>285</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>39</v>
@@ -2924,16 +2966,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>37</v>
+        <v>285</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>42</v>
@@ -2950,16 +2992,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="6" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>37</v>
+        <v>285</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>45</v>
@@ -2976,22 +3018,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="6" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>37</v>
+        <v>287</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>14</v>
@@ -3002,22 +3044,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="6" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>37</v>
+        <v>287</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>14</v>
@@ -3028,22 +3070,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>37</v>
+        <v>287</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>14</v>
@@ -3054,22 +3096,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>37</v>
+        <v>287</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>14</v>
@@ -3080,22 +3122,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>14</v>
@@ -3106,22 +3148,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>264</v>
+        <v>109</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>14</v>
@@ -3132,22 +3174,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>14</v>
@@ -3158,22 +3200,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>14</v>
@@ -3184,22 +3226,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>14</v>
@@ -3210,22 +3252,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>14</v>
@@ -3236,22 +3278,22 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6" t="s">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>267</v>
+        <v>118</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>14</v>
@@ -3262,22 +3304,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>14</v>
@@ -3288,22 +3330,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>14</v>
@@ -3314,22 +3356,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="6" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>14</v>
@@ -3340,22 +3382,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>14</v>
@@ -3366,22 +3408,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="6" t="s">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>14</v>
@@ -3392,22 +3434,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>14</v>
@@ -3418,22 +3460,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>14</v>
@@ -3444,22 +3486,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
@@ -3470,22 +3512,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>14</v>
@@ -3496,22 +3538,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>14</v>
@@ -3522,22 +3564,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>14</v>
@@ -3548,22 +3590,22 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>14</v>
@@ -3574,22 +3616,22 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="6" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>14</v>
@@ -3600,22 +3642,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>14</v>
@@ -3626,22 +3668,22 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>14</v>
@@ -3652,22 +3694,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>14</v>
@@ -3678,22 +3720,22 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>14</v>
@@ -3704,22 +3746,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="6" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>14</v>
@@ -3730,22 +3772,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>14</v>
@@ -3756,22 +3798,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>14</v>
@@ -3782,22 +3824,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>14</v>
@@ -3808,22 +3850,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>14</v>
@@ -3834,22 +3876,22 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>14</v>
@@ -3860,22 +3902,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>14</v>
@@ -3886,22 +3928,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>14</v>
@@ -3912,22 +3954,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G93" s="6" t="s">
         <v>14</v>
@@ -3938,22 +3980,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="6" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>14</v>
@@ -3964,22 +4006,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>14</v>
@@ -3990,22 +4032,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>14</v>
@@ -4016,22 +4058,22 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6" t="s">
-        <v>276</v>
+        <v>155</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>14</v>
@@ -4042,22 +4084,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="6" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>14</v>
@@ -4068,22 +4110,22 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>14</v>
@@ -4094,22 +4136,22 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="6" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>14</v>
@@ -4120,22 +4162,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>14</v>
@@ -4146,22 +4188,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="6" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>14</v>
@@ -4172,22 +4214,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>14</v>
@@ -4198,22 +4240,22 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>14</v>
@@ -4224,22 +4266,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6" t="s">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>14</v>
@@ -4250,22 +4292,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>14</v>
@@ -4276,22 +4318,22 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="6" t="s">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>14</v>
@@ -4302,22 +4344,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>14</v>
@@ -4328,22 +4370,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>14</v>
@@ -4354,22 +4396,22 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="6" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>14</v>
@@ -4380,22 +4422,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>14</v>
@@ -4406,22 +4448,22 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="6" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>14</v>
@@ -4432,22 +4474,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>14</v>
@@ -4458,22 +4500,22 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>14</v>
@@ -4484,22 +4526,22 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="6" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>14</v>
@@ -4510,13 +4552,13 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>37</v>
@@ -4536,256 +4578,256 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="6" t="s">
+      <c r="D125" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>198</v>
+      <c r="G125" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>203</v>
@@ -4796,16 +4838,16 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>12</v>
@@ -4822,22 +4864,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="5" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>203</v>
@@ -4848,22 +4890,22 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>203</v>
@@ -4874,22 +4916,22 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="5" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>203</v>
@@ -4900,13 +4942,13 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>37</v>
@@ -4926,13 +4968,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>37</v>
@@ -4952,13 +4994,13 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>37</v>
@@ -4978,13 +5020,13 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>37</v>
@@ -5004,13 +5046,13 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>37</v>
@@ -5030,13 +5072,13 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>37</v>
@@ -5056,13 +5098,13 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>37</v>
@@ -5082,13 +5124,13 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>37</v>
@@ -5108,13 +5150,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>37</v>
@@ -5134,13 +5176,13 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="5" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>37</v>
@@ -5160,13 +5202,13 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>37</v>
@@ -5186,13 +5228,13 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>37</v>
@@ -5212,13 +5254,13 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>37</v>
@@ -5238,13 +5280,13 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>37</v>
@@ -5264,13 +5306,13 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>37</v>
@@ -5290,13 +5332,13 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>37</v>
@@ -5316,13 +5358,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>37</v>
@@ -5342,13 +5384,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>37</v>
@@ -5368,13 +5410,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>37</v>
@@ -5394,13 +5436,13 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>37</v>
@@ -5420,13 +5462,13 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>37</v>
@@ -5446,13 +5488,13 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>37</v>
@@ -5472,13 +5514,13 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>37</v>
@@ -5498,13 +5540,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>37</v>
@@ -5524,16 +5566,16 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>12</v>
@@ -5550,22 +5592,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>203</v>
@@ -5576,22 +5618,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>203</v>
@@ -5602,22 +5644,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>203</v>
@@ -5628,13 +5670,13 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>37</v>
@@ -5654,22 +5696,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>203</v>
@@ -5680,27 +5722,235 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>203</v>
       </c>
       <c r="H161" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H169" s="5" t="s">
         <v>198</v>
       </c>
     </row>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="294">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,6 +1005,14 @@
   </si>
   <si>
     <t>94fd8955-ddf9-4cd4-bdbe-db76c74afb2d</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1546,7 +1554,7 @@
   <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2922,8 +2930,8 @@
       <c r="C53" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D53" s="6">
-        <v>1</v>
+      <c r="D53" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>12</v>
@@ -2948,8 +2956,8 @@
       <c r="C54" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="6">
-        <v>1</v>
+      <c r="D54" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>39</v>
@@ -2974,8 +2982,8 @@
       <c r="C55" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D55" s="6">
-        <v>1</v>
+      <c r="D55" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>42</v>
@@ -3000,8 +3008,8 @@
       <c r="C56" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D56" s="6">
-        <v>1</v>
+      <c r="D56" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>45</v>
@@ -3026,8 +3034,8 @@
       <c r="C57" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D57" s="6">
-        <v>1</v>
+      <c r="D57" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>12</v>
@@ -3052,8 +3060,8 @@
       <c r="C58" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="6">
-        <v>1</v>
+      <c r="D58" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>39</v>
@@ -3078,8 +3086,8 @@
       <c r="C59" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="6">
-        <v>1</v>
+      <c r="D59" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>42</v>
@@ -3104,8 +3112,8 @@
       <c r="C60" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D60" s="6">
-        <v>1</v>
+      <c r="D60" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>45</v>
@@ -3368,10 +3376,10 @@
         <v>37</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>14</v>
@@ -3498,10 +3506,10 @@
         <v>37</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
@@ -3628,10 +3636,10 @@
         <v>37</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G80" s="6" t="s">
         <v>14</v>
@@ -3758,10 +3766,10 @@
         <v>37</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>14</v>
@@ -3888,10 +3896,10 @@
         <v>37</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>14</v>
@@ -4018,10 +4026,10 @@
         <v>37</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>14</v>
@@ -4148,10 +4156,10 @@
         <v>37</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>14</v>
@@ -4278,10 +4286,10 @@
         <v>37</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>14</v>
@@ -4408,10 +4416,10 @@
         <v>37</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>14</v>
@@ -4538,10 +4546,10 @@
         <v>37</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>14</v>
@@ -4668,10 +4676,10 @@
         <v>37</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="G120" s="6" t="s">
         <v>14</v>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="485">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,15 +575,6 @@
     <t>生产计划</t>
   </si>
   <si>
-    <t>8b7da10a-2699-4b03-bf7d-4e884fc999a1</t>
-  </si>
-  <si>
-    <t>06259e09-b030-48d9-a9cf-5e3e7d54b505</t>
-  </si>
-  <si>
-    <t>f25513b6-4abf-40ff-8527-68b4529eaf63</t>
-  </si>
-  <si>
     <t>222f498b-65e9-43e0-a873-13ba4311ee60</t>
   </si>
   <si>
@@ -633,26 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5eb8a565-7f0a-4233-8ff0-d6704daa5492</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -665,38 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>102a37a5-0022-4d50-af90-f61b03ea1eb4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04a1e33b-6715-4651-be60-b57fcc479cae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统统计员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统仓管员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责采购审批</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料采购员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部门角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>286030a3-ad3a-40e7-9ef0-64287827173e</t>
   </si>
   <si>
@@ -889,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dc0261d0-245e-478f-a674-c242ebd0afed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SupplierMaintaince</t>
   </si>
   <si>
@@ -940,21 +875,6 @@
   </si>
   <si>
     <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设置(查看)
- 基础代码维护(查看、修改、删除、新增)
- 客户资料维护(查看、修改、删除、新增)
- 仓库资料维护(查看、修改、删除、新增)
- 料品资料维护(查看、修改、删除、新增)
- 部门资料维护(查看、修改、删除、新增)
- 职员资料维护(查看、修改、删除、新增)
- BOM单资料维护(查看、修改、删除、新增)
- 计量单位维护(查看、修改、删除、新增)
- 仓库类型维护(查看、修改、删除、新增)
- 供应商资料维护(查看、修改、删除、新增)
- 车间资料维护(查看、修改、删除、新增)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1113,65 +1033,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>系统管理(查看)
- 用户管理(查看、修改、删除、新增)
- 日志管理(查看、修改、删除、新增)
- 存货核算(查看)－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查看权限包括结算、反结算</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设置(查看)
- BOM单资料维护(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理(查看)
- 采购管理(查看)
-  采购单管理(查看、修改、删除、新增、审批)
-  采购入库(查看、修改、删除、新增、提交)
-  采购退货(查看、修改、删除、新增、提交)
- 委外加工(查看)
-  委外领料(查看、修改、删除、新增、提交)
-  委外退料(查看、修改、删除、新增、提交)
-  委外入库(查看、修改、删除、新增、提交)
-  委外退货(查看、修改、删除、新增、提交)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看、修改、删除、新增、提交)
-  制造退料(查看、修改、删除、新增、提交)
-  制造入库(查看、修改、删除、新增、提交)
-  制造退货(查看、修改、删除、新增、提交)
-  生产计划(查看)
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库管理模块权限（1）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>仓库管理模块权限（2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>仓库管理(查看)
@@ -1184,20 +1059,199 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理(查看)
- 采购管理(查看)
-  采购单管理(查看)
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>系统管理(查看)
+ 用户管理(查看、修改、删除、新增)
+ 日志管理(查看、修改、删除、新增)
+ 存货核算(查看)－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看权限包括结算、反结算</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置(查看)
+ 基础代码维护(查看、修改、删除、新增)
+ 客户资料维护(查看、修改、删除、新增)
+ 仓库资料维护(查看、修改、删除、新增)
+ 料品资料维护(查看、修改、删除、新增)
+ 部门资料维护(查看、修改、删除、新增)
+ 职员资料维护(查看、修改、删除、新增)
+ BOM单资料维护(查看、修改、删除、新增)
+ 计量单位维护(查看、修改、删除、新增)
+ 仓库类型维护(查看、修改、删除、新增)
+ 供应商资料维护(查看、修改、删除、新增)
+ 车间资料维护(查看、修改、删除、新增)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理(查看、修改、删除、新增、提交)
+ 采购管理(查看、修改、删除、新增、提交)
+  采购单管理(查看、修改、删除、新增、提交)
   采购入库(查看、修改、删除、新增、提交)
   采购退货(查看、修改、删除、新增、提交)
- 委外加工(查看)
+ 委外加工(查看、修改、删除、新增、提交)
   委外领料(查看、修改、删除、新增、提交)
   委外退料(查看、修改、删除、新增、提交)
   委外入库(查看、修改、删除、新增、提交)
   委外退货(查看、修改、删除、新增、提交)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看、修改、删除、新增、提交)
+  制造领料(查看、修改、删除、新增、提交)
+  制造退料(查看、修改、删除、新增、提交)
+  制造入库(查看、修改、删除、新增、提交)
+  制造退货(查看、修改、删除、新增、提交)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看、修改、删除、新增、提交)
+  库存情况(查看、修改、删除、新增、提交)
+  黑胚材料耗用表(查看、修改、删除、新增、提交)
+  发外加工对数表(查看、修改、删除、新增、提交)
+  安装包装材料表(查看、修改、删除、新增、提交)
+  成品报表(查看、修改、删除、新增、提交)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>系统管理(查看)
+ 存货核算(查看)－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看权限包括结算、反结算</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责采购审批</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理(查看)
+ 采购管理(查看)
+  采购单管理(查看、修改、删除、新增、审批)
+  采购入库(查看)
+  采购退货(查看)
+ 委外加工(查看)
+  委外领料(查看)
+  委外退料(查看)
+  委外入库(查看)
+  委外退货(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置(查看)
+ BOM单资料维护(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料采购员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>仓库管理(查看)
@@ -1210,20 +1264,7 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理(查看)
- 采购管理(查看)
-  采购单管理(查看、修改、删除、新增、审批)
-  采购入库(查看)
-  采购退货(查看)
- 委外加工(查看)
-  委外领料(查看)
-  委外退料(查看)
-  委外入库(查看)
-  委外退货(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 车间制造(查看)
@@ -1237,7 +1278,15 @@
   发外加工对数表(查看)
   安装包装材料表(查看)
   成品报表(查看)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部门角色</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1251,22 +1300,18 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>生产计划(查看)</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
  分析统计(查看)
@@ -1276,63 +1321,505 @@
   安装包装材料表(查看)
   成品报表(查看)</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据录入员(统计员、仓管员）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据录入员（系统统计员、系统仓管员）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10a7b58c-b54b-4932-aa33-90f0cde14d00</t>
+  </si>
+  <si>
+    <t>873b414d-8a4d-412d-933d-e512aba3c34b</t>
+  </si>
+  <si>
+    <t>82f87c03-51ce-4602-87ed-d8dd064fa8bc</t>
+  </si>
+  <si>
+    <t>47aa605c-2f61-49f2-938a-347c6c479f84</t>
+  </si>
+  <si>
+    <t>c2f839c4-8144-4b77-8615-d20e8c83f148</t>
+  </si>
+  <si>
+    <t>410ee8eb-d252-4dda-817a-c18856d43d99</t>
+  </si>
+  <si>
+    <t>35fbfc31-a1c4-4124-9477-8437f4546a10</t>
+  </si>
+  <si>
+    <t>1f341ecd-3612-45bd-ab3d-d246b98eb102</t>
+  </si>
+  <si>
+    <t>38cd5b58-e12a-43ca-9e02-fee650ec959a</t>
+  </si>
+  <si>
+    <t>f3e360a3-22b1-41a0-868f-a68970204a5a</t>
+  </si>
+  <si>
+    <t>678a094b-942b-4f90-a3cf-fcddede79f41</t>
+  </si>
+  <si>
+    <t>f58f90be-278c-4f7e-899b-0d3e571f84ac</t>
+  </si>
+  <si>
+    <t>dddc4d21-6690-4a5e-923e-0e43d27d4c77</t>
+  </si>
+  <si>
+    <t>33f1a0d7-f251-4b04-9a8b-1a2bb6279c37</t>
+  </si>
+  <si>
+    <t>08a0531f-7e77-4f27-a4be-010a0571899d</t>
+  </si>
+  <si>
+    <t>aacee487-35b3-491c-918b-47c1395b38f9</t>
+  </si>
+  <si>
+    <t>b81bb6e1-c1cb-4a37-85e2-5c7c95a48ada</t>
+  </si>
+  <si>
+    <t>5e734e12-0ef0-4263-a790-fc651c77ccc5</t>
+  </si>
+  <si>
+    <t>1bfa3743-7e9e-4a00-b42b-e2215735aa9d</t>
+  </si>
+  <si>
+    <t>a318c2ae-f5cf-43a2-9eb7-fb5795fe879e</t>
+  </si>
+  <si>
+    <t>3ffe276e-b735-4080-9693-e1257440b121</t>
+  </si>
+  <si>
+    <t>6dde563e-7eee-4602-9e24-30ed3d1eea99</t>
+  </si>
+  <si>
+    <t>f5a53dfd-1e42-4323-ba1b-4d19a3d1c4c5</t>
+  </si>
+  <si>
+    <t>11bbe90e-4839-4d6b-8fdd-d603214289d0</t>
+  </si>
+  <si>
+    <t>7f89e6d8-1713-44ae-9567-4c4f7a70cae3</t>
+  </si>
+  <si>
+    <t>b9f1050d-61ae-4386-9426-71083f18b927</t>
+  </si>
+  <si>
+    <t>69b01318-5961-44bd-ab48-e191621447c4</t>
+  </si>
+  <si>
+    <t>955be83b-566d-4e7f-b10c-3ac342b51c85</t>
+  </si>
+  <si>
+    <t>9887afcf-b141-4376-9f0b-e3f1be453e24</t>
+  </si>
+  <si>
+    <t>c117eb9b-fd48-4acc-a3ec-d4b4f4d51586</t>
+  </si>
+  <si>
+    <t>3189335b-ba05-415a-a7dc-cf1782d785b0</t>
+  </si>
+  <si>
+    <t>b43ad161-6193-4108-a33b-2e1ead07c211</t>
+  </si>
+  <si>
+    <t>3875651a-75cd-40bc-9ed5-a5f65a34d5e5</t>
+  </si>
+  <si>
+    <t>d1dbc7e4-3207-4cf8-adc9-437ee3ef8257</t>
+  </si>
+  <si>
+    <t>cccf1f7f-8949-4eea-af6d-4fec0a25e1a1</t>
+  </si>
+  <si>
+    <t>b1504eaf-b7fc-45ae-a5b2-a526f1443a2d</t>
+  </si>
+  <si>
+    <t>a5265fe5-5212-40da-aed6-fc64da01ab48</t>
+  </si>
+  <si>
+    <t>7e11b9e0-aec1-4596-8d25-555f551d3e1b</t>
+  </si>
+  <si>
+    <t>c78963c5-8c0b-4f0f-861d-3c8f5f081383</t>
+  </si>
+  <si>
+    <t>7c85d5ec-ebf0-42dd-9a7a-f57a8df16fb0</t>
+  </si>
+  <si>
+    <t>8e379dae-119a-4fb6-8700-e3ca25b575af</t>
+  </si>
+  <si>
+    <t>85af6b32-db0f-4b46-b6fe-0ec9898c575a</t>
+  </si>
+  <si>
+    <t>b09bd4d6-7af4-412a-8f65-cedd2852bb2c</t>
+  </si>
+  <si>
+    <t>89bf65e0-85d7-4d50-8e93-02d1fa793070</t>
+  </si>
+  <si>
+    <t>08c3755b-ea4d-4e37-94f9-e8b839338b0d</t>
+  </si>
+  <si>
+    <t>2306a2f4-3811-40e5-a443-d933c199a0c5</t>
+  </si>
+  <si>
+    <t>00dc78fd-c084-40d7-b6e7-f705ac4332a3</t>
+  </si>
+  <si>
+    <t>bd73487e-9530-4a5f-b7e8-99ab0629909b</t>
+  </si>
+  <si>
+    <t>5f658423-385f-4e02-97f3-a2d61c241817</t>
+  </si>
+  <si>
+    <t>dbad4bee-0dfa-482f-bac0-d2af5fa482f7</t>
+  </si>
+  <si>
+    <t>90a87ec4-e35b-43db-9fc7-9e932b5ab5fa</t>
+  </si>
+  <si>
+    <t>9ce557fc-2c2d-4a13-9160-85995f587bfe</t>
+  </si>
+  <si>
+    <t>9941ccd4-2442-4424-83bb-4a3bb36f66fa</t>
+  </si>
+  <si>
+    <t>0cf46bf2-687d-42d7-bea1-ce9ea4f51f28</t>
+  </si>
+  <si>
+    <t>1c4ddae6-13ee-4348-b4e9-f3f147609a3a</t>
+  </si>
+  <si>
+    <t>1bd4cd4b-2b5a-4b7d-9f8f-03e3593a3570</t>
+  </si>
+  <si>
+    <t>be9047df-2d23-4442-a117-e61f2ec29368</t>
+  </si>
+  <si>
+    <t>1df8b46f-2b82-4eeb-8e8c-c4816f2ec2a5</t>
+  </si>
+  <si>
+    <t>ecb9d303-f3b8-4697-a6b8-10d7320846ce</t>
+  </si>
+  <si>
+    <t>a29489c2-19ee-41ae-bcbb-17d7a74fc71f</t>
+  </si>
+  <si>
+    <t>2c4dbbf5-d14c-4098-ac70-a07d5cf67f64</t>
+  </si>
+  <si>
+    <t>20cd5d92-ec30-4af5-84d5-9a22c530e27a</t>
+  </si>
+  <si>
+    <t>19000ffe-1c3b-417b-9b4b-e2fd53380612</t>
+  </si>
+  <si>
+    <t>a406da49-58d0-491c-93d3-eaebe44dd521</t>
+  </si>
+  <si>
+    <t>53c5c231-1a27-402e-9ea2-953820066d47</t>
+  </si>
+  <si>
+    <t>7614112c-d713-4823-b8ca-da9ce7e27821</t>
+  </si>
+  <si>
+    <t>c2fa35a7-cb35-4d7d-b942-063576347f42</t>
+  </si>
+  <si>
+    <t>82f4efa3-394b-4047-a907-0ff719df4528</t>
+  </si>
+  <si>
+    <t>5c1f8237-5ea0-48dc-b447-7e160b51b621</t>
+  </si>
+  <si>
+    <t>028b7934-7fab-4481-9ddb-aa4b69023a1f</t>
+  </si>
+  <si>
+    <t>85eb54de-46f6-477c-b8eb-ad96bd86f8b9</t>
+  </si>
+  <si>
+    <t>9874aae5-0df1-458f-a146-2d6e4c6ba148</t>
+  </si>
+  <si>
+    <t>1640b054-3212-4295-9ec0-6e4e2c6c4ccf</t>
+  </si>
+  <si>
+    <t>3c6751f9-2107-4e0c-84c3-6fd5cc9c84cc</t>
+  </si>
+  <si>
+    <t>0562fc5a-540e-4aa3-8da0-42f75354fc1d</t>
+  </si>
+  <si>
+    <t>5dc6b1d1-a4ee-403b-88f5-d9f5000a1b35</t>
+  </si>
+  <si>
+    <t>cdfcbd44-7f41-497f-b906-dcf9eb13c1dc</t>
+  </si>
+  <si>
+    <t>e9fe060b-09ea-4cb4-8b9b-bb8d4a3c3a8d</t>
+  </si>
+  <si>
+    <t>f24ddb24-f6ab-4ac1-9721-1661f03ca9b3</t>
+  </si>
+  <si>
+    <t>67bb7ac5-5973-407d-97b1-11c13441d47e</t>
+  </si>
+  <si>
+    <t>492a10e4-dd4a-42d0-8fe9-dc94e2b65a9f</t>
+  </si>
+  <si>
+    <t>e20ecdc9-6567-446b-b941-eb9fd5dc1dd9</t>
+  </si>
+  <si>
+    <t>b75cd18e-2897-42de-ad4f-e1218a3b74f1</t>
+  </si>
+  <si>
+    <t>dece64ce-c060-49d4-96f1-51188eaa599c</t>
+  </si>
+  <si>
+    <t>数据录入员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看、修改、删除、新增、提交)
-  制造退料(查看、修改、删除、新增、提交)
-  制造入库(查看、修改、删除、新增、提交)
-  制造退货(查看、修改、删除、新增、提交)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    </r>
+    <t>5eb8a565-7f0a-4233-8ff0-d6704daa5492</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>系统管理(查看)
- 存货核算(查看)－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查看权限包括结算、反结算</t>
-    </r>
+    <t>stockSettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货核算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>549b5d04-4ba9-4d79-b6fc-d45b0628b223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d65679fa-8a54-43f9-bbbe-830e059cbd35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12a0bba-52c2-4744-88c9-45ebabeda83e</t>
+  </si>
+  <si>
+    <t>ee7314cb-ab72-435c-ba23-7af6f840f2bd</t>
+  </si>
+  <si>
+    <t>b5a47ea8-0fb9-497c-9434-795423fddb68</t>
+  </si>
+  <si>
+    <t>ae48a0ee-4b18-44dc-b8e9-073cbc644f5d</t>
+  </si>
+  <si>
+    <t>314e175f-091f-4cb6-91bd-2250c38874b7</t>
+  </si>
+  <si>
+    <t>82a95867-a22d-4435-89bf-8a779ad062e1</t>
+  </si>
+  <si>
+    <t>d394e92f-f147-4eff-8193-9b812a3139d2</t>
+  </si>
+  <si>
+    <t>a4a630df-f5dc-4e00-935e-51f6daedbe90</t>
+  </si>
+  <si>
+    <t>d9e3d386-5709-4f4c-9aaf-d8b43451ce1b</t>
+  </si>
+  <si>
+    <t>49ef9f96-65d5-4f74-8210-f3a85a085523</t>
+  </si>
+  <si>
+    <t>8dbe6efc-6f45-4dad-8144-9464d58cffce</t>
+  </si>
+  <si>
+    <t>6e90a65b-1d75-4bb4-94d8-cac08d9f878a</t>
+  </si>
+  <si>
+    <t>3dbe87f0-c37d-4daa-b9c0-e7a178207a86</t>
+  </si>
+  <si>
+    <t>f6bac9cd-50f1-4b94-8290-9a7a97d8b324</t>
+  </si>
+  <si>
+    <t>0b513561-eef4-4c74-bae5-17b957acf9f5</t>
+  </si>
+  <si>
+    <t>5213414b-0a20-451f-9a6d-236838281396</t>
+  </si>
+  <si>
+    <t>8aaa9685-e2dd-40f7-8adc-89edae221354</t>
+  </si>
+  <si>
+    <t>e10929e1-ec24-4fed-b4ee-2fb03da90ce5</t>
+  </si>
+  <si>
+    <t>3d2084a2-600c-4862-8091-aa3e4c637acd</t>
+  </si>
+  <si>
+    <t>1623cbbc-2a55-4416-982b-137dc95735db</t>
+  </si>
+  <si>
+    <t>b742fba6-0304-46ac-942b-0a547a047480</t>
+  </si>
+  <si>
+    <t>a8d09d8f-bbb4-44bb-979d-046a862a20a5</t>
+  </si>
+  <si>
+    <t>4ca55539-f4c6-49c5-968f-353ba9dbe92e</t>
+  </si>
+  <si>
+    <t>71e2949b-c6e7-4820-960f-3d4e816e310a</t>
+  </si>
+  <si>
+    <t>cb70f638-7a2d-4b14-901e-39d7cf44a853</t>
+  </si>
+  <si>
+    <t>59637e90-eb39-42cb-b455-84520e4505b6</t>
+  </si>
+  <si>
+    <t>ba461660-72c1-4bb0-b5bc-02d5bea92ef9</t>
+  </si>
+  <si>
+    <t>d40c2f31-4b48-4e9d-af93-b64089ba6e99</t>
+  </si>
+  <si>
+    <t>63fdf820-f805-494b-a1cf-b32bf07d479c</t>
+  </si>
+  <si>
+    <t>856affb0-2936-4b38-bc50-909d5d341234</t>
+  </si>
+  <si>
+    <t>a228be4c-262c-4ec2-8ea2-d7e89482302d</t>
+  </si>
+  <si>
+    <t>d17a5c28-6244-439c-8c1a-6ac729e113d6</t>
+  </si>
+  <si>
+    <t>25c1c641-04d9-4033-b043-652fff33d6c7</t>
+  </si>
+  <si>
+    <t>16297911-8ac4-4eaf-9917-33b062bbc5d0</t>
+  </si>
+  <si>
+    <t>b9689a5a-7c0c-4368-af3b-60f371b9ef7e</t>
+  </si>
+  <si>
+    <t>542da901-2683-4e99-b8b2-3c986d9ace66</t>
+  </si>
+  <si>
+    <t>a9457933-c431-4b96-b1c2-5260eda02717</t>
+  </si>
+  <si>
+    <t>5a657734-3930-419d-a2f9-7ab802f21ce6</t>
+  </si>
+  <si>
+    <t>217be2b9-b78d-4043-ad2d-3159d98e71d0</t>
+  </si>
+  <si>
+    <t>f82615e0-01b4-4d78-ae54-834aa11e5770</t>
+  </si>
+  <si>
+    <t>31a995c0-993c-4555-9adf-fac29d28f56c</t>
+  </si>
+  <si>
+    <t>d1bfa09e-ad88-4255-a4be-06352b2c0c87</t>
+  </si>
+  <si>
+    <t>c96f2bac-47d0-4679-a05d-532222c72071</t>
+  </si>
+  <si>
+    <t>fc9c1a14-6fcf-4f7a-925b-8e0bde83d159</t>
+  </si>
+  <si>
+    <t>54864274-b3ad-4175-b5e5-34329f87f6da</t>
+  </si>
+  <si>
+    <t>dab349bd-a93e-4a22-9184-8adcc2936567</t>
+  </si>
+  <si>
+    <t>df960398-4ea9-4dcf-bbd2-f743ad55476e</t>
+  </si>
+  <si>
+    <t>f614a478-d41a-4ab1-9978-2d2bb77eeee1</t>
+  </si>
+  <si>
+    <t>0e297af8-d5ce-49b5-aaf1-09027a324b85</t>
+  </si>
+  <si>
+    <t>0f4fa3d8-7faa-4990-9eaf-d859b43f90e7</t>
+  </si>
+  <si>
+    <t>1d9c0093-749d-462f-a527-25c91a19dfd5</t>
+  </si>
+  <si>
+    <t>6ce92b3e-dffd-4a41-b3c1-ecce0bcd5e0e</t>
+  </si>
+  <si>
+    <t>550f63ac-e1ad-4d1c-8503-1a5bccc149ac</t>
+  </si>
+  <si>
+    <t>2ecc8e80-ec41-42c0-b9bb-c1976ded0902</t>
+  </si>
+  <si>
+    <t>b83ab63a-43d8-485b-8d53-22cd58438daa</t>
+  </si>
+  <si>
+    <t>ca0d9725-1c11-447b-a9fe-c5359558900b</t>
+  </si>
+  <si>
+    <t>d966827f-0ce7-4b8c-a1bd-109b7449e091</t>
+  </si>
+  <si>
+    <t>d25e222c-9a39-447e-8e45-106fd156fc35</t>
+  </si>
+  <si>
+    <t>96c39bbc-e25d-4fac-9701-a4945c54a314</t>
+  </si>
+  <si>
+    <t>8b3de8fa-115e-4a68-a21a-5d3aca4176ca</t>
+  </si>
+  <si>
+    <t>75ff27ab-dd83-4cbc-80fa-1d947dc81a99</t>
+  </si>
+  <si>
+    <t>bb13cf14-fd7d-498a-a5bf-4bf0fa1e00ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102a37a5-0022-4d50-af90-f61b03ea1eb4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04a1e33b-6715-4651-be60-b57fcc479cae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1827,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,14 +1861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1394,8 +1873,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1919,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,35 +2104,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1914,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1926,8 +2461,8 @@
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1939,166 +2474,128 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="135">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>288</v>
+      <c r="B2" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="135">
       <c r="A3" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="123.75">
       <c r="A4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="123.75">
+      <c r="A5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="C5" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135">
+      <c r="A6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="135">
-      <c r="A5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="123.75">
-      <c r="A6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="123.75">
-      <c r="A7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="135">
-      <c r="A8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>322</v>
+      <c r="D6" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F125"/>
+    <sheetView topLeftCell="A295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2545,13 +3042,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>416</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>37</v>
@@ -2571,7 +3068,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>54</v>
@@ -2583,10 +3080,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>14</v>
@@ -2597,7 +3094,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>54</v>
@@ -2609,10 +3106,10 @@
         <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>14</v>
@@ -2623,7 +3120,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>54</v>
@@ -2635,10 +3132,10 @@
         <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>14</v>
@@ -2649,22 +3146,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>14</v>
@@ -2675,7 +3172,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>60</v>
@@ -2687,10 +3184,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>14</v>
@@ -2701,7 +3198,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>60</v>
@@ -2713,10 +3210,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>14</v>
@@ -2727,7 +3224,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>60</v>
@@ -2739,10 +3236,10 @@
         <v>37</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>14</v>
@@ -2753,22 +3250,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>14</v>
@@ -2779,7 +3276,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>66</v>
@@ -2791,10 +3288,10 @@
         <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>14</v>
@@ -2805,7 +3302,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>66</v>
@@ -2817,10 +3314,10 @@
         <v>37</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>14</v>
@@ -2831,7 +3328,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>66</v>
@@ -2843,10 +3340,10 @@
         <v>37</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>14</v>
@@ -2857,22 +3354,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>14</v>
@@ -2883,7 +3380,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>72</v>
@@ -2895,10 +3392,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>14</v>
@@ -2909,7 +3406,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>72</v>
@@ -2921,10 +3418,10 @@
         <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>14</v>
@@ -2935,7 +3432,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>72</v>
@@ -2947,10 +3444,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>14</v>
@@ -2961,22 +3458,22 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>14</v>
@@ -2987,7 +3484,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>78</v>
@@ -2999,10 +3496,10 @@
         <v>37</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>14</v>
@@ -3013,7 +3510,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>78</v>
@@ -3025,10 +3522,10 @@
         <v>37</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>14</v>
@@ -3039,7 +3536,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>78</v>
@@ -3051,10 +3548,10 @@
         <v>37</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>14</v>
@@ -3065,22 +3562,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>14</v>
@@ -3091,7 +3588,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>84</v>
@@ -3103,10 +3600,10 @@
         <v>37</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>14</v>
@@ -3117,7 +3614,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>84</v>
@@ -3129,10 +3626,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>14</v>
@@ -3143,7 +3640,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>84</v>
@@ -3155,10 +3652,10 @@
         <v>37</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>14</v>
@@ -3169,22 +3666,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -3195,7 +3692,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>90</v>
@@ -3207,10 +3704,10 @@
         <v>37</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>14</v>
@@ -3221,7 +3718,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>90</v>
@@ -3233,10 +3730,10 @@
         <v>37</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -3247,7 +3744,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>90</v>
@@ -3259,10 +3756,10 @@
         <v>37</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>14</v>
@@ -3273,22 +3770,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -3299,7 +3796,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>96</v>
@@ -3311,10 +3808,10 @@
         <v>37</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>14</v>
@@ -3325,7 +3822,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>96</v>
@@ -3337,10 +3834,10 @@
         <v>37</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -3351,7 +3848,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>96</v>
@@ -3363,10 +3860,10 @@
         <v>37</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>14</v>
@@ -3377,22 +3874,22 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>14</v>
@@ -3403,7 +3900,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>102</v>
@@ -3415,10 +3912,10 @@
         <v>37</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>14</v>
@@ -3429,7 +3926,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>102</v>
@@ -3441,10 +3938,10 @@
         <v>37</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>14</v>
@@ -3455,7 +3952,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>102</v>
@@ -3467,10 +3964,10 @@
         <v>37</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>14</v>
@@ -3481,22 +3978,22 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>14</v>
@@ -3507,22 +4004,22 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="5" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>14</v>
@@ -3533,22 +4030,22 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>14</v>
@@ -3559,22 +4056,22 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="5" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>14</v>
@@ -3585,22 +4082,22 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>14</v>
@@ -3611,22 +4108,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>14</v>
@@ -3637,22 +4134,22 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>14</v>
@@ -3663,22 +4160,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>14</v>
@@ -3689,22 +4186,22 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>14</v>
@@ -3715,7 +4212,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>108</v>
@@ -3727,10 +4224,10 @@
         <v>37</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>14</v>
@@ -3741,7 +4238,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>108</v>
@@ -3753,10 +4250,10 @@
         <v>37</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>14</v>
@@ -3767,7 +4264,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>108</v>
@@ -3779,10 +4276,10 @@
         <v>37</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>14</v>
@@ -3793,7 +4290,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>108</v>
@@ -3805,10 +4302,10 @@
         <v>37</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>14</v>
@@ -3819,22 +4316,22 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>14</v>
@@ -3845,7 +4342,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>117</v>
@@ -3857,10 +4354,10 @@
         <v>37</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>14</v>
@@ -3871,7 +4368,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>117</v>
@@ -3883,10 +4380,10 @@
         <v>37</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>14</v>
@@ -3897,22 +4394,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>14</v>
@@ -3923,22 +4420,22 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>14</v>
@@ -3949,22 +4446,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="5" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>124</v>
+        <v>242</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>14</v>
@@ -3975,7 +4472,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>123</v>
@@ -3987,10 +4484,10 @@
         <v>37</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>14</v>
@@ -4001,7 +4498,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>123</v>
@@ -4013,10 +4510,10 @@
         <v>37</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>14</v>
@@ -4027,22 +4524,22 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>14</v>
@@ -4053,22 +4550,22 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="5" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
@@ -4079,22 +4576,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="5" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -4105,7 +4602,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>129</v>
@@ -4117,10 +4614,10 @@
         <v>37</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>14</v>
@@ -4131,7 +4628,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>129</v>
@@ -4143,10 +4640,10 @@
         <v>37</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>14</v>
@@ -4157,10 +4654,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>130</v>
@@ -4169,10 +4666,10 @@
         <v>37</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>14</v>
@@ -4183,10 +4680,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>130</v>
@@ -4195,10 +4692,10 @@
         <v>37</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>14</v>
@@ -4209,22 +4706,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>14</v>
@@ -4235,7 +4732,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>135</v>
@@ -4247,10 +4744,10 @@
         <v>37</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -4261,7 +4758,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>135</v>
@@ -4273,10 +4770,10 @@
         <v>37</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>14</v>
@@ -4287,7 +4784,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>135</v>
@@ -4299,10 +4796,10 @@
         <v>37</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
@@ -4313,7 +4810,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>135</v>
@@ -4325,10 +4822,10 @@
         <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
@@ -4339,22 +4836,22 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
@@ -4365,7 +4862,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>141</v>
@@ -4377,10 +4874,10 @@
         <v>37</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
@@ -4391,7 +4888,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>141</v>
@@ -4403,10 +4900,10 @@
         <v>37</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>14</v>
@@ -4417,7 +4914,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>141</v>
@@ -4429,10 +4926,10 @@
         <v>37</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>14</v>
@@ -4443,7 +4940,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="5" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>141</v>
@@ -4455,10 +4952,10 @@
         <v>37</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>14</v>
@@ -4469,22 +4966,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="5" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>14</v>
@@ -4495,7 +4992,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>147</v>
@@ -4507,10 +5004,10 @@
         <v>37</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>14</v>
@@ -4521,7 +5018,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>147</v>
@@ -4533,10 +5030,10 @@
         <v>37</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>14</v>
@@ -4547,7 +5044,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>147</v>
@@ -4559,10 +5056,10 @@
         <v>37</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>14</v>
@@ -4573,7 +5070,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="5" t="s">
-        <v>268</v>
+        <v>151</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>147</v>
@@ -4585,10 +5082,10 @@
         <v>37</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>14</v>
@@ -4599,22 +5096,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="5" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>14</v>
@@ -4625,7 +5122,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>153</v>
@@ -4637,10 +5134,10 @@
         <v>37</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>14</v>
@@ -4651,7 +5148,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>153</v>
@@ -4663,10 +5160,10 @@
         <v>37</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>14</v>
@@ -4677,7 +5174,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>153</v>
@@ -4689,10 +5186,10 @@
         <v>37</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>14</v>
@@ -4703,7 +5200,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>153</v>
@@ -4715,10 +5212,10 @@
         <v>37</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>14</v>
@@ -4729,22 +5226,22 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="5" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>14</v>
@@ -4755,7 +5252,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>159</v>
@@ -4767,10 +5264,10 @@
         <v>37</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>14</v>
@@ -4781,7 +5278,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>159</v>
@@ -4793,10 +5290,10 @@
         <v>37</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>14</v>
@@ -4807,7 +5304,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>159</v>
@@ -4819,10 +5316,10 @@
         <v>37</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>14</v>
@@ -4833,7 +5330,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>159</v>
@@ -4845,10 +5342,10 @@
         <v>37</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>14</v>
@@ -4859,22 +5356,22 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>14</v>
@@ -4885,7 +5382,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>165</v>
@@ -4897,10 +5394,10 @@
         <v>37</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>14</v>
@@ -4911,7 +5408,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>165</v>
@@ -4923,10 +5420,10 @@
         <v>37</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>14</v>
@@ -4937,7 +5434,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>165</v>
@@ -4949,10 +5446,10 @@
         <v>37</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>14</v>
@@ -4963,7 +5460,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="5" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>165</v>
@@ -4975,10 +5472,10 @@
         <v>37</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>14</v>
@@ -4989,22 +5486,22 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>14</v>
@@ -5015,7 +5512,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>171</v>
@@ -5027,10 +5524,10 @@
         <v>37</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>14</v>
@@ -5041,7 +5538,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>171</v>
@@ -5053,10 +5550,10 @@
         <v>37</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>14</v>
@@ -5067,7 +5564,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>171</v>
@@ -5079,10 +5576,10 @@
         <v>37</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>14</v>
@@ -5093,7 +5590,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="5" t="s">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>171</v>
@@ -5105,10 +5602,10 @@
         <v>37</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>14</v>
@@ -5119,22 +5616,22 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="5" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>14</v>
@@ -5145,7 +5642,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>177</v>
@@ -5157,10 +5654,10 @@
         <v>37</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>14</v>
@@ -5171,22 +5668,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C118" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>14</v>
@@ -5197,22 +5694,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>14</v>
@@ -5223,22 +5720,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>14</v>
@@ -5249,13 +5746,13 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>37</v>
@@ -5275,13 +5772,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>37</v>
@@ -5300,92 +5797,92 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>15</v>
+      <c r="A123" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>15</v>
+      <c r="A124" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>15</v>
+      <c r="A125" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>11</v>
@@ -5397,21 +5894,21 @@
         <v>13</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>11</v>
@@ -5423,24 +5920,24 @@
         <v>13</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>12</v>
@@ -5449,24 +5946,24 @@
         <v>13</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>12</v>
@@ -5475,21 +5972,21 @@
         <v>13</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>37</v>
@@ -5501,21 +5998,21 @@
         <v>13</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>37</v>
@@ -5527,21 +6024,21 @@
         <v>13</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>37</v>
@@ -5553,21 +6050,21 @@
         <v>40</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>37</v>
@@ -5579,21 +6076,21 @@
         <v>43</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>37</v>
@@ -5605,21 +6102,21 @@
         <v>46</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>37</v>
@@ -5631,21 +6128,21 @@
         <v>13</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>37</v>
@@ -5657,21 +6154,21 @@
         <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>37</v>
@@ -5683,21 +6180,21 @@
         <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>37</v>
@@ -5709,21 +6206,21 @@
         <v>46</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>37</v>
@@ -5735,21 +6232,21 @@
         <v>13</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>37</v>
@@ -5761,21 +6258,21 @@
         <v>40</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>37</v>
@@ -5787,21 +6284,21 @@
         <v>43</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>37</v>
@@ -5813,21 +6310,21 @@
         <v>46</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>37</v>
@@ -5839,21 +6336,21 @@
         <v>13</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>37</v>
@@ -5865,21 +6362,21 @@
         <v>40</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>37</v>
@@ -5891,21 +6388,21 @@
         <v>43</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>37</v>
@@ -5917,21 +6414,21 @@
         <v>46</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>37</v>
@@ -5943,21 +6440,21 @@
         <v>13</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>37</v>
@@ -5969,21 +6466,21 @@
         <v>40</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>37</v>
@@ -5995,21 +6492,21 @@
         <v>43</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>37</v>
@@ -6021,21 +6518,21 @@
         <v>46</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>37</v>
@@ -6047,21 +6544,21 @@
         <v>13</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>37</v>
@@ -6073,21 +6570,21 @@
         <v>40</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>37</v>
@@ -6099,21 +6596,21 @@
         <v>43</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>37</v>
@@ -6125,21 +6622,21 @@
         <v>46</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>37</v>
@@ -6151,21 +6648,21 @@
         <v>13</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>37</v>
@@ -6177,21 +6674,21 @@
         <v>40</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>37</v>
@@ -6203,21 +6700,21 @@
         <v>43</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>37</v>
@@ -6229,21 +6726,21 @@
         <v>46</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>37</v>
@@ -6255,21 +6752,21 @@
         <v>13</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>37</v>
@@ -6281,21 +6778,21 @@
         <v>40</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>37</v>
@@ -6307,21 +6804,21 @@
         <v>43</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>37</v>
@@ -6333,24 +6830,24 @@
         <v>46</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>12</v>
@@ -6359,99 +6856,99 @@
         <v>13</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>37</v>
@@ -6463,62 +6960,3780 @@
         <v>13</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>198</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B169" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="C169" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H188" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H190" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H196" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H198" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H202" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H204" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G209" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H209" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H234" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="B236" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H236" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B237" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H237" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B238" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H238" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H239" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B240" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H240" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B241" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D241" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E241" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H241" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C242" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>198</v>
+      <c r="D242" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E242" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H242" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="B243" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D243" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H243" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F244" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G244" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H244" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="B245" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D245" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F245" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G245" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H245" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D246" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E246" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G246" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H246" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B247" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D247" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G247" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H247" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B248" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D248" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H248" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B249" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D249" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H249" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B250" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D250" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H250" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="B251" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D251" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H251" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B252" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D252" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H252" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="B253" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D253" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H253" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B254" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D254" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H254" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="B255" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D255" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H255" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B256" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H256" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H257" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="B258" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H258" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H259" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H260" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H261" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H264" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B265" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H265" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H266" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C267" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H267" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B268" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H268" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="B269" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H269" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="B270" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E270" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H270" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C271" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E271" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H271" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B272" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E272" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F272" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G272" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H272" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E273" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F273" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G273" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H273" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B274" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F274" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G274" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H274" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B275" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E275" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H275" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B276" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E276" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H276" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B277" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C277" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E277" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H277" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B278" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E278" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H278" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B279" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E279" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H279" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B280" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C280" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E280" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G280" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H280" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B281" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C281" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E281" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H281" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B282" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E282" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G282" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H282" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E283" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H283" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B284" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D284" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E284" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G284" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H284" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B285" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C285" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D285" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E285" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H285" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="B286" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E286" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H286" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D287" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E287" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H287" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B288" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C288" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H288" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B289" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H289" s="23" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H290" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B291" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H291" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="B292" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D292" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H292" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H293" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="B294" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H294" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B295" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D295" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H295" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="B296" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C296" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D296" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E296" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H296" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B297" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D297" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H297" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B298" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C298" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D298" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E298" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H298" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B299" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D299" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E299" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H299" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B300" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D300" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H300" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B301" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C301" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D301" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E301" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H301" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B302" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C302" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D302" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H302" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B303" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C303" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D303" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E303" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H303" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B304" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C304" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D304" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H304" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E305" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H305" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="B306" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D306" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E306" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H306" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="B307" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D307" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E307" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H307" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="B308" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C308" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D308" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E308" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F308" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H308" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="B309" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C309" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E309" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H309" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B310" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C310" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D310" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F310" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H310" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B311" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C311" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D311" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E311" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H311" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B312" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C312" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D312" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E312" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="H312" s="24" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -6544,258 +10759,258 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>293</v>
+      <c r="A2" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
       <c r="A11" s="16"/>
       <c r="B11" s="12" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
-        <v>319</v>
+      <c r="A12" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="16"/>
       <c r="B14" s="13" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
-        <v>304</v>
+      <c r="A15" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="16"/>
       <c r="B20" s="13" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
-        <v>308</v>
+      <c r="A21" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="10" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="10" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
       <c r="A25" s="16"/>
       <c r="B25" s="13" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
-        <v>310</v>
+      <c r="A26" s="14" t="s">
+        <v>292</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="10" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
       <c r="A29" s="16"/>
       <c r="B29" s="13" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
-        <v>313</v>
+      <c r="A30" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="10" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="16"/>
       <c r="B33" s="13" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>315</v>
+      <c r="A34" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="10" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="10" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="10" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
       <c r="A40" s="16"/>
       <c r="B40" s="13" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统角色" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="500">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1820,6 +1820,66 @@
   </si>
   <si>
     <t>生产管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13e37bf2-cfd7-4ad5-bc9c-93a6caeda7ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7bbad11-3814-4070-ad3c-a4f8949a4b76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b819bce-2197-4820-be5d-52d73a49ca03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7bde2c1e-23a2-4594-8aaa-806dd47a4b72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48afddba-8252-4386-956c-d47020444717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61cb8d3e-c9b7-438b-aa55-14c23794144d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c69dc0e7-108e-41af-be68-b3d462e90f04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6e0a172-a3fa-4626-a4b7-89540752e16a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2122,15 +2182,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2154,6 +2205,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2451,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2493,22 +2553,22 @@
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2516,22 +2576,22 @@
       <c r="A3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>310</v>
       </c>
     </row>
@@ -2539,20 +2599,20 @@
       <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2560,20 +2620,20 @@
       <c r="A5" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2581,20 +2641,20 @@
       <c r="A6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2607,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H322"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A312"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8735,2004 +8795,2212 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="22" t="s">
+      <c r="A236" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="B236" s="22" t="s">
+      <c r="B236" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C236" s="22" t="s">
+      <c r="C236" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="22" t="s">
+      <c r="D236" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E236" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="22" t="s">
+      <c r="E236" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H236" s="22" t="s">
+      <c r="H236" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="22" t="s">
+      <c r="A237" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="B237" s="22" t="s">
+      <c r="B237" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C237" s="22" t="s">
+      <c r="C237" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D237" s="22" t="s">
+      <c r="D237" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E237" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F237" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G237" s="22" t="s">
+      <c r="E237" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F237" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H237" s="22" t="s">
+      <c r="H237" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="22" t="s">
+      <c r="A238" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B238" s="22" t="s">
+      <c r="B238" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C238" s="22" t="s">
+      <c r="C238" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D238" s="22" t="s">
+      <c r="D238" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E238" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F238" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" s="22" t="s">
+      <c r="E238" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H238" s="22" t="s">
+      <c r="H238" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="22" t="s">
+      <c r="A239" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="B239" s="22" t="s">
+      <c r="B239" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C239" s="22" t="s">
+      <c r="C239" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D239" s="22" t="s">
+      <c r="D239" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E239" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F239" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G239" s="22" t="s">
+      <c r="E239" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H239" s="22" t="s">
+      <c r="H239" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="22" t="s">
+      <c r="A240" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C240" s="22" t="s">
+      <c r="C240" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D240" s="22" t="s">
+      <c r="D240" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E240" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F240" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G240" s="22" t="s">
+      <c r="E240" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G240" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H240" s="22" t="s">
+      <c r="H240" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="22" t="s">
+      <c r="A241" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="B241" s="22" t="s">
+      <c r="B241" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C241" s="22" t="s">
+      <c r="C241" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D241" s="22" t="s">
+      <c r="D241" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E241" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F241" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G241" s="22" t="s">
+      <c r="E241" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H241" s="22" t="s">
+      <c r="H241" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="22" t="s">
+      <c r="A242" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B242" s="22" t="s">
+      <c r="B242" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C242" s="22" t="s">
+      <c r="C242" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D242" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E242" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F242" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G242" s="22" t="s">
+      <c r="D242" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E242" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F242" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G242" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H242" s="22" t="s">
+      <c r="H242" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="22" t="s">
+      <c r="A243" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B243" s="22" t="s">
+      <c r="B243" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C243" s="22" t="s">
+      <c r="C243" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D243" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E243" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F243" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G243" s="22" t="s">
+      <c r="D243" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E243" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H243" s="22" t="s">
+      <c r="H243" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="22" t="s">
+      <c r="A244" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B244" s="22" t="s">
+      <c r="B244" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C244" s="22" t="s">
+      <c r="C244" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D244" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E244" s="22" t="s">
+      <c r="D244" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E244" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F244" s="22" t="s">
+      <c r="F244" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G244" s="22" t="s">
+      <c r="G244" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H244" s="22" t="s">
+      <c r="H244" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="22" t="s">
+      <c r="A245" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B245" s="22" t="s">
+      <c r="B245" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D245" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E245" s="22" t="s">
+      <c r="D245" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E245" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F245" s="22" t="s">
+      <c r="F245" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G245" s="22" t="s">
+      <c r="G245" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H245" s="22" t="s">
+      <c r="H245" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="22" t="s">
+      <c r="A246" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B246" s="22" t="s">
+      <c r="B246" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C246" s="22" t="s">
+      <c r="C246" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D246" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E246" s="22" t="s">
+      <c r="D246" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E246" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F246" s="22" t="s">
+      <c r="F246" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G246" s="22" t="s">
+      <c r="G246" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H246" s="22" t="s">
+      <c r="H246" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="22" t="s">
+      <c r="A247" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="B247" s="22" t="s">
+      <c r="B247" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C247" s="22" t="s">
+      <c r="C247" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D247" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E247" s="22" t="s">
+      <c r="D247" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E247" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F247" s="22" t="s">
+      <c r="F247" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G247" s="22" t="s">
+      <c r="G247" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H247" s="22" t="s">
+      <c r="H247" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="22" t="s">
+      <c r="A248" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="B248" s="22" t="s">
+      <c r="B248" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C248" s="22" t="s">
+      <c r="C248" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D248" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="22" t="s">
+      <c r="D248" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H248" s="22" t="s">
+      <c r="H248" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="22" t="s">
+      <c r="A249" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B249" s="22" t="s">
+      <c r="B249" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="C249" s="22" t="s">
+      <c r="C249" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D249" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" s="22" t="s">
+      <c r="D249" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H249" s="22" t="s">
+      <c r="H249" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="22" t="s">
+      <c r="A250" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B250" s="22" t="s">
+      <c r="B250" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C250" s="22" t="s">
+      <c r="C250" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D250" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G250" s="22" t="s">
+      <c r="D250" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H250" s="22" t="s">
+      <c r="H250" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="22" t="s">
+      <c r="A251" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="B251" s="22" t="s">
+      <c r="B251" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C251" s="22" t="s">
+      <c r="C251" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D251" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E251" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="22" t="s">
+      <c r="D251" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H251" s="22" t="s">
+      <c r="H251" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="22" t="s">
+      <c r="A252" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="B252" s="22" t="s">
+      <c r="B252" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C252" s="22" t="s">
+      <c r="C252" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D252" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E252" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" s="22" t="s">
+      <c r="D252" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H252" s="22" t="s">
+      <c r="H252" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="22" t="s">
+      <c r="A253" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="B253" s="22" t="s">
+      <c r="B253" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C253" s="22" t="s">
+      <c r="C253" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D253" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E253" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G253" s="22" t="s">
+      <c r="D253" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H253" s="22" t="s">
+      <c r="H253" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="22" t="s">
+      <c r="A254" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="B254" s="22" t="s">
+      <c r="B254" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C254" s="22" t="s">
+      <c r="C254" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D254" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E254" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F254" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G254" s="22" t="s">
+      <c r="D254" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H254" s="22" t="s">
+      <c r="H254" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="22" t="s">
+      <c r="A255" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="B255" s="22" t="s">
+      <c r="B255" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C255" s="22" t="s">
+      <c r="C255" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D255" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E255" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" s="22" t="s">
+      <c r="D255" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H255" s="22" t="s">
+      <c r="H255" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="22" t="s">
+      <c r="A256" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="B256" s="22" t="s">
+      <c r="B256" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C256" s="22" t="s">
+      <c r="C256" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="D256" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E256" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F256" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" s="22" t="s">
+      <c r="D256" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H256" s="22" t="s">
+      <c r="H256" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="22" t="s">
+      <c r="A257" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="B257" s="22" t="s">
+      <c r="B257" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="C257" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D257" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E257" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="22" t="s">
+      <c r="D257" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H257" s="22" t="s">
+      <c r="H257" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="22" t="s">
+      <c r="A258" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="B258" s="22" t="s">
+      <c r="B258" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C258" s="22" t="s">
+      <c r="C258" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D258" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E258" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F258" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" s="22" t="s">
+      <c r="D258" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H258" s="22" t="s">
+      <c r="H258" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="22" t="s">
+      <c r="A259" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="B259" s="22" t="s">
+      <c r="B259" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C259" s="22" t="s">
+      <c r="C259" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D259" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E259" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F259" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="22" t="s">
+      <c r="D259" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G259" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H259" s="22" t="s">
+      <c r="H259" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="22" t="s">
+      <c r="A260" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="B260" s="22" t="s">
+      <c r="B260" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="C260" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D260" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E260" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="22" t="s">
+      <c r="D260" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H260" s="22" t="s">
+      <c r="H260" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="22" t="s">
+      <c r="A261" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="B261" s="22" t="s">
+      <c r="B261" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C261" s="22" t="s">
+      <c r="C261" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="D261" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E261" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G261" s="22" t="s">
+      <c r="D261" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H261" s="22" t="s">
+      <c r="H261" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="22" t="s">
+      <c r="A262" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B262" s="22" t="s">
+      <c r="B262" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C262" s="22" t="s">
+      <c r="C262" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D262" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E262" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F262" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G262" s="22" t="s">
+      <c r="D262" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H262" s="22" t="s">
+      <c r="H262" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="22" t="s">
+      <c r="A263" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="B263" s="22" t="s">
+      <c r="B263" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C263" s="22" t="s">
+      <c r="C263" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G263" s="22" t="s">
+      <c r="D263" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="H263" s="22" t="s">
+      <c r="H263" s="19" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="23" t="s">
+      <c r="A264" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="B264" s="23" t="s">
+      <c r="B264" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C264" s="23" t="s">
+      <c r="C264" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="D264" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E264" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G264" s="23" t="s">
+      <c r="E264" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H264" s="23" t="s">
+      <c r="H264" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="23" t="s">
+      <c r="A265" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="B265" s="23" t="s">
+      <c r="B265" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C265" s="23" t="s">
+      <c r="C265" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="D265" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E265" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G265" s="23" t="s">
+      <c r="E265" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H265" s="23" t="s">
+      <c r="H265" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="23" t="s">
+      <c r="A266" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="B266" s="23" t="s">
+      <c r="B266" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C266" s="23" t="s">
+      <c r="C266" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D266" s="23" t="s">
+      <c r="D266" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E266" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G266" s="23" t="s">
+      <c r="E266" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H266" s="23" t="s">
+      <c r="H266" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="23" t="s">
+      <c r="A267" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="B267" s="23" t="s">
+      <c r="B267" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C267" s="23" t="s">
+      <c r="C267" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D267" s="23" t="s">
+      <c r="D267" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E267" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G267" s="23" t="s">
+      <c r="E267" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H267" s="23" t="s">
+      <c r="H267" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="23" t="s">
+      <c r="A268" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B268" s="23" t="s">
+      <c r="B268" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C268" s="23" t="s">
+      <c r="C268" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D268" s="23" t="s">
+      <c r="D268" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E268" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G268" s="23" t="s">
+      <c r="E268" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H268" s="23" t="s">
+      <c r="H268" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="23" t="s">
+      <c r="A269" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="B269" s="23" t="s">
+      <c r="B269" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C269" s="23" t="s">
+      <c r="C269" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E269" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G269" s="23" t="s">
+      <c r="E269" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H269" s="23" t="s">
+      <c r="H269" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="23" t="s">
+      <c r="A270" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="B270" s="23" t="s">
+      <c r="B270" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C270" s="23" t="s">
+      <c r="C270" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D270" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E270" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G270" s="23" t="s">
+      <c r="D270" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E270" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H270" s="23" t="s">
+      <c r="H270" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="23" t="s">
+      <c r="A271" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="B271" s="23" t="s">
+      <c r="B271" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C271" s="23" t="s">
+      <c r="C271" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D271" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E271" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F271" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G271" s="23" t="s">
+      <c r="D271" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H271" s="23" t="s">
+      <c r="H271" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="23" t="s">
+      <c r="A272" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="B272" s="23" t="s">
+      <c r="B272" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C272" s="23" t="s">
+      <c r="C272" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D272" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E272" s="23" t="s">
+      <c r="D272" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E272" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F272" s="23" t="s">
+      <c r="F272" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G272" s="23" t="s">
+      <c r="G272" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H272" s="23" t="s">
+      <c r="H272" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="23" t="s">
+      <c r="A273" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B273" s="23" t="s">
+      <c r="B273" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C273" s="23" t="s">
+      <c r="C273" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E273" s="23" t="s">
+      <c r="D273" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E273" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F273" s="23" t="s">
+      <c r="F273" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G273" s="23" t="s">
+      <c r="G273" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H273" s="23" t="s">
+      <c r="H273" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="23" t="s">
+      <c r="A274" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="B274" s="23" t="s">
+      <c r="B274" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C274" s="23" t="s">
+      <c r="C274" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D274" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E274" s="23" t="s">
+      <c r="D274" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F274" s="23" t="s">
+      <c r="F274" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G274" s="23" t="s">
+      <c r="G274" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H274" s="23" t="s">
+      <c r="H274" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="B275" s="23" t="s">
+      <c r="B275" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C275" s="23" t="s">
+      <c r="C275" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D275" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E275" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F275" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G275" s="23" t="s">
+      <c r="D275" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H275" s="23" t="s">
+      <c r="H275" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="23" t="s">
+      <c r="A276" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="B276" s="23" t="s">
+      <c r="B276" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C276" s="23" t="s">
+      <c r="C276" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D276" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E276" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G276" s="23" t="s">
+      <c r="D276" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H276" s="23" t="s">
+      <c r="H276" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="23" t="s">
+      <c r="A277" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="B277" s="23" t="s">
+      <c r="B277" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C277" s="23" t="s">
+      <c r="C277" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D277" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E277" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F277" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G277" s="23" t="s">
+      <c r="D277" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H277" s="23" t="s">
+      <c r="H277" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="23" t="s">
+      <c r="A278" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B278" s="23" t="s">
+      <c r="B278" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C278" s="23" t="s">
+      <c r="C278" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E278" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G278" s="23" t="s">
+      <c r="D278" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E278" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H278" s="23" t="s">
+      <c r="H278" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="23" t="s">
+      <c r="A279" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="B279" s="23" t="s">
+      <c r="B279" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C279" s="23" t="s">
+      <c r="C279" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="D279" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G279" s="23" t="s">
+      <c r="D279" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H279" s="23" t="s">
+      <c r="H279" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="23" t="s">
+      <c r="A280" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="B280" s="23" t="s">
+      <c r="B280" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C280" s="23" t="s">
+      <c r="C280" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D280" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E280" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G280" s="23" t="s">
+      <c r="D280" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E280" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G280" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H280" s="23" t="s">
+      <c r="H280" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="23" t="s">
+      <c r="A281" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B281" s="23" t="s">
+      <c r="B281" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C281" s="23" t="s">
+      <c r="C281" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D281" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E281" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F281" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G281" s="23" t="s">
+      <c r="D281" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H281" s="23" t="s">
+      <c r="H281" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="23" t="s">
+      <c r="A282" s="20" t="s">
         <v>448</v>
       </c>
-      <c r="B282" s="23" t="s">
+      <c r="B282" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C282" s="23" t="s">
+      <c r="C282" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D282" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E282" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F282" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G282" s="23" t="s">
+      <c r="D282" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G282" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H282" s="23" t="s">
+      <c r="H282" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="23" t="s">
+      <c r="A283" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="B283" s="23" t="s">
+      <c r="B283" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C283" s="23" t="s">
+      <c r="C283" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="D283" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E283" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F283" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G283" s="23" t="s">
+      <c r="D283" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H283" s="23" t="s">
+      <c r="H283" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="23" t="s">
+      <c r="A284" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="B284" s="23" t="s">
+      <c r="B284" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C284" s="23" t="s">
+      <c r="C284" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D284" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E284" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F284" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G284" s="23" t="s">
+      <c r="D284" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E284" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G284" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H284" s="23" t="s">
+      <c r="H284" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="23" t="s">
+      <c r="A285" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="B285" s="23" t="s">
+      <c r="B285" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C285" s="23" t="s">
+      <c r="C285" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D285" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E285" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F285" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G285" s="23" t="s">
+      <c r="D285" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H285" s="23" t="s">
+      <c r="H285" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="23" t="s">
+      <c r="A286" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="B286" s="23" t="s">
+      <c r="B286" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C286" s="23" t="s">
+      <c r="C286" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D286" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E286" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F286" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G286" s="23" t="s">
+      <c r="D286" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E286" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H286" s="23" t="s">
+      <c r="H286" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="23" t="s">
+      <c r="A287" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="B287" s="23" t="s">
+      <c r="B287" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C287" s="23" t="s">
+      <c r="C287" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D287" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E287" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F287" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G287" s="23" t="s">
+      <c r="D287" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E287" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H287" s="23" t="s">
+      <c r="H287" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="23" t="s">
+      <c r="A288" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="B288" s="23" t="s">
+      <c r="B288" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="C288" s="23" t="s">
+      <c r="C288" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D288" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E288" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G288" s="23" t="s">
+      <c r="D288" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H288" s="23" t="s">
+      <c r="H288" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="23" t="s">
+      <c r="A289" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="B289" s="23" t="s">
+      <c r="B289" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C289" s="23" t="s">
+      <c r="C289" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D289" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E289" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F289" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G289" s="23" t="s">
+      <c r="D289" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="H289" s="23" t="s">
+      <c r="H289" s="20" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="24" t="s">
+      <c r="A290" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="B290" s="24" t="s">
+      <c r="B290" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C290" s="24" t="s">
+      <c r="C290" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D290" s="24" t="s">
+      <c r="D290" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E290" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290" s="24" t="s">
+      <c r="E290" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H290" s="24" t="s">
+      <c r="H290" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="24" t="s">
+      <c r="A291" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B291" s="24" t="s">
+      <c r="B291" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="24" t="s">
+      <c r="C291" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D291" s="24" t="s">
+      <c r="D291" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E291" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F291" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G291" s="24" t="s">
+      <c r="E291" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H291" s="24" t="s">
+      <c r="H291" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="24" t="s">
+      <c r="A292" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="B292" s="24" t="s">
+      <c r="B292" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C292" s="24" t="s">
+      <c r="C292" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D292" s="24" t="s">
+      <c r="D292" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E292" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F292" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G292" s="24" t="s">
+      <c r="E292" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H292" s="24" t="s">
+      <c r="H292" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="24" t="s">
+      <c r="A293" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B293" s="24" t="s">
+      <c r="B293" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C293" s="24" t="s">
+      <c r="C293" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D293" s="24" t="s">
+      <c r="D293" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E293" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F293" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G293" s="24" t="s">
+      <c r="E293" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H293" s="24" t="s">
+      <c r="H293" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="24" t="s">
+      <c r="A294" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="B294" s="24" t="s">
+      <c r="B294" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C294" s="24" t="s">
+      <c r="C294" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D294" s="24" t="s">
+      <c r="D294" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E294" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F294" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G294" s="24" t="s">
+      <c r="E294" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H294" s="24" t="s">
+      <c r="H294" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="24" t="s">
+      <c r="A295" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B295" s="24" t="s">
+      <c r="B295" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C295" s="24" t="s">
+      <c r="C295" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D295" s="24" t="s">
+      <c r="D295" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E295" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F295" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" s="24" t="s">
+      <c r="E295" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H295" s="24" t="s">
+      <c r="H295" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="24" t="s">
+      <c r="A296" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="B296" s="24" t="s">
+      <c r="B296" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C296" s="24" t="s">
+      <c r="C296" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D296" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E296" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G296" s="24" t="s">
+      <c r="D296" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E296" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H296" s="24" t="s">
+      <c r="H296" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="24" t="s">
+      <c r="A297" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B297" s="24" t="s">
+      <c r="B297" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C297" s="24" t="s">
+      <c r="C297" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D297" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E297" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F297" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G297" s="24" t="s">
+      <c r="D297" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H297" s="24" t="s">
+      <c r="H297" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="24" t="s">
+      <c r="A298" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B298" s="24" t="s">
+      <c r="B298" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C298" s="24" t="s">
+      <c r="C298" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D298" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E298" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F298" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" s="24" t="s">
+      <c r="D298" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E298" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H298" s="24" t="s">
+      <c r="H298" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="24" t="s">
+      <c r="A299" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="B299" s="24" t="s">
+      <c r="B299" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C299" s="24" t="s">
+      <c r="C299" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D299" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E299" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F299" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G299" s="24" t="s">
+      <c r="D299" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H299" s="24" t="s">
+      <c r="H299" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="24" t="s">
+      <c r="A300" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B300" s="24" t="s">
+      <c r="B300" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C300" s="24" t="s">
+      <c r="C300" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D300" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E300" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F300" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G300" s="24" t="s">
+      <c r="D300" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H300" s="24" t="s">
+      <c r="H300" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="24" t="s">
+      <c r="A301" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="B301" s="24" t="s">
+      <c r="B301" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C301" s="24" t="s">
+      <c r="C301" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D301" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E301" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F301" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" s="24" t="s">
+      <c r="D301" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E301" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H301" s="24" t="s">
+      <c r="H301" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="24" t="s">
+      <c r="A302" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="B302" s="24" t="s">
+      <c r="B302" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C302" s="24" t="s">
+      <c r="C302" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D302" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E302" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="24" t="s">
+      <c r="D302" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H302" s="24" t="s">
+      <c r="H302" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B303" s="24" t="s">
+      <c r="B303" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C303" s="24" t="s">
+      <c r="C303" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D303" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E303" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F303" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G303" s="24" t="s">
+      <c r="D303" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E303" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H303" s="24" t="s">
+      <c r="H303" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="24" t="s">
+      <c r="A304" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B304" s="24" t="s">
+      <c r="B304" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C304" s="24" t="s">
+      <c r="C304" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D304" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E304" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F304" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="24" t="s">
+      <c r="D304" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H304" s="24" t="s">
+      <c r="H304" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B305" s="24" t="s">
+      <c r="B305" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C305" s="24" t="s">
+      <c r="C305" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D305" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E305" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F305" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G305" s="24" t="s">
+      <c r="D305" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E305" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H305" s="24" t="s">
+      <c r="H305" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="24" t="s">
+      <c r="A306" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B306" s="24" t="s">
+      <c r="B306" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C306" s="24" t="s">
+      <c r="C306" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D306" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E306" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F306" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G306" s="24" t="s">
+      <c r="D306" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E306" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H306" s="24" t="s">
+      <c r="H306" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="24" t="s">
+      <c r="A307" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="B307" s="24" t="s">
+      <c r="B307" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C307" s="24" t="s">
+      <c r="C307" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="D307" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E307" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F307" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G307" s="24" t="s">
+      <c r="D307" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E307" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F307" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H307" s="24" t="s">
+      <c r="H307" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="24" t="s">
+      <c r="A308" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="B308" s="24" t="s">
+      <c r="B308" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C308" s="24" t="s">
+      <c r="C308" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D308" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E308" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F308" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G308" s="24" t="s">
+      <c r="D308" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E308" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F308" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H308" s="24" t="s">
+      <c r="H308" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="24" t="s">
+      <c r="A309" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="B309" s="24" t="s">
+      <c r="B309" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="C309" s="24" t="s">
+      <c r="C309" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D309" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E309" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F309" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G309" s="24" t="s">
+      <c r="D309" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E309" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F309" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H309" s="24" t="s">
+      <c r="H309" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310" s="24" t="s">
+      <c r="A310" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="B310" s="24" t="s">
+      <c r="B310" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C310" s="24" t="s">
+      <c r="C310" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D310" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E310" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F310" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G310" s="24" t="s">
+      <c r="D310" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E310" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F310" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G310" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H310" s="24" t="s">
+      <c r="H310" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311" s="24" t="s">
+      <c r="A311" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C311" s="24" t="s">
+      <c r="C311" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="D311" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E311" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F311" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G311" s="24" t="s">
+      <c r="D311" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E311" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F311" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H311" s="24" t="s">
+      <c r="H311" s="21" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="24" t="s">
+      <c r="A312" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="B312" s="24" t="s">
+      <c r="B312" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C312" s="24" t="s">
+      <c r="C312" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D312" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E312" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F312" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G312" s="24" t="s">
+      <c r="D312" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E312" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H312" s="24" t="s">
+      <c r="H312" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G315" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G316" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H316" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E317" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F317" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G317" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H317" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C318" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D318" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E318" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G318" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H318" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B319" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E319" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G319" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="H319" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="D320" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="E320" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G320" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H320" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C321" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="D321" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="E321" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G321" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="H321" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B322" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E322" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="G322" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="H322" s="21" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10766,7 +11034,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>275</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -10774,61 +11042,61 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>301</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -10836,19 +11104,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>286</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -10856,37 +11124,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="13" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>290</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -10894,31 +11162,31 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="22" t="s">
         <v>292</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -10926,25 +11194,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="16"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="22" t="s">
         <v>295</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -10952,25 +11220,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="22" t="s">
         <v>297</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -10978,37 +11246,37 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
-      <c r="A40" s="16"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="13" t="s">
         <v>291</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="503">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1059,6 +1059,132 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置(查看)
+ 基础代码维护(查看、修改、删除、新增)
+ 客户资料维护(查看、修改、删除、新增)
+ 仓库资料维护(查看、修改、删除、新增)
+ 料品资料维护(查看、修改、删除、新增)
+ 部门资料维护(查看、修改、删除、新增)
+ 职员资料维护(查看、修改、删除、新增)
+ BOM单资料维护(查看、修改、删除、新增)
+ 计量单位维护(查看、修改、删除、新增)
+ 仓库类型维护(查看、修改、删除、新增)
+ 供应商资料维护(查看、修改、删除、新增)
+ 车间资料维护(查看、修改、删除、新增)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>系统管理(查看)
+ 存货核算(查看)－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看权限包括结算、反结算</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责采购审批</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理(查看)
+ 采购管理(查看)
+  采购单管理(查看、修改、删除、新增、审批)
+  采购入库(查看)
+  采购退货(查看)
+ 委外加工(查看)
+  委外领料(查看)
+  委外退料(查看)
+  委外入库(查看)
+  委外退货(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础设置(查看)
+ BOM单资料维护(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料采购员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理(查看)
+ 采购管理(查看)
+  采购单管理(查看、修改、删除、新增)
+  采购入库(查看)
+  采购退货(查看)
+ 委外加工(查看)
+  委外领料(查看)
+  委外退料(查看)
+  委外入库(查看)
+  委外退货(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部门</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部门角色</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1097,45 +1223,571 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>系统管理(查看)
- 用户管理(查看、修改、删除、新增)
- 日志管理(查看、修改、删除、新增)
- 存货核算(查看)－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看权限包括结算、反结算</t>
-    </r>
+    <t>数据录入员(统计员、仓管员）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>基础设置(查看)
- 基础代码维护(查看、修改、删除、新增)
- 客户资料维护(查看、修改、删除、新增)
- 仓库资料维护(查看、修改、删除、新增)
- 料品资料维护(查看、修改、删除、新增)
- 部门资料维护(查看、修改、删除、新增)
- 职员资料维护(查看、修改、删除、新增)
- BOM单资料维护(查看、修改、删除、新增)
- 计量单位维护(查看、修改、删除、新增)
- 仓库类型维护(查看、修改、删除、新增)
- 供应商资料维护(查看、修改、删除、新增)
- 车间资料维护(查看、修改、删除、新增)</t>
+    <t>数据录入员（系统统计员、系统仓管员）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>仓库管理(查看、修改、删除、新增、提交)
- 采购管理(查看、修改、删除、新增、提交)
-  采购单管理(查看、修改、删除、新增、提交)
+    <t>采购经理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10a7b58c-b54b-4932-aa33-90f0cde14d00</t>
+  </si>
+  <si>
+    <t>873b414d-8a4d-412d-933d-e512aba3c34b</t>
+  </si>
+  <si>
+    <t>82f87c03-51ce-4602-87ed-d8dd064fa8bc</t>
+  </si>
+  <si>
+    <t>47aa605c-2f61-49f2-938a-347c6c479f84</t>
+  </si>
+  <si>
+    <t>c2f839c4-8144-4b77-8615-d20e8c83f148</t>
+  </si>
+  <si>
+    <t>410ee8eb-d252-4dda-817a-c18856d43d99</t>
+  </si>
+  <si>
+    <t>35fbfc31-a1c4-4124-9477-8437f4546a10</t>
+  </si>
+  <si>
+    <t>1f341ecd-3612-45bd-ab3d-d246b98eb102</t>
+  </si>
+  <si>
+    <t>38cd5b58-e12a-43ca-9e02-fee650ec959a</t>
+  </si>
+  <si>
+    <t>f3e360a3-22b1-41a0-868f-a68970204a5a</t>
+  </si>
+  <si>
+    <t>678a094b-942b-4f90-a3cf-fcddede79f41</t>
+  </si>
+  <si>
+    <t>f58f90be-278c-4f7e-899b-0d3e571f84ac</t>
+  </si>
+  <si>
+    <t>dddc4d21-6690-4a5e-923e-0e43d27d4c77</t>
+  </si>
+  <si>
+    <t>33f1a0d7-f251-4b04-9a8b-1a2bb6279c37</t>
+  </si>
+  <si>
+    <t>08a0531f-7e77-4f27-a4be-010a0571899d</t>
+  </si>
+  <si>
+    <t>aacee487-35b3-491c-918b-47c1395b38f9</t>
+  </si>
+  <si>
+    <t>b81bb6e1-c1cb-4a37-85e2-5c7c95a48ada</t>
+  </si>
+  <si>
+    <t>5e734e12-0ef0-4263-a790-fc651c77ccc5</t>
+  </si>
+  <si>
+    <t>1bfa3743-7e9e-4a00-b42b-e2215735aa9d</t>
+  </si>
+  <si>
+    <t>a318c2ae-f5cf-43a2-9eb7-fb5795fe879e</t>
+  </si>
+  <si>
+    <t>3ffe276e-b735-4080-9693-e1257440b121</t>
+  </si>
+  <si>
+    <t>6dde563e-7eee-4602-9e24-30ed3d1eea99</t>
+  </si>
+  <si>
+    <t>f5a53dfd-1e42-4323-ba1b-4d19a3d1c4c5</t>
+  </si>
+  <si>
+    <t>11bbe90e-4839-4d6b-8fdd-d603214289d0</t>
+  </si>
+  <si>
+    <t>7f89e6d8-1713-44ae-9567-4c4f7a70cae3</t>
+  </si>
+  <si>
+    <t>b9f1050d-61ae-4386-9426-71083f18b927</t>
+  </si>
+  <si>
+    <t>69b01318-5961-44bd-ab48-e191621447c4</t>
+  </si>
+  <si>
+    <t>955be83b-566d-4e7f-b10c-3ac342b51c85</t>
+  </si>
+  <si>
+    <t>9887afcf-b141-4376-9f0b-e3f1be453e24</t>
+  </si>
+  <si>
+    <t>c117eb9b-fd48-4acc-a3ec-d4b4f4d51586</t>
+  </si>
+  <si>
+    <t>3189335b-ba05-415a-a7dc-cf1782d785b0</t>
+  </si>
+  <si>
+    <t>b43ad161-6193-4108-a33b-2e1ead07c211</t>
+  </si>
+  <si>
+    <t>3875651a-75cd-40bc-9ed5-a5f65a34d5e5</t>
+  </si>
+  <si>
+    <t>d1dbc7e4-3207-4cf8-adc9-437ee3ef8257</t>
+  </si>
+  <si>
+    <t>cccf1f7f-8949-4eea-af6d-4fec0a25e1a1</t>
+  </si>
+  <si>
+    <t>b1504eaf-b7fc-45ae-a5b2-a526f1443a2d</t>
+  </si>
+  <si>
+    <t>a5265fe5-5212-40da-aed6-fc64da01ab48</t>
+  </si>
+  <si>
+    <t>7e11b9e0-aec1-4596-8d25-555f551d3e1b</t>
+  </si>
+  <si>
+    <t>c78963c5-8c0b-4f0f-861d-3c8f5f081383</t>
+  </si>
+  <si>
+    <t>7c85d5ec-ebf0-42dd-9a7a-f57a8df16fb0</t>
+  </si>
+  <si>
+    <t>8e379dae-119a-4fb6-8700-e3ca25b575af</t>
+  </si>
+  <si>
+    <t>85af6b32-db0f-4b46-b6fe-0ec9898c575a</t>
+  </si>
+  <si>
+    <t>b09bd4d6-7af4-412a-8f65-cedd2852bb2c</t>
+  </si>
+  <si>
+    <t>89bf65e0-85d7-4d50-8e93-02d1fa793070</t>
+  </si>
+  <si>
+    <t>08c3755b-ea4d-4e37-94f9-e8b839338b0d</t>
+  </si>
+  <si>
+    <t>2306a2f4-3811-40e5-a443-d933c199a0c5</t>
+  </si>
+  <si>
+    <t>00dc78fd-c084-40d7-b6e7-f705ac4332a3</t>
+  </si>
+  <si>
+    <t>bd73487e-9530-4a5f-b7e8-99ab0629909b</t>
+  </si>
+  <si>
+    <t>5f658423-385f-4e02-97f3-a2d61c241817</t>
+  </si>
+  <si>
+    <t>dbad4bee-0dfa-482f-bac0-d2af5fa482f7</t>
+  </si>
+  <si>
+    <t>90a87ec4-e35b-43db-9fc7-9e932b5ab5fa</t>
+  </si>
+  <si>
+    <t>9ce557fc-2c2d-4a13-9160-85995f587bfe</t>
+  </si>
+  <si>
+    <t>9941ccd4-2442-4424-83bb-4a3bb36f66fa</t>
+  </si>
+  <si>
+    <t>0cf46bf2-687d-42d7-bea1-ce9ea4f51f28</t>
+  </si>
+  <si>
+    <t>1c4ddae6-13ee-4348-b4e9-f3f147609a3a</t>
+  </si>
+  <si>
+    <t>1bd4cd4b-2b5a-4b7d-9f8f-03e3593a3570</t>
+  </si>
+  <si>
+    <t>be9047df-2d23-4442-a117-e61f2ec29368</t>
+  </si>
+  <si>
+    <t>1df8b46f-2b82-4eeb-8e8c-c4816f2ec2a5</t>
+  </si>
+  <si>
+    <t>ecb9d303-f3b8-4697-a6b8-10d7320846ce</t>
+  </si>
+  <si>
+    <t>a29489c2-19ee-41ae-bcbb-17d7a74fc71f</t>
+  </si>
+  <si>
+    <t>2c4dbbf5-d14c-4098-ac70-a07d5cf67f64</t>
+  </si>
+  <si>
+    <t>20cd5d92-ec30-4af5-84d5-9a22c530e27a</t>
+  </si>
+  <si>
+    <t>19000ffe-1c3b-417b-9b4b-e2fd53380612</t>
+  </si>
+  <si>
+    <t>a406da49-58d0-491c-93d3-eaebe44dd521</t>
+  </si>
+  <si>
+    <t>53c5c231-1a27-402e-9ea2-953820066d47</t>
+  </si>
+  <si>
+    <t>7614112c-d713-4823-b8ca-da9ce7e27821</t>
+  </si>
+  <si>
+    <t>c2fa35a7-cb35-4d7d-b942-063576347f42</t>
+  </si>
+  <si>
+    <t>82f4efa3-394b-4047-a907-0ff719df4528</t>
+  </si>
+  <si>
+    <t>5c1f8237-5ea0-48dc-b447-7e160b51b621</t>
+  </si>
+  <si>
+    <t>028b7934-7fab-4481-9ddb-aa4b69023a1f</t>
+  </si>
+  <si>
+    <t>85eb54de-46f6-477c-b8eb-ad96bd86f8b9</t>
+  </si>
+  <si>
+    <t>9874aae5-0df1-458f-a146-2d6e4c6ba148</t>
+  </si>
+  <si>
+    <t>1640b054-3212-4295-9ec0-6e4e2c6c4ccf</t>
+  </si>
+  <si>
+    <t>3c6751f9-2107-4e0c-84c3-6fd5cc9c84cc</t>
+  </si>
+  <si>
+    <t>0562fc5a-540e-4aa3-8da0-42f75354fc1d</t>
+  </si>
+  <si>
+    <t>5dc6b1d1-a4ee-403b-88f5-d9f5000a1b35</t>
+  </si>
+  <si>
+    <t>cdfcbd44-7f41-497f-b906-dcf9eb13c1dc</t>
+  </si>
+  <si>
+    <t>e9fe060b-09ea-4cb4-8b9b-bb8d4a3c3a8d</t>
+  </si>
+  <si>
+    <t>f24ddb24-f6ab-4ac1-9721-1661f03ca9b3</t>
+  </si>
+  <si>
+    <t>67bb7ac5-5973-407d-97b1-11c13441d47e</t>
+  </si>
+  <si>
+    <t>492a10e4-dd4a-42d0-8fe9-dc94e2b65a9f</t>
+  </si>
+  <si>
+    <t>e20ecdc9-6567-446b-b941-eb9fd5dc1dd9</t>
+  </si>
+  <si>
+    <t>b75cd18e-2897-42de-ad4f-e1218a3b74f1</t>
+  </si>
+  <si>
+    <t>dece64ce-c060-49d4-96f1-51188eaa599c</t>
+  </si>
+  <si>
+    <t>数据录入员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5eb8a565-7f0a-4233-8ff0-d6704daa5492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockSettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货核算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>549b5d04-4ba9-4d79-b6fc-d45b0628b223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d65679fa-8a54-43f9-bbbe-830e059cbd35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a12a0bba-52c2-4744-88c9-45ebabeda83e</t>
+  </si>
+  <si>
+    <t>ee7314cb-ab72-435c-ba23-7af6f840f2bd</t>
+  </si>
+  <si>
+    <t>b5a47ea8-0fb9-497c-9434-795423fddb68</t>
+  </si>
+  <si>
+    <t>ae48a0ee-4b18-44dc-b8e9-073cbc644f5d</t>
+  </si>
+  <si>
+    <t>314e175f-091f-4cb6-91bd-2250c38874b7</t>
+  </si>
+  <si>
+    <t>82a95867-a22d-4435-89bf-8a779ad062e1</t>
+  </si>
+  <si>
+    <t>d394e92f-f147-4eff-8193-9b812a3139d2</t>
+  </si>
+  <si>
+    <t>a4a630df-f5dc-4e00-935e-51f6daedbe90</t>
+  </si>
+  <si>
+    <t>d9e3d386-5709-4f4c-9aaf-d8b43451ce1b</t>
+  </si>
+  <si>
+    <t>49ef9f96-65d5-4f74-8210-f3a85a085523</t>
+  </si>
+  <si>
+    <t>8dbe6efc-6f45-4dad-8144-9464d58cffce</t>
+  </si>
+  <si>
+    <t>6e90a65b-1d75-4bb4-94d8-cac08d9f878a</t>
+  </si>
+  <si>
+    <t>3dbe87f0-c37d-4daa-b9c0-e7a178207a86</t>
+  </si>
+  <si>
+    <t>f6bac9cd-50f1-4b94-8290-9a7a97d8b324</t>
+  </si>
+  <si>
+    <t>0b513561-eef4-4c74-bae5-17b957acf9f5</t>
+  </si>
+  <si>
+    <t>5213414b-0a20-451f-9a6d-236838281396</t>
+  </si>
+  <si>
+    <t>8aaa9685-e2dd-40f7-8adc-89edae221354</t>
+  </si>
+  <si>
+    <t>e10929e1-ec24-4fed-b4ee-2fb03da90ce5</t>
+  </si>
+  <si>
+    <t>3d2084a2-600c-4862-8091-aa3e4c637acd</t>
+  </si>
+  <si>
+    <t>1623cbbc-2a55-4416-982b-137dc95735db</t>
+  </si>
+  <si>
+    <t>b742fba6-0304-46ac-942b-0a547a047480</t>
+  </si>
+  <si>
+    <t>a8d09d8f-bbb4-44bb-979d-046a862a20a5</t>
+  </si>
+  <si>
+    <t>4ca55539-f4c6-49c5-968f-353ba9dbe92e</t>
+  </si>
+  <si>
+    <t>71e2949b-c6e7-4820-960f-3d4e816e310a</t>
+  </si>
+  <si>
+    <t>cb70f638-7a2d-4b14-901e-39d7cf44a853</t>
+  </si>
+  <si>
+    <t>59637e90-eb39-42cb-b455-84520e4505b6</t>
+  </si>
+  <si>
+    <t>ba461660-72c1-4bb0-b5bc-02d5bea92ef9</t>
+  </si>
+  <si>
+    <t>d40c2f31-4b48-4e9d-af93-b64089ba6e99</t>
+  </si>
+  <si>
+    <t>63fdf820-f805-494b-a1cf-b32bf07d479c</t>
+  </si>
+  <si>
+    <t>856affb0-2936-4b38-bc50-909d5d341234</t>
+  </si>
+  <si>
+    <t>a228be4c-262c-4ec2-8ea2-d7e89482302d</t>
+  </si>
+  <si>
+    <t>d17a5c28-6244-439c-8c1a-6ac729e113d6</t>
+  </si>
+  <si>
+    <t>25c1c641-04d9-4033-b043-652fff33d6c7</t>
+  </si>
+  <si>
+    <t>16297911-8ac4-4eaf-9917-33b062bbc5d0</t>
+  </si>
+  <si>
+    <t>b9689a5a-7c0c-4368-af3b-60f371b9ef7e</t>
+  </si>
+  <si>
+    <t>542da901-2683-4e99-b8b2-3c986d9ace66</t>
+  </si>
+  <si>
+    <t>a9457933-c431-4b96-b1c2-5260eda02717</t>
+  </si>
+  <si>
+    <t>5a657734-3930-419d-a2f9-7ab802f21ce6</t>
+  </si>
+  <si>
+    <t>217be2b9-b78d-4043-ad2d-3159d98e71d0</t>
+  </si>
+  <si>
+    <t>f82615e0-01b4-4d78-ae54-834aa11e5770</t>
+  </si>
+  <si>
+    <t>31a995c0-993c-4555-9adf-fac29d28f56c</t>
+  </si>
+  <si>
+    <t>d1bfa09e-ad88-4255-a4be-06352b2c0c87</t>
+  </si>
+  <si>
+    <t>c96f2bac-47d0-4679-a05d-532222c72071</t>
+  </si>
+  <si>
+    <t>fc9c1a14-6fcf-4f7a-925b-8e0bde83d159</t>
+  </si>
+  <si>
+    <t>54864274-b3ad-4175-b5e5-34329f87f6da</t>
+  </si>
+  <si>
+    <t>dab349bd-a93e-4a22-9184-8adcc2936567</t>
+  </si>
+  <si>
+    <t>df960398-4ea9-4dcf-bbd2-f743ad55476e</t>
+  </si>
+  <si>
+    <t>f614a478-d41a-4ab1-9978-2d2bb77eeee1</t>
+  </si>
+  <si>
+    <t>0e297af8-d5ce-49b5-aaf1-09027a324b85</t>
+  </si>
+  <si>
+    <t>0f4fa3d8-7faa-4990-9eaf-d859b43f90e7</t>
+  </si>
+  <si>
+    <t>1d9c0093-749d-462f-a527-25c91a19dfd5</t>
+  </si>
+  <si>
+    <t>6ce92b3e-dffd-4a41-b3c1-ecce0bcd5e0e</t>
+  </si>
+  <si>
+    <t>550f63ac-e1ad-4d1c-8503-1a5bccc149ac</t>
+  </si>
+  <si>
+    <t>2ecc8e80-ec41-42c0-b9bb-c1976ded0902</t>
+  </si>
+  <si>
+    <t>b83ab63a-43d8-485b-8d53-22cd58438daa</t>
+  </si>
+  <si>
+    <t>ca0d9725-1c11-447b-a9fe-c5359558900b</t>
+  </si>
+  <si>
+    <t>d966827f-0ce7-4b8c-a1bd-109b7449e091</t>
+  </si>
+  <si>
+    <t>d25e222c-9a39-447e-8e45-106fd156fc35</t>
+  </si>
+  <si>
+    <t>96c39bbc-e25d-4fac-9701-a4945c54a314</t>
+  </si>
+  <si>
+    <t>8b3de8fa-115e-4a68-a21a-5d3aca4176ca</t>
+  </si>
+  <si>
+    <t>75ff27ab-dd83-4cbc-80fa-1d947dc81a99</t>
+  </si>
+  <si>
+    <t>bb13cf14-fd7d-498a-a5bf-4bf0fa1e00ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102a37a5-0022-4d50-af90-f61b03ea1eb4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04a1e33b-6715-4651-be60-b57fcc479cae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13e37bf2-cfd7-4ad5-bc9c-93a6caeda7ef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7bbad11-3814-4070-ad3c-a4f8949a4b76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b819bce-2197-4820-be5d-52d73a49ca03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7bde2c1e-23a2-4594-8aaa-806dd47a4b72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48afddba-8252-4386-956c-d47020444717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61cb8d3e-c9b7-438b-aa55-14c23794144d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c69dc0e7-108e-41af-be68-b3d462e90f04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6e0a172-a3fa-4626-a4b7-89540752e16a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理(查看)
+ 采购管理(查看)
+  采购单管理(查看、修改、删除、新增)
   采购入库(查看、修改、删除、新增、提交)
   采购退货(查看、修改、删除、新增、提交)
- 委外加工(查看、修改、删除、新增、提交)
+ 委外加工(查看)
   委外领料(查看、修改、删除、新增、提交)
   委外退料(查看、修改、删除、新增、提交)
   委外入库(查看、修改、删除、新增、提交)
@@ -1144,157 +1796,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> 车间制造(查看、修改、删除、新增、提交)
+      <t xml:space="preserve"> 车间制造(查看)
   制造领料(查看、修改、删除、新增、提交)
   制造退料(查看、修改、删除、新增、提交)
   制造入库(查看、修改、删除、新增、提交)
   制造退货(查看、修改、删除、新增、提交)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看、修改、删除、新增、提交)
-  库存情况(查看、修改、删除、新增、提交)
-  黑胚材料耗用表(查看、修改、删除、新增、提交)
-  发外加工对数表(查看、修改、删除、新增、提交)
-  安装包装材料表(查看、修改、删除、新增、提交)
-  成品报表(查看、修改、删除、新增、提交)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>系统管理(查看)
- 存货核算(查看)－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看权限包括结算、反结算</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责采购审批</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理(查看)
- 采购管理(查看)
-  采购单管理(查看、修改、删除、新增、审批)
-  采购入库(查看)
-  采购退货(查看)
- 委外加工(查看)
-  委外领料(查看)
-  委外退料(查看)
-  委外入库(查看)
-  委外退货(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础设置(查看)
- BOM单资料维护(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料采购员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库管理(查看)
- 采购管理(查看)
-  采购单管理(查看、修改、删除、新增)
-  采购入库(查看)
-  采购退货(查看)
- 委外加工(查看)
-  委外领料(查看)
-  委外退料(查看)
-  委外入库(查看)
-  委外退货(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部门</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部门角色</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
   </t>
     </r>
     <r>
@@ -1324,275 +1830,38 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>数据录入员(统计员、仓管员）</t>
+    <t>仓库管理(查看)
+ 采购管理(查看)
+  采购单管理(查看、修改、删除、新增、审批)
+  采购入库(查看、修改、删除、新增、提交)
+  采购退货(查看、修改、删除、新增、提交)
+ 委外加工(查看)
+  委外领料(查看、修改、删除、新增、提交)
+  委外退料(查看、修改、删除、新增、提交)
+  委外入库(查看、修改、删除、新增、提交)
+  委外退货(查看、修改、删除、新增、提交)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>数据录入员（系统统计员、系统仓管员）</t>
+    <r>
+      <t>系统管理(查看)
+ 用户管理(查看、修改、删除、新增)
+ 日志管理(查看)
+ 存货核算(查看)－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看权限包括结算、反结算</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购员</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>10a7b58c-b54b-4932-aa33-90f0cde14d00</t>
-  </si>
-  <si>
-    <t>873b414d-8a4d-412d-933d-e512aba3c34b</t>
-  </si>
-  <si>
-    <t>82f87c03-51ce-4602-87ed-d8dd064fa8bc</t>
-  </si>
-  <si>
-    <t>47aa605c-2f61-49f2-938a-347c6c479f84</t>
-  </si>
-  <si>
-    <t>c2f839c4-8144-4b77-8615-d20e8c83f148</t>
-  </si>
-  <si>
-    <t>410ee8eb-d252-4dda-817a-c18856d43d99</t>
-  </si>
-  <si>
-    <t>35fbfc31-a1c4-4124-9477-8437f4546a10</t>
-  </si>
-  <si>
-    <t>1f341ecd-3612-45bd-ab3d-d246b98eb102</t>
-  </si>
-  <si>
-    <t>38cd5b58-e12a-43ca-9e02-fee650ec959a</t>
-  </si>
-  <si>
-    <t>f3e360a3-22b1-41a0-868f-a68970204a5a</t>
-  </si>
-  <si>
-    <t>678a094b-942b-4f90-a3cf-fcddede79f41</t>
-  </si>
-  <si>
-    <t>f58f90be-278c-4f7e-899b-0d3e571f84ac</t>
-  </si>
-  <si>
-    <t>dddc4d21-6690-4a5e-923e-0e43d27d4c77</t>
-  </si>
-  <si>
-    <t>33f1a0d7-f251-4b04-9a8b-1a2bb6279c37</t>
-  </si>
-  <si>
-    <t>08a0531f-7e77-4f27-a4be-010a0571899d</t>
-  </si>
-  <si>
-    <t>aacee487-35b3-491c-918b-47c1395b38f9</t>
-  </si>
-  <si>
-    <t>b81bb6e1-c1cb-4a37-85e2-5c7c95a48ada</t>
-  </si>
-  <si>
-    <t>5e734e12-0ef0-4263-a790-fc651c77ccc5</t>
-  </si>
-  <si>
-    <t>1bfa3743-7e9e-4a00-b42b-e2215735aa9d</t>
-  </si>
-  <si>
-    <t>a318c2ae-f5cf-43a2-9eb7-fb5795fe879e</t>
-  </si>
-  <si>
-    <t>3ffe276e-b735-4080-9693-e1257440b121</t>
-  </si>
-  <si>
-    <t>6dde563e-7eee-4602-9e24-30ed3d1eea99</t>
-  </si>
-  <si>
-    <t>f5a53dfd-1e42-4323-ba1b-4d19a3d1c4c5</t>
-  </si>
-  <si>
-    <t>11bbe90e-4839-4d6b-8fdd-d603214289d0</t>
-  </si>
-  <si>
-    <t>7f89e6d8-1713-44ae-9567-4c4f7a70cae3</t>
-  </si>
-  <si>
-    <t>b9f1050d-61ae-4386-9426-71083f18b927</t>
-  </si>
-  <si>
-    <t>69b01318-5961-44bd-ab48-e191621447c4</t>
-  </si>
-  <si>
-    <t>955be83b-566d-4e7f-b10c-3ac342b51c85</t>
-  </si>
-  <si>
-    <t>9887afcf-b141-4376-9f0b-e3f1be453e24</t>
-  </si>
-  <si>
-    <t>c117eb9b-fd48-4acc-a3ec-d4b4f4d51586</t>
-  </si>
-  <si>
-    <t>3189335b-ba05-415a-a7dc-cf1782d785b0</t>
-  </si>
-  <si>
-    <t>b43ad161-6193-4108-a33b-2e1ead07c211</t>
-  </si>
-  <si>
-    <t>3875651a-75cd-40bc-9ed5-a5f65a34d5e5</t>
-  </si>
-  <si>
-    <t>d1dbc7e4-3207-4cf8-adc9-437ee3ef8257</t>
-  </si>
-  <si>
-    <t>cccf1f7f-8949-4eea-af6d-4fec0a25e1a1</t>
-  </si>
-  <si>
-    <t>b1504eaf-b7fc-45ae-a5b2-a526f1443a2d</t>
-  </si>
-  <si>
-    <t>a5265fe5-5212-40da-aed6-fc64da01ab48</t>
-  </si>
-  <si>
-    <t>7e11b9e0-aec1-4596-8d25-555f551d3e1b</t>
-  </si>
-  <si>
-    <t>c78963c5-8c0b-4f0f-861d-3c8f5f081383</t>
-  </si>
-  <si>
-    <t>7c85d5ec-ebf0-42dd-9a7a-f57a8df16fb0</t>
-  </si>
-  <si>
-    <t>8e379dae-119a-4fb6-8700-e3ca25b575af</t>
-  </si>
-  <si>
-    <t>85af6b32-db0f-4b46-b6fe-0ec9898c575a</t>
-  </si>
-  <si>
-    <t>b09bd4d6-7af4-412a-8f65-cedd2852bb2c</t>
-  </si>
-  <si>
-    <t>89bf65e0-85d7-4d50-8e93-02d1fa793070</t>
-  </si>
-  <si>
-    <t>08c3755b-ea4d-4e37-94f9-e8b839338b0d</t>
-  </si>
-  <si>
-    <t>2306a2f4-3811-40e5-a443-d933c199a0c5</t>
-  </si>
-  <si>
-    <t>00dc78fd-c084-40d7-b6e7-f705ac4332a3</t>
-  </si>
-  <si>
-    <t>bd73487e-9530-4a5f-b7e8-99ab0629909b</t>
-  </si>
-  <si>
-    <t>5f658423-385f-4e02-97f3-a2d61c241817</t>
-  </si>
-  <si>
-    <t>dbad4bee-0dfa-482f-bac0-d2af5fa482f7</t>
-  </si>
-  <si>
-    <t>90a87ec4-e35b-43db-9fc7-9e932b5ab5fa</t>
-  </si>
-  <si>
-    <t>9ce557fc-2c2d-4a13-9160-85995f587bfe</t>
-  </si>
-  <si>
-    <t>9941ccd4-2442-4424-83bb-4a3bb36f66fa</t>
-  </si>
-  <si>
-    <t>0cf46bf2-687d-42d7-bea1-ce9ea4f51f28</t>
-  </si>
-  <si>
-    <t>1c4ddae6-13ee-4348-b4e9-f3f147609a3a</t>
-  </si>
-  <si>
-    <t>1bd4cd4b-2b5a-4b7d-9f8f-03e3593a3570</t>
-  </si>
-  <si>
-    <t>be9047df-2d23-4442-a117-e61f2ec29368</t>
-  </si>
-  <si>
-    <t>1df8b46f-2b82-4eeb-8e8c-c4816f2ec2a5</t>
-  </si>
-  <si>
-    <t>ecb9d303-f3b8-4697-a6b8-10d7320846ce</t>
-  </si>
-  <si>
-    <t>a29489c2-19ee-41ae-bcbb-17d7a74fc71f</t>
-  </si>
-  <si>
-    <t>2c4dbbf5-d14c-4098-ac70-a07d5cf67f64</t>
-  </si>
-  <si>
-    <t>20cd5d92-ec30-4af5-84d5-9a22c530e27a</t>
-  </si>
-  <si>
-    <t>19000ffe-1c3b-417b-9b4b-e2fd53380612</t>
-  </si>
-  <si>
-    <t>a406da49-58d0-491c-93d3-eaebe44dd521</t>
-  </si>
-  <si>
-    <t>53c5c231-1a27-402e-9ea2-953820066d47</t>
-  </si>
-  <si>
-    <t>7614112c-d713-4823-b8ca-da9ce7e27821</t>
-  </si>
-  <si>
-    <t>c2fa35a7-cb35-4d7d-b942-063576347f42</t>
-  </si>
-  <si>
-    <t>82f4efa3-394b-4047-a907-0ff719df4528</t>
-  </si>
-  <si>
-    <t>5c1f8237-5ea0-48dc-b447-7e160b51b621</t>
-  </si>
-  <si>
-    <t>028b7934-7fab-4481-9ddb-aa4b69023a1f</t>
-  </si>
-  <si>
-    <t>85eb54de-46f6-477c-b8eb-ad96bd86f8b9</t>
-  </si>
-  <si>
-    <t>9874aae5-0df1-458f-a146-2d6e4c6ba148</t>
-  </si>
-  <si>
-    <t>1640b054-3212-4295-9ec0-6e4e2c6c4ccf</t>
-  </si>
-  <si>
-    <t>3c6751f9-2107-4e0c-84c3-6fd5cc9c84cc</t>
-  </si>
-  <si>
-    <t>0562fc5a-540e-4aa3-8da0-42f75354fc1d</t>
-  </si>
-  <si>
-    <t>5dc6b1d1-a4ee-403b-88f5-d9f5000a1b35</t>
-  </si>
-  <si>
-    <t>cdfcbd44-7f41-497f-b906-dcf9eb13c1dc</t>
-  </si>
-  <si>
-    <t>e9fe060b-09ea-4cb4-8b9b-bb8d4a3c3a8d</t>
-  </si>
-  <si>
-    <t>f24ddb24-f6ab-4ac1-9721-1661f03ca9b3</t>
-  </si>
-  <si>
-    <t>67bb7ac5-5973-407d-97b1-11c13441d47e</t>
-  </si>
-  <si>
-    <t>492a10e4-dd4a-42d0-8fe9-dc94e2b65a9f</t>
-  </si>
-  <si>
-    <t>e20ecdc9-6567-446b-b941-eb9fd5dc1dd9</t>
-  </si>
-  <si>
-    <t>b75cd18e-2897-42de-ad4f-e1218a3b74f1</t>
-  </si>
-  <si>
-    <t>dece64ce-c060-49d4-96f1-51188eaa599c</t>
-  </si>
-  <si>
-    <t>数据录入员</t>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1600,286 +1869,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stockSettle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存货核算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>549b5d04-4ba9-4d79-b6fc-d45b0628b223</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d65679fa-8a54-43f9-bbbe-830e059cbd35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a12a0bba-52c2-4744-88c9-45ebabeda83e</t>
-  </si>
-  <si>
-    <t>ee7314cb-ab72-435c-ba23-7af6f840f2bd</t>
-  </si>
-  <si>
-    <t>b5a47ea8-0fb9-497c-9434-795423fddb68</t>
-  </si>
-  <si>
-    <t>ae48a0ee-4b18-44dc-b8e9-073cbc644f5d</t>
-  </si>
-  <si>
-    <t>314e175f-091f-4cb6-91bd-2250c38874b7</t>
-  </si>
-  <si>
-    <t>82a95867-a22d-4435-89bf-8a779ad062e1</t>
-  </si>
-  <si>
-    <t>d394e92f-f147-4eff-8193-9b812a3139d2</t>
-  </si>
-  <si>
-    <t>a4a630df-f5dc-4e00-935e-51f6daedbe90</t>
-  </si>
-  <si>
-    <t>d9e3d386-5709-4f4c-9aaf-d8b43451ce1b</t>
-  </si>
-  <si>
-    <t>49ef9f96-65d5-4f74-8210-f3a85a085523</t>
-  </si>
-  <si>
-    <t>8dbe6efc-6f45-4dad-8144-9464d58cffce</t>
-  </si>
-  <si>
-    <t>6e90a65b-1d75-4bb4-94d8-cac08d9f878a</t>
-  </si>
-  <si>
-    <t>3dbe87f0-c37d-4daa-b9c0-e7a178207a86</t>
-  </si>
-  <si>
-    <t>f6bac9cd-50f1-4b94-8290-9a7a97d8b324</t>
-  </si>
-  <si>
-    <t>0b513561-eef4-4c74-bae5-17b957acf9f5</t>
-  </si>
-  <si>
-    <t>5213414b-0a20-451f-9a6d-236838281396</t>
-  </si>
-  <si>
-    <t>8aaa9685-e2dd-40f7-8adc-89edae221354</t>
-  </si>
-  <si>
-    <t>e10929e1-ec24-4fed-b4ee-2fb03da90ce5</t>
-  </si>
-  <si>
-    <t>3d2084a2-600c-4862-8091-aa3e4c637acd</t>
-  </si>
-  <si>
-    <t>1623cbbc-2a55-4416-982b-137dc95735db</t>
-  </si>
-  <si>
-    <t>b742fba6-0304-46ac-942b-0a547a047480</t>
-  </si>
-  <si>
-    <t>a8d09d8f-bbb4-44bb-979d-046a862a20a5</t>
-  </si>
-  <si>
-    <t>4ca55539-f4c6-49c5-968f-353ba9dbe92e</t>
-  </si>
-  <si>
-    <t>71e2949b-c6e7-4820-960f-3d4e816e310a</t>
-  </si>
-  <si>
-    <t>cb70f638-7a2d-4b14-901e-39d7cf44a853</t>
-  </si>
-  <si>
-    <t>59637e90-eb39-42cb-b455-84520e4505b6</t>
-  </si>
-  <si>
-    <t>ba461660-72c1-4bb0-b5bc-02d5bea92ef9</t>
-  </si>
-  <si>
-    <t>d40c2f31-4b48-4e9d-af93-b64089ba6e99</t>
-  </si>
-  <si>
-    <t>63fdf820-f805-494b-a1cf-b32bf07d479c</t>
-  </si>
-  <si>
-    <t>856affb0-2936-4b38-bc50-909d5d341234</t>
-  </si>
-  <si>
-    <t>a228be4c-262c-4ec2-8ea2-d7e89482302d</t>
-  </si>
-  <si>
-    <t>d17a5c28-6244-439c-8c1a-6ac729e113d6</t>
-  </si>
-  <si>
-    <t>25c1c641-04d9-4033-b043-652fff33d6c7</t>
-  </si>
-  <si>
-    <t>16297911-8ac4-4eaf-9917-33b062bbc5d0</t>
-  </si>
-  <si>
-    <t>b9689a5a-7c0c-4368-af3b-60f371b9ef7e</t>
-  </si>
-  <si>
-    <t>542da901-2683-4e99-b8b2-3c986d9ace66</t>
-  </si>
-  <si>
-    <t>a9457933-c431-4b96-b1c2-5260eda02717</t>
-  </si>
-  <si>
-    <t>5a657734-3930-419d-a2f9-7ab802f21ce6</t>
-  </si>
-  <si>
-    <t>217be2b9-b78d-4043-ad2d-3159d98e71d0</t>
-  </si>
-  <si>
-    <t>f82615e0-01b4-4d78-ae54-834aa11e5770</t>
-  </si>
-  <si>
-    <t>31a995c0-993c-4555-9adf-fac29d28f56c</t>
-  </si>
-  <si>
-    <t>d1bfa09e-ad88-4255-a4be-06352b2c0c87</t>
-  </si>
-  <si>
-    <t>c96f2bac-47d0-4679-a05d-532222c72071</t>
-  </si>
-  <si>
-    <t>fc9c1a14-6fcf-4f7a-925b-8e0bde83d159</t>
-  </si>
-  <si>
-    <t>54864274-b3ad-4175-b5e5-34329f87f6da</t>
-  </si>
-  <si>
-    <t>dab349bd-a93e-4a22-9184-8adcc2936567</t>
-  </si>
-  <si>
-    <t>df960398-4ea9-4dcf-bbd2-f743ad55476e</t>
-  </si>
-  <si>
-    <t>f614a478-d41a-4ab1-9978-2d2bb77eeee1</t>
-  </si>
-  <si>
-    <t>0e297af8-d5ce-49b5-aaf1-09027a324b85</t>
-  </si>
-  <si>
-    <t>0f4fa3d8-7faa-4990-9eaf-d859b43f90e7</t>
-  </si>
-  <si>
-    <t>1d9c0093-749d-462f-a527-25c91a19dfd5</t>
-  </si>
-  <si>
-    <t>6ce92b3e-dffd-4a41-b3c1-ecce0bcd5e0e</t>
-  </si>
-  <si>
-    <t>550f63ac-e1ad-4d1c-8503-1a5bccc149ac</t>
-  </si>
-  <si>
-    <t>2ecc8e80-ec41-42c0-b9bb-c1976ded0902</t>
-  </si>
-  <si>
-    <t>b83ab63a-43d8-485b-8d53-22cd58438daa</t>
-  </si>
-  <si>
-    <t>ca0d9725-1c11-447b-a9fe-c5359558900b</t>
-  </si>
-  <si>
-    <t>d966827f-0ce7-4b8c-a1bd-109b7449e091</t>
-  </si>
-  <si>
-    <t>d25e222c-9a39-447e-8e45-106fd156fc35</t>
-  </si>
-  <si>
-    <t>96c39bbc-e25d-4fac-9701-a4945c54a314</t>
-  </si>
-  <si>
-    <t>8b3de8fa-115e-4a68-a21a-5d3aca4176ca</t>
-  </si>
-  <si>
-    <t>75ff27ab-dd83-4cbc-80fa-1d947dc81a99</t>
-  </si>
-  <si>
-    <t>bb13cf14-fd7d-498a-a5bf-4bf0fa1e00ea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102a37a5-0022-4d50-af90-f61b03ea1eb4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04a1e33b-6715-4651-be60-b57fcc479cae</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13e37bf2-cfd7-4ad5-bc9c-93a6caeda7ef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e7bbad11-3814-4070-ad3c-a4f8949a4b76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人资料维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7b819bce-2197-4820-be5d-52d73a49ca03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7bde2c1e-23a2-4594-8aaa-806dd47a4b72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48afddba-8252-4386-956c-d47020444717</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61cb8d3e-c9b7-438b-aa55-14c23794144d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c69dc0e7-108e-41af-be68-b3d462e90f04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d6e0a172-a3fa-4626-a4b7-89540752e16a</t>
+    <t>数据录入员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1887,7 +1877,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1949,6 +1939,15 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2139,7 +2138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2214,6 +2213,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2512,7 +2517,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2560,16 +2565,16 @@
         <v>306</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>307</v>
+        <v>498</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="135">
@@ -2577,22 +2582,22 @@
         <v>302</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>311</v>
+        <v>496</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>312</v>
+        <v>497</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="123.75">
@@ -2600,20 +2605,20 @@
         <v>195</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="123.75">
@@ -2621,20 +2626,20 @@
         <v>196</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135">
@@ -2642,20 +2647,20 @@
         <v>197</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>307</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2670,7 +2675,7 @@
   <dimension ref="A1:H322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+      <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3102,13 +3107,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>37</v>
@@ -5876,10 +5881,10 @@
         <v>13</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5902,10 +5907,10 @@
         <v>13</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5928,10 +5933,10 @@
         <v>13</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5954,10 +5959,10 @@
         <v>13</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5980,10 +5985,10 @@
         <v>13</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6006,10 +6011,10 @@
         <v>13</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6032,21 +6037,21 @@
         <v>13</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>37</v>
@@ -6058,10 +6063,10 @@
         <v>13</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6084,10 +6089,10 @@
         <v>13</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6110,10 +6115,10 @@
         <v>40</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6136,10 +6141,10 @@
         <v>43</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6162,10 +6167,10 @@
         <v>46</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6188,10 +6193,10 @@
         <v>13</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6214,10 +6219,10 @@
         <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6240,10 +6245,10 @@
         <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6266,10 +6271,10 @@
         <v>46</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6292,10 +6297,10 @@
         <v>13</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6318,10 +6323,10 @@
         <v>40</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6344,10 +6349,10 @@
         <v>43</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6370,10 +6375,10 @@
         <v>46</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6396,10 +6401,10 @@
         <v>13</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6422,10 +6427,10 @@
         <v>40</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6448,10 +6453,10 @@
         <v>43</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6474,10 +6479,10 @@
         <v>46</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6500,10 +6505,10 @@
         <v>13</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6526,10 +6531,10 @@
         <v>40</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6552,10 +6557,10 @@
         <v>43</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6578,10 +6583,10 @@
         <v>46</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6604,10 +6609,10 @@
         <v>13</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6630,10 +6635,10 @@
         <v>40</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6656,10 +6661,10 @@
         <v>43</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6682,10 +6687,10 @@
         <v>46</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6708,10 +6713,10 @@
         <v>13</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6734,10 +6739,10 @@
         <v>40</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6760,10 +6765,10 @@
         <v>43</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6786,10 +6791,10 @@
         <v>46</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6812,10 +6817,10 @@
         <v>13</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6838,10 +6843,10 @@
         <v>40</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6864,10 +6869,10 @@
         <v>43</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6890,10 +6895,10 @@
         <v>46</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6916,10 +6921,10 @@
         <v>13</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6942,10 +6947,10 @@
         <v>40</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6968,10 +6973,10 @@
         <v>43</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6994,10 +6999,10 @@
         <v>46</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7020,15 +7025,15 @@
         <v>13</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>257</v>
@@ -7046,15 +7051,15 @@
         <v>40</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>257</v>
@@ -7072,15 +7077,15 @@
         <v>43</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>257</v>
@@ -7098,15 +7103,15 @@
         <v>46</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>263</v>
@@ -7124,15 +7129,15 @@
         <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>263</v>
@@ -7150,15 +7155,15 @@
         <v>40</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>263</v>
@@ -7176,15 +7181,15 @@
         <v>43</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>263</v>
@@ -7202,15 +7207,15 @@
         <v>46</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>108</v>
@@ -7228,15 +7233,15 @@
         <v>13</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>108</v>
@@ -7254,15 +7259,15 @@
         <v>40</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>108</v>
@@ -7280,15 +7285,15 @@
         <v>43</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>108</v>
@@ -7306,41 +7311,41 @@
         <v>46</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B179" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="26" customFormat="1">
+      <c r="A179" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B179" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F179" s="4" t="s">
+      <c r="D179" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="F179" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>412</v>
+      <c r="G179" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>117</v>
@@ -7358,15 +7363,15 @@
         <v>13</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>117</v>
@@ -7384,15 +7389,15 @@
         <v>40</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>117</v>
@@ -7410,15 +7415,15 @@
         <v>43</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>243</v>
@@ -7436,15 +7441,15 @@
         <v>46</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>243</v>
@@ -7462,15 +7467,15 @@
         <v>270</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>123</v>
@@ -7488,15 +7493,15 @@
         <v>13</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>123</v>
@@ -7514,15 +7519,15 @@
         <v>40</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>123</v>
@@ -7540,15 +7545,15 @@
         <v>43</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>246</v>
@@ -7566,15 +7571,15 @@
         <v>46</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>246</v>
@@ -7592,15 +7597,15 @@
         <v>270</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>129</v>
@@ -7618,15 +7623,15 @@
         <v>13</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>129</v>
@@ -7644,15 +7649,15 @@
         <v>40</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>129</v>
@@ -7670,15 +7675,15 @@
         <v>43</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>248</v>
@@ -7696,15 +7701,15 @@
         <v>46</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>248</v>
@@ -7722,15 +7727,15 @@
         <v>270</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>135</v>
@@ -7748,15 +7753,15 @@
         <v>13</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>135</v>
@@ -7774,15 +7779,15 @@
         <v>40</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>135</v>
@@ -7800,15 +7805,15 @@
         <v>43</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>135</v>
@@ -7826,15 +7831,15 @@
         <v>46</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>135</v>
@@ -7852,15 +7857,15 @@
         <v>270</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>141</v>
@@ -7878,15 +7883,15 @@
         <v>13</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>141</v>
@@ -7904,15 +7909,15 @@
         <v>40</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>141</v>
@@ -7930,15 +7935,15 @@
         <v>43</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>141</v>
@@ -7956,15 +7961,15 @@
         <v>46</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>141</v>
@@ -7982,15 +7987,15 @@
         <v>270</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>147</v>
@@ -8008,15 +8013,15 @@
         <v>13</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>147</v>
@@ -8034,15 +8039,15 @@
         <v>40</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>147</v>
@@ -8060,15 +8065,15 @@
         <v>43</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>147</v>
@@ -8086,15 +8091,15 @@
         <v>46</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>147</v>
@@ -8112,15 +8117,15 @@
         <v>270</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>153</v>
@@ -8138,15 +8143,15 @@
         <v>13</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>153</v>
@@ -8164,15 +8169,15 @@
         <v>40</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>153</v>
@@ -8190,15 +8195,15 @@
         <v>43</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>153</v>
@@ -8216,15 +8221,15 @@
         <v>46</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>153</v>
@@ -8242,15 +8247,15 @@
         <v>270</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>159</v>
@@ -8268,15 +8273,15 @@
         <v>13</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>159</v>
@@ -8294,15 +8299,15 @@
         <v>40</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>159</v>
@@ -8320,15 +8325,15 @@
         <v>43</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>159</v>
@@ -8346,15 +8351,15 @@
         <v>46</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>159</v>
@@ -8372,15 +8377,15 @@
         <v>270</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>165</v>
@@ -8398,15 +8403,15 @@
         <v>13</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>165</v>
@@ -8424,15 +8429,15 @@
         <v>40</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>165</v>
@@ -8450,15 +8455,15 @@
         <v>43</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>165</v>
@@ -8476,15 +8481,15 @@
         <v>46</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>165</v>
@@ -8502,15 +8507,15 @@
         <v>270</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>171</v>
@@ -8528,15 +8533,15 @@
         <v>13</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>171</v>
@@ -8554,15 +8559,15 @@
         <v>40</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>171</v>
@@ -8580,15 +8585,15 @@
         <v>43</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>171</v>
@@ -8606,15 +8611,15 @@
         <v>46</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>171</v>
@@ -8632,15 +8637,15 @@
         <v>270</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>177</v>
@@ -8658,15 +8663,15 @@
         <v>13</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>180</v>
@@ -8684,15 +8689,15 @@
         <v>13</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>183</v>
@@ -8710,15 +8715,15 @@
         <v>13</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>186</v>
@@ -8736,15 +8741,15 @@
         <v>13</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>189</v>
@@ -8762,15 +8767,15 @@
         <v>13</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>192</v>
@@ -8788,15 +8793,15 @@
         <v>13</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>9</v>
@@ -8814,15 +8819,15 @@
         <v>13</v>
       </c>
       <c r="G236" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H236" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>20</v>
@@ -8840,15 +8845,15 @@
         <v>13</v>
       </c>
       <c r="G237" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H237" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="19" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>23</v>
@@ -8866,15 +8871,15 @@
         <v>13</v>
       </c>
       <c r="G238" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H238" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>26</v>
@@ -8892,15 +8897,15 @@
         <v>13</v>
       </c>
       <c r="G239" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H239" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>29</v>
@@ -8918,15 +8923,15 @@
         <v>13</v>
       </c>
       <c r="G240" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H240" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>32</v>
@@ -8944,15 +8949,15 @@
         <v>13</v>
       </c>
       <c r="G241" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H241" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>90</v>
@@ -8970,15 +8975,15 @@
         <v>13</v>
       </c>
       <c r="G242" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H242" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="19" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>108</v>
@@ -8996,15 +9001,15 @@
         <v>13</v>
       </c>
       <c r="G243" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H243" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>108</v>
@@ -9022,15 +9027,15 @@
         <v>40</v>
       </c>
       <c r="G244" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H244" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>108</v>
@@ -9048,15 +9053,15 @@
         <v>43</v>
       </c>
       <c r="G245" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H245" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>108</v>
@@ -9074,15 +9079,15 @@
         <v>46</v>
       </c>
       <c r="G246" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H246" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="19" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>108</v>
@@ -9100,15 +9105,15 @@
         <v>115</v>
       </c>
       <c r="G247" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H247" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="19" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>117</v>
@@ -9126,15 +9131,15 @@
         <v>13</v>
       </c>
       <c r="G248" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H248" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="19" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>123</v>
@@ -9152,15 +9157,15 @@
         <v>13</v>
       </c>
       <c r="G249" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H249" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="19" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>129</v>
@@ -9178,15 +9183,15 @@
         <v>13</v>
       </c>
       <c r="G250" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>135</v>
@@ -9204,15 +9209,15 @@
         <v>13</v>
       </c>
       <c r="G251" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H251" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>141</v>
@@ -9230,15 +9235,15 @@
         <v>13</v>
       </c>
       <c r="G252" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H252" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>147</v>
@@ -9256,15 +9261,15 @@
         <v>13</v>
       </c>
       <c r="G253" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H253" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>153</v>
@@ -9282,15 +9287,15 @@
         <v>13</v>
       </c>
       <c r="G254" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H254" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>159</v>
@@ -9308,15 +9313,15 @@
         <v>13</v>
       </c>
       <c r="G255" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H255" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>165</v>
@@ -9334,15 +9339,15 @@
         <v>13</v>
       </c>
       <c r="G256" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H256" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>171</v>
@@ -9360,15 +9365,15 @@
         <v>13</v>
       </c>
       <c r="G257" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H257" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>177</v>
@@ -9386,15 +9391,15 @@
         <v>13</v>
       </c>
       <c r="G258" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H258" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>180</v>
@@ -9412,15 +9417,15 @@
         <v>13</v>
       </c>
       <c r="G259" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H259" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="19" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>183</v>
@@ -9438,15 +9443,15 @@
         <v>13</v>
       </c>
       <c r="G260" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H260" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>186</v>
@@ -9464,15 +9469,15 @@
         <v>13</v>
       </c>
       <c r="G261" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H261" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>189</v>
@@ -9490,15 +9495,15 @@
         <v>13</v>
       </c>
       <c r="G262" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H262" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>192</v>
@@ -9516,15 +9521,15 @@
         <v>13</v>
       </c>
       <c r="G263" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H263" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B264" s="20" t="s">
         <v>9</v>
@@ -9542,15 +9547,15 @@
         <v>13</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H264" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>20</v>
@@ -9568,15 +9573,15 @@
         <v>13</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H265" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B266" s="20" t="s">
         <v>23</v>
@@ -9594,15 +9599,15 @@
         <v>13</v>
       </c>
       <c r="G266" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H266" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B267" s="20" t="s">
         <v>26</v>
@@ -9620,15 +9625,15 @@
         <v>13</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H267" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>29</v>
@@ -9646,15 +9651,15 @@
         <v>13</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H268" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B269" s="20" t="s">
         <v>32</v>
@@ -9672,15 +9677,15 @@
         <v>13</v>
       </c>
       <c r="G269" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H269" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B270" s="20" t="s">
         <v>90</v>
@@ -9698,15 +9703,15 @@
         <v>13</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H270" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B271" s="20" t="s">
         <v>108</v>
@@ -9724,15 +9729,15 @@
         <v>13</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H271" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B272" s="20" t="s">
         <v>108</v>
@@ -9750,15 +9755,15 @@
         <v>40</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H272" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B273" s="20" t="s">
         <v>108</v>
@@ -9776,15 +9781,15 @@
         <v>43</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H273" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B274" s="20" t="s">
         <v>108</v>
@@ -9802,15 +9807,15 @@
         <v>46</v>
       </c>
       <c r="G274" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H274" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B275" s="20" t="s">
         <v>117</v>
@@ -9828,15 +9833,15 @@
         <v>13</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H275" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B276" s="20" t="s">
         <v>123</v>
@@ -9854,15 +9859,15 @@
         <v>13</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H276" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B277" s="20" t="s">
         <v>129</v>
@@ -9880,15 +9885,15 @@
         <v>13</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H277" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B278" s="20" t="s">
         <v>135</v>
@@ -9906,15 +9911,15 @@
         <v>13</v>
       </c>
       <c r="G278" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H278" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B279" s="20" t="s">
         <v>141</v>
@@ -9932,15 +9937,15 @@
         <v>13</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H279" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B280" s="20" t="s">
         <v>147</v>
@@ -9958,15 +9963,15 @@
         <v>13</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H280" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B281" s="20" t="s">
         <v>153</v>
@@ -9984,15 +9989,15 @@
         <v>13</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H281" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B282" s="20" t="s">
         <v>159</v>
@@ -10010,15 +10015,15 @@
         <v>13</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H282" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="20" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B283" s="20" t="s">
         <v>165</v>
@@ -10036,15 +10041,15 @@
         <v>13</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H283" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B284" s="20" t="s">
         <v>171</v>
@@ -10062,15 +10067,15 @@
         <v>13</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H284" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B285" s="20" t="s">
         <v>180</v>
@@ -10088,15 +10093,15 @@
         <v>13</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H285" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>183</v>
@@ -10114,15 +10119,15 @@
         <v>13</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H286" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B287" s="20" t="s">
         <v>186</v>
@@ -10140,15 +10145,15 @@
         <v>13</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H287" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B288" s="20" t="s">
         <v>189</v>
@@ -10166,15 +10171,15 @@
         <v>13</v>
       </c>
       <c r="G288" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H288" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B289" s="20" t="s">
         <v>192</v>
@@ -10192,15 +10197,15 @@
         <v>13</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H289" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="21" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B290" s="21" t="s">
         <v>9</v>
@@ -10218,15 +10223,15 @@
         <v>13</v>
       </c>
       <c r="G290" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H290" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>20</v>
@@ -10244,15 +10249,15 @@
         <v>13</v>
       </c>
       <c r="G291" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H291" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>23</v>
@@ -10270,15 +10275,15 @@
         <v>13</v>
       </c>
       <c r="G292" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H292" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="21" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B293" s="21" t="s">
         <v>26</v>
@@ -10296,15 +10301,15 @@
         <v>13</v>
       </c>
       <c r="G293" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H293" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="21" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B294" s="21" t="s">
         <v>29</v>
@@ -10322,15 +10327,15 @@
         <v>13</v>
       </c>
       <c r="G294" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H294" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>32</v>
@@ -10348,15 +10353,15 @@
         <v>13</v>
       </c>
       <c r="G295" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H295" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>90</v>
@@ -10374,15 +10379,15 @@
         <v>13</v>
       </c>
       <c r="G296" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H296" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>108</v>
@@ -10400,15 +10405,15 @@
         <v>13</v>
       </c>
       <c r="G297" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H297" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="21" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>117</v>
@@ -10426,15 +10431,15 @@
         <v>13</v>
       </c>
       <c r="G298" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H298" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="21" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>123</v>
@@ -10452,15 +10457,15 @@
         <v>13</v>
       </c>
       <c r="G299" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H299" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>129</v>
@@ -10478,15 +10483,15 @@
         <v>13</v>
       </c>
       <c r="G300" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H300" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B301" s="21" t="s">
         <v>135</v>
@@ -10504,15 +10509,15 @@
         <v>13</v>
       </c>
       <c r="G301" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H301" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>141</v>
@@ -10530,15 +10535,15 @@
         <v>13</v>
       </c>
       <c r="G302" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H302" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="21" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>147</v>
@@ -10556,15 +10561,15 @@
         <v>13</v>
       </c>
       <c r="G303" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H303" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="21" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B304" s="21" t="s">
         <v>153</v>
@@ -10582,15 +10587,15 @@
         <v>13</v>
       </c>
       <c r="G304" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H304" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="21" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B305" s="21" t="s">
         <v>159</v>
@@ -10608,15 +10613,15 @@
         <v>13</v>
       </c>
       <c r="G305" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H305" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="21" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B306" s="21" t="s">
         <v>165</v>
@@ -10634,15 +10639,15 @@
         <v>13</v>
       </c>
       <c r="G306" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H306" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B307" s="21" t="s">
         <v>171</v>
@@ -10660,15 +10665,15 @@
         <v>13</v>
       </c>
       <c r="G307" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H307" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="21" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>180</v>
@@ -10686,15 +10691,15 @@
         <v>13</v>
       </c>
       <c r="G308" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H308" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="21" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B309" s="21" t="s">
         <v>183</v>
@@ -10712,15 +10717,15 @@
         <v>13</v>
       </c>
       <c r="G309" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H309" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B310" s="21" t="s">
         <v>186</v>
@@ -10738,15 +10743,15 @@
         <v>13</v>
       </c>
       <c r="G310" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H310" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>189</v>
@@ -10764,15 +10769,15 @@
         <v>13</v>
       </c>
       <c r="G311" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H311" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="21" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>192</v>
@@ -10790,30 +10795,30 @@
         <v>13</v>
       </c>
       <c r="G312" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H312" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>14</v>
@@ -10824,22 +10829,22 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>195</v>
@@ -10850,158 +10855,158 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="19" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D317" s="19" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E317" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G317" s="19" t="s">
         <v>197</v>
       </c>
       <c r="H317" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="20" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H318" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E319" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F319" s="21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G319" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H319" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D320" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="E320" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="B320" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="C320" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="D320" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="E320" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" s="19" t="s">
-        <v>489</v>
       </c>
       <c r="G320" s="19" t="s">
         <v>197</v>
       </c>
       <c r="H320" s="19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="20" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G321" s="20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H321" s="20" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="21" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E322" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F322" s="21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G322" s="21" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H322" s="21" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="系统角色" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="505">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1107,40 +1107,6 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1872,12 +1838,127 @@
     <t>数据录入员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基础设置(查看)
+ 基础代码维护(查看、修改、删除、新增)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户资料维护(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 仓库资料维护(查看、修改、删除、新增)
+ 料品资料维护(查看、修改、删除、新增)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门资料维护(查看)
+ 职员资料维护(查看)
+ BOM单资料维护(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 计量单位维护(查看、修改、删除、新增)
+ 仓库类型维护(查看、修改、删除、新增)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供应商资料维护(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 车间资料维护(查看、修改、删除、新增)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基础设置(查看)
+ BOM单资料维护(查看)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户资料维护(查看、修改、删除、新增)
+ 供应商资料维护(查看、修改、删除、新增)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基础设置(查看)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BOM单资料维护(查看、修改、删除、新增)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +2029,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2138,7 +2234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2205,6 +2301,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2214,11 +2316,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2516,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2565,13 +2664,13 @@
         <v>306</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>498</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>499</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>308</v>
@@ -2582,30 +2681,30 @@
         <v>302</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>321</v>
-      </c>
       <c r="D3" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>496</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>497</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="123.75">
+      <c r="G3" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135">
       <c r="A4" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>310</v>
@@ -2613,12 +2712,12 @@
       <c r="D4" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>312</v>
+      <c r="E4" s="27" t="s">
+        <v>318</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="123.75">
@@ -2626,20 +2725,20 @@
         <v>196</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>313</v>
+      <c r="G5" s="27" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135">
@@ -2647,20 +2746,20 @@
         <v>197</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>307</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>313</v>
+      <c r="G6" s="27" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A301" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E247" sqref="E247"/>
     </sheetView>
   </sheetViews>
@@ -3107,13 +3206,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>37</v>
@@ -5881,10 +5980,10 @@
         <v>13</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5907,10 +6006,10 @@
         <v>13</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5933,10 +6032,10 @@
         <v>13</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5959,10 +6058,10 @@
         <v>13</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5985,10 +6084,10 @@
         <v>13</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6011,10 +6110,10 @@
         <v>13</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6037,22 +6136,22 @@
         <v>13</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="D130" s="4" t="s">
         <v>37</v>
       </c>
@@ -6063,10 +6162,10 @@
         <v>13</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6089,10 +6188,10 @@
         <v>13</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6115,10 +6214,10 @@
         <v>40</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6141,10 +6240,10 @@
         <v>43</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6167,10 +6266,10 @@
         <v>46</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6193,10 +6292,10 @@
         <v>13</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6219,10 +6318,10 @@
         <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6245,10 +6344,10 @@
         <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6271,10 +6370,10 @@
         <v>46</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6297,10 +6396,10 @@
         <v>13</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6323,10 +6422,10 @@
         <v>40</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6349,10 +6448,10 @@
         <v>43</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6375,10 +6474,10 @@
         <v>46</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6401,10 +6500,10 @@
         <v>13</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6427,10 +6526,10 @@
         <v>40</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6453,10 +6552,10 @@
         <v>43</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6479,10 +6578,10 @@
         <v>46</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6505,10 +6604,10 @@
         <v>13</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6531,10 +6630,10 @@
         <v>40</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6557,10 +6656,10 @@
         <v>43</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6583,10 +6682,10 @@
         <v>46</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6609,10 +6708,10 @@
         <v>13</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6635,10 +6734,10 @@
         <v>40</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6661,10 +6760,10 @@
         <v>43</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6687,10 +6786,10 @@
         <v>46</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6713,10 +6812,10 @@
         <v>13</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6739,10 +6838,10 @@
         <v>40</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6765,10 +6864,10 @@
         <v>43</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6791,10 +6890,10 @@
         <v>46</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6817,10 +6916,10 @@
         <v>13</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6843,10 +6942,10 @@
         <v>40</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6869,10 +6968,10 @@
         <v>43</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6895,10 +6994,10 @@
         <v>46</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6921,10 +7020,10 @@
         <v>13</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6947,10 +7046,10 @@
         <v>40</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6973,10 +7072,10 @@
         <v>43</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6999,10 +7098,10 @@
         <v>46</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7025,15 +7124,15 @@
         <v>13</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>257</v>
@@ -7051,15 +7150,15 @@
         <v>40</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>257</v>
@@ -7077,15 +7176,15 @@
         <v>43</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>257</v>
@@ -7103,15 +7202,15 @@
         <v>46</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>263</v>
@@ -7129,15 +7228,15 @@
         <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>263</v>
@@ -7155,15 +7254,15 @@
         <v>40</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>263</v>
@@ -7181,15 +7280,15 @@
         <v>43</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>263</v>
@@ -7207,15 +7306,15 @@
         <v>46</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>108</v>
@@ -7233,15 +7332,15 @@
         <v>13</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>108</v>
@@ -7259,15 +7358,15 @@
         <v>40</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>108</v>
@@ -7285,15 +7384,15 @@
         <v>43</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>108</v>
@@ -7311,41 +7410,41 @@
         <v>46</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" s="26" customFormat="1">
-      <c r="A179" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="B179" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" s="23" customFormat="1">
+      <c r="A179" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C179" s="25" t="s">
+      <c r="C179" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D179" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E179" s="25" t="s">
+      <c r="D179" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F179" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G179" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="F179" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G179" s="25" t="s">
+      <c r="H179" s="22" t="s">
         <v>501</v>
-      </c>
-      <c r="H179" s="25" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>117</v>
@@ -7363,15 +7462,15 @@
         <v>13</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>117</v>
@@ -7389,15 +7488,15 @@
         <v>40</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>117</v>
@@ -7415,15 +7514,15 @@
         <v>43</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>243</v>
@@ -7441,15 +7540,15 @@
         <v>46</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>243</v>
@@ -7467,15 +7566,15 @@
         <v>270</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>123</v>
@@ -7493,15 +7592,15 @@
         <v>13</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>123</v>
@@ -7519,15 +7618,15 @@
         <v>40</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>123</v>
@@ -7545,15 +7644,15 @@
         <v>43</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>246</v>
@@ -7571,15 +7670,15 @@
         <v>46</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>246</v>
@@ -7597,15 +7696,15 @@
         <v>270</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>129</v>
@@ -7623,15 +7722,15 @@
         <v>13</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>129</v>
@@ -7649,15 +7748,15 @@
         <v>40</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>129</v>
@@ -7675,15 +7774,15 @@
         <v>43</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>248</v>
@@ -7701,15 +7800,15 @@
         <v>46</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>248</v>
@@ -7727,15 +7826,15 @@
         <v>270</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>135</v>
@@ -7753,15 +7852,15 @@
         <v>13</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>135</v>
@@ -7779,15 +7878,15 @@
         <v>40</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>135</v>
@@ -7805,15 +7904,15 @@
         <v>43</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>135</v>
@@ -7831,15 +7930,15 @@
         <v>46</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>135</v>
@@ -7857,15 +7956,15 @@
         <v>270</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>141</v>
@@ -7883,15 +7982,15 @@
         <v>13</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>141</v>
@@ -7909,15 +8008,15 @@
         <v>40</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>141</v>
@@ -7935,15 +8034,15 @@
         <v>43</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>141</v>
@@ -7961,15 +8060,15 @@
         <v>46</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>141</v>
@@ -7987,15 +8086,15 @@
         <v>270</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>147</v>
@@ -8013,15 +8112,15 @@
         <v>13</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>147</v>
@@ -8039,15 +8138,15 @@
         <v>40</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>147</v>
@@ -8065,15 +8164,15 @@
         <v>43</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>147</v>
@@ -8091,15 +8190,15 @@
         <v>46</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>147</v>
@@ -8117,15 +8216,15 @@
         <v>270</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>153</v>
@@ -8143,15 +8242,15 @@
         <v>13</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>153</v>
@@ -8169,15 +8268,15 @@
         <v>40</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>153</v>
@@ -8195,15 +8294,15 @@
         <v>43</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>153</v>
@@ -8221,15 +8320,15 @@
         <v>46</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>153</v>
@@ -8247,15 +8346,15 @@
         <v>270</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>159</v>
@@ -8273,15 +8372,15 @@
         <v>13</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>159</v>
@@ -8299,15 +8398,15 @@
         <v>40</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>159</v>
@@ -8325,15 +8424,15 @@
         <v>43</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>159</v>
@@ -8351,15 +8450,15 @@
         <v>46</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>159</v>
@@ -8377,15 +8476,15 @@
         <v>270</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>165</v>
@@ -8403,15 +8502,15 @@
         <v>13</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>165</v>
@@ -8429,15 +8528,15 @@
         <v>40</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>165</v>
@@ -8455,15 +8554,15 @@
         <v>43</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>165</v>
@@ -8481,15 +8580,15 @@
         <v>46</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>165</v>
@@ -8507,15 +8606,15 @@
         <v>270</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>171</v>
@@ -8533,15 +8632,15 @@
         <v>13</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>171</v>
@@ -8559,15 +8658,15 @@
         <v>40</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>171</v>
@@ -8585,15 +8684,15 @@
         <v>43</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>171</v>
@@ -8611,15 +8710,15 @@
         <v>46</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>171</v>
@@ -8637,15 +8736,15 @@
         <v>270</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>177</v>
@@ -8663,15 +8762,15 @@
         <v>13</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>180</v>
@@ -8689,15 +8788,15 @@
         <v>13</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>183</v>
@@ -8715,15 +8814,15 @@
         <v>13</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>186</v>
@@ -8741,15 +8840,15 @@
         <v>13</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>189</v>
@@ -8767,15 +8866,15 @@
         <v>13</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>192</v>
@@ -8793,15 +8892,15 @@
         <v>13</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>9</v>
@@ -8819,15 +8918,15 @@
         <v>13</v>
       </c>
       <c r="G236" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H236" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H236" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>20</v>
@@ -8845,15 +8944,15 @@
         <v>13</v>
       </c>
       <c r="G237" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H237" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H237" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>23</v>
@@ -8871,15 +8970,15 @@
         <v>13</v>
       </c>
       <c r="G238" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H238" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H238" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>26</v>
@@ -8897,15 +8996,15 @@
         <v>13</v>
       </c>
       <c r="G239" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H239" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H239" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>29</v>
@@ -8923,15 +9022,15 @@
         <v>13</v>
       </c>
       <c r="G240" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H240" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H240" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>32</v>
@@ -8949,15 +9048,15 @@
         <v>13</v>
       </c>
       <c r="G241" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H241" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H241" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>90</v>
@@ -8975,15 +9074,15 @@
         <v>13</v>
       </c>
       <c r="G242" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H242" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H242" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>108</v>
@@ -9001,15 +9100,15 @@
         <v>13</v>
       </c>
       <c r="G243" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H243" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H243" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>108</v>
@@ -9027,15 +9126,15 @@
         <v>40</v>
       </c>
       <c r="G244" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H244" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H244" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>108</v>
@@ -9053,15 +9152,15 @@
         <v>43</v>
       </c>
       <c r="G245" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H245" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H245" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>108</v>
@@ -9079,15 +9178,15 @@
         <v>46</v>
       </c>
       <c r="G246" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H246" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H246" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>108</v>
@@ -9105,15 +9204,15 @@
         <v>115</v>
       </c>
       <c r="G247" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H247" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H247" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>117</v>
@@ -9131,15 +9230,15 @@
         <v>13</v>
       </c>
       <c r="G248" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H248" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H248" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>123</v>
@@ -9157,15 +9256,15 @@
         <v>13</v>
       </c>
       <c r="G249" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H249" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H249" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>129</v>
@@ -9183,15 +9282,15 @@
         <v>13</v>
       </c>
       <c r="G250" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H250" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H250" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>135</v>
@@ -9209,15 +9308,15 @@
         <v>13</v>
       </c>
       <c r="G251" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H251" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H251" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>141</v>
@@ -9235,15 +9334,15 @@
         <v>13</v>
       </c>
       <c r="G252" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H252" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H252" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>147</v>
@@ -9261,15 +9360,15 @@
         <v>13</v>
       </c>
       <c r="G253" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H253" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H253" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>153</v>
@@ -9287,15 +9386,15 @@
         <v>13</v>
       </c>
       <c r="G254" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H254" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H254" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>159</v>
@@ -9313,15 +9412,15 @@
         <v>13</v>
       </c>
       <c r="G255" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H255" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H255" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>165</v>
@@ -9339,15 +9438,15 @@
         <v>13</v>
       </c>
       <c r="G256" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H256" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H256" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>171</v>
@@ -9365,15 +9464,15 @@
         <v>13</v>
       </c>
       <c r="G257" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H257" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H257" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>177</v>
@@ -9391,15 +9490,15 @@
         <v>13</v>
       </c>
       <c r="G258" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H258" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H258" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>180</v>
@@ -9417,15 +9516,15 @@
         <v>13</v>
       </c>
       <c r="G259" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H259" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H259" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>183</v>
@@ -9443,15 +9542,15 @@
         <v>13</v>
       </c>
       <c r="G260" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H260" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H260" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>186</v>
@@ -9469,15 +9568,15 @@
         <v>13</v>
       </c>
       <c r="G261" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H261" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H261" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>189</v>
@@ -9495,15 +9594,15 @@
         <v>13</v>
       </c>
       <c r="G262" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H262" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H262" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>192</v>
@@ -9521,15 +9620,15 @@
         <v>13</v>
       </c>
       <c r="G263" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="H263" s="19" t="s">
         <v>475</v>
-      </c>
-      <c r="H263" s="19" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B264" s="20" t="s">
         <v>9</v>
@@ -9547,15 +9646,15 @@
         <v>13</v>
       </c>
       <c r="G264" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H264" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H264" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>20</v>
@@ -9573,15 +9672,15 @@
         <v>13</v>
       </c>
       <c r="G265" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H265" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H265" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B266" s="20" t="s">
         <v>23</v>
@@ -9599,15 +9698,15 @@
         <v>13</v>
       </c>
       <c r="G266" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H266" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H266" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B267" s="20" t="s">
         <v>26</v>
@@ -9625,15 +9724,15 @@
         <v>13</v>
       </c>
       <c r="G267" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H267" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H267" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>29</v>
@@ -9651,15 +9750,15 @@
         <v>13</v>
       </c>
       <c r="G268" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H268" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H268" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B269" s="20" t="s">
         <v>32</v>
@@ -9677,15 +9776,15 @@
         <v>13</v>
       </c>
       <c r="G269" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H269" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H269" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B270" s="20" t="s">
         <v>90</v>
@@ -9703,15 +9802,15 @@
         <v>13</v>
       </c>
       <c r="G270" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H270" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H270" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B271" s="20" t="s">
         <v>108</v>
@@ -9729,15 +9828,15 @@
         <v>13</v>
       </c>
       <c r="G271" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H271" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H271" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B272" s="20" t="s">
         <v>108</v>
@@ -9755,15 +9854,15 @@
         <v>40</v>
       </c>
       <c r="G272" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H272" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H272" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" s="20" t="s">
         <v>108</v>
@@ -9781,15 +9880,15 @@
         <v>43</v>
       </c>
       <c r="G273" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H273" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H273" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B274" s="20" t="s">
         <v>108</v>
@@ -9807,15 +9906,15 @@
         <v>46</v>
       </c>
       <c r="G274" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H274" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H274" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B275" s="20" t="s">
         <v>117</v>
@@ -9833,15 +9932,15 @@
         <v>13</v>
       </c>
       <c r="G275" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H275" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H275" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B276" s="20" t="s">
         <v>123</v>
@@ -9859,15 +9958,15 @@
         <v>13</v>
       </c>
       <c r="G276" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H276" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H276" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B277" s="20" t="s">
         <v>129</v>
@@ -9885,15 +9984,15 @@
         <v>13</v>
       </c>
       <c r="G277" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H277" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H277" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B278" s="20" t="s">
         <v>135</v>
@@ -9911,15 +10010,15 @@
         <v>13</v>
       </c>
       <c r="G278" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H278" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H278" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B279" s="20" t="s">
         <v>141</v>
@@ -9937,15 +10036,15 @@
         <v>13</v>
       </c>
       <c r="G279" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H279" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H279" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" s="20" t="s">
         <v>147</v>
@@ -9963,15 +10062,15 @@
         <v>13</v>
       </c>
       <c r="G280" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H280" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H280" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B281" s="20" t="s">
         <v>153</v>
@@ -9989,15 +10088,15 @@
         <v>13</v>
       </c>
       <c r="G281" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H281" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H281" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B282" s="20" t="s">
         <v>159</v>
@@ -10015,15 +10114,15 @@
         <v>13</v>
       </c>
       <c r="G282" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H282" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H282" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B283" s="20" t="s">
         <v>165</v>
@@ -10041,15 +10140,15 @@
         <v>13</v>
       </c>
       <c r="G283" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H283" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H283" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B284" s="20" t="s">
         <v>171</v>
@@ -10067,15 +10166,15 @@
         <v>13</v>
       </c>
       <c r="G284" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H284" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H284" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B285" s="20" t="s">
         <v>180</v>
@@ -10093,15 +10192,15 @@
         <v>13</v>
       </c>
       <c r="G285" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H285" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H285" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>183</v>
@@ -10119,15 +10218,15 @@
         <v>13</v>
       </c>
       <c r="G286" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H286" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H286" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B287" s="20" t="s">
         <v>186</v>
@@ -10145,15 +10244,15 @@
         <v>13</v>
       </c>
       <c r="G287" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H287" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H287" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B288" s="20" t="s">
         <v>189</v>
@@ -10171,15 +10270,15 @@
         <v>13</v>
       </c>
       <c r="G288" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H288" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H288" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B289" s="20" t="s">
         <v>192</v>
@@ -10197,15 +10296,15 @@
         <v>13</v>
       </c>
       <c r="G289" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H289" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H289" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B290" s="21" t="s">
         <v>9</v>
@@ -10223,15 +10322,15 @@
         <v>13</v>
       </c>
       <c r="G290" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H290" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H290" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>20</v>
@@ -10249,15 +10348,15 @@
         <v>13</v>
       </c>
       <c r="G291" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H291" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H291" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>23</v>
@@ -10275,15 +10374,15 @@
         <v>13</v>
       </c>
       <c r="G292" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H292" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H292" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B293" s="21" t="s">
         <v>26</v>
@@ -10301,15 +10400,15 @@
         <v>13</v>
       </c>
       <c r="G293" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H293" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H293" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B294" s="21" t="s">
         <v>29</v>
@@ -10327,15 +10426,15 @@
         <v>13</v>
       </c>
       <c r="G294" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H294" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H294" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>32</v>
@@ -10353,15 +10452,15 @@
         <v>13</v>
       </c>
       <c r="G295" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H295" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H295" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>90</v>
@@ -10379,15 +10478,15 @@
         <v>13</v>
       </c>
       <c r="G296" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H296" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H296" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>108</v>
@@ -10405,15 +10504,15 @@
         <v>13</v>
       </c>
       <c r="G297" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H297" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H297" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="21" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>117</v>
@@ -10431,15 +10530,15 @@
         <v>13</v>
       </c>
       <c r="G298" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H298" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H298" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>123</v>
@@ -10457,15 +10556,15 @@
         <v>13</v>
       </c>
       <c r="G299" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H299" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H299" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>129</v>
@@ -10483,15 +10582,15 @@
         <v>13</v>
       </c>
       <c r="G300" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H300" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H300" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B301" s="21" t="s">
         <v>135</v>
@@ -10509,15 +10608,15 @@
         <v>13</v>
       </c>
       <c r="G301" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H301" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H301" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>141</v>
@@ -10535,15 +10634,15 @@
         <v>13</v>
       </c>
       <c r="G302" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H302" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H302" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>147</v>
@@ -10561,15 +10660,15 @@
         <v>13</v>
       </c>
       <c r="G303" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H303" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H303" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B304" s="21" t="s">
         <v>153</v>
@@ -10587,15 +10686,15 @@
         <v>13</v>
       </c>
       <c r="G304" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H304" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H304" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B305" s="21" t="s">
         <v>159</v>
@@ -10613,15 +10712,15 @@
         <v>13</v>
       </c>
       <c r="G305" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H305" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H305" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B306" s="21" t="s">
         <v>165</v>
@@ -10639,15 +10738,15 @@
         <v>13</v>
       </c>
       <c r="G306" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H306" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H306" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="21" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B307" s="21" t="s">
         <v>171</v>
@@ -10665,15 +10764,15 @@
         <v>13</v>
       </c>
       <c r="G307" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H307" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H307" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>180</v>
@@ -10691,15 +10790,15 @@
         <v>13</v>
       </c>
       <c r="G308" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H308" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H308" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="21" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B309" s="21" t="s">
         <v>183</v>
@@ -10717,15 +10816,15 @@
         <v>13</v>
       </c>
       <c r="G309" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H309" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H309" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B310" s="21" t="s">
         <v>186</v>
@@ -10743,15 +10842,15 @@
         <v>13</v>
       </c>
       <c r="G310" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H310" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H310" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>189</v>
@@ -10769,15 +10868,15 @@
         <v>13</v>
       </c>
       <c r="G311" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H311" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H311" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>192</v>
@@ -10795,30 +10894,30 @@
         <v>13</v>
       </c>
       <c r="G312" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H312" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H312" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B315" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C315" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="D315" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D315" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="E315" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G315" s="5" t="s">
         <v>14</v>
@@ -10829,22 +10928,22 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B316" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C316" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C316" s="4" t="s">
+      <c r="D316" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D316" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="E316" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>195</v>
@@ -10855,158 +10954,158 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B317" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="B317" s="19" t="s">
+      <c r="C317" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="C317" s="19" t="s">
+      <c r="D317" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="D317" s="19" t="s">
-        <v>489</v>
-      </c>
       <c r="E317" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G317" s="19" t="s">
         <v>197</v>
       </c>
       <c r="H317" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B318" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="C318" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="C318" s="20" t="s">
+      <c r="D318" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="D318" s="20" t="s">
-        <v>489</v>
-      </c>
       <c r="E318" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G318" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H318" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H318" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B319" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C319" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="C319" s="21" t="s">
+      <c r="D319" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D319" s="21" t="s">
-        <v>489</v>
-      </c>
       <c r="E319" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F319" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G319" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H319" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H319" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B320" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="B320" s="19" t="s">
+      <c r="C320" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="C320" s="19" t="s">
+      <c r="D320" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="D320" s="19" t="s">
+      <c r="E320" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="19" t="s">
         <v>484</v>
-      </c>
-      <c r="E320" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F320" s="19" t="s">
-        <v>485</v>
       </c>
       <c r="G320" s="19" t="s">
         <v>197</v>
       </c>
       <c r="H320" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B321" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C321" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C321" s="20" t="s">
+      <c r="D321" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="D321" s="20" t="s">
+      <c r="E321" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="E321" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F321" s="20" t="s">
-        <v>485</v>
-      </c>
       <c r="G321" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="H321" s="20" t="s">
         <v>477</v>
-      </c>
-      <c r="H321" s="20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B322" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C322" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="C322" s="21" t="s">
+      <c r="D322" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D322" s="21" t="s">
+      <c r="E322" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="E322" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F322" s="21" t="s">
-        <v>485</v>
-      </c>
       <c r="G322" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H322" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="H322" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -11039,7 +11138,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>275</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -11047,61 +11146,61 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="12" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="24" t="s">
         <v>301</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -11109,19 +11208,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="10" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="24" t="s">
         <v>286</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -11129,37 +11228,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="13" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>290</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -11167,31 +11266,31 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="24"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>292</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -11199,25 +11298,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="24"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="24" t="s">
         <v>295</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -11225,25 +11324,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
-      <c r="A33" s="24"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="13" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="24" t="s">
         <v>297</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -11251,37 +11350,37 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="10" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
-      <c r="A40" s="24"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="13" t="s">
         <v>291</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="系统角色" sheetId="2" r:id="rId1"/>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3009,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288:H288"/>
+    <sheetView topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="511">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1300,9 +1300,6 @@
     <t>8dbe6efc-6f45-4dad-8144-9464d58cffce</t>
   </si>
   <si>
-    <t>6e90a65b-1d75-4bb4-94d8-cac08d9f878a</t>
-  </si>
-  <si>
     <t>3dbe87f0-c37d-4daa-b9c0-e7a178207a86</t>
   </si>
   <si>
@@ -1376,9 +1373,6 @@
   </si>
   <si>
     <t>a9457933-c431-4b96-b1c2-5260eda02717</t>
-  </si>
-  <si>
-    <t>5a657734-3930-419d-a2f9-7ab802f21ce6</t>
   </si>
   <si>
     <t>217be2b9-b78d-4043-ad2d-3159d98e71d0</t>
@@ -1587,70 +1581,6 @@
   委外退料(查看、修改、删除、新增、提交)
   委外入库(查看、修改、删除、新增、提交)
   委外退货(查看、修改、删除、新增、提交)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  制造领料(查看、修改、删除、新增、提交)
-  制造退料(查看、修改、删除、新增、提交)
-  制造入库(查看、修改、删除、新增、提交)
-  制造退货(查看、修改、删除、新增、提交)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1707,51 +1637,6 @@
   委外退料(查看、修改、删除、新增、提交)
   委外入库(查看、修改、删除、新增、提交)
   委外退货(查看、修改、删除、新增、提交)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看、修改、删除、新增、提交)
-  制造退料(查看、修改、删除、新增、提交)
-  制造入库(查看、修改、删除、新增、提交)
-  制造退货(查看、修改、删除、新增、提交)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1886,41 +1771,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>基础设置(查看)
  BOM单资料维护(查看)</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1944,20 +1794,6 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1997,51 +1833,6 @@
   委外退料(查看)
   委外入库(查看)
   委外退货(查看)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 生产计划(查看)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  安装包装材料表(查看)
-  成品报表(查看)</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2160,6 +1951,242 @@
   </si>
   <si>
     <t>d0757c15-5ff7-4bae-90a9-d34b2f87acfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  制造领料(查看、修改、删除、新增、提交)
+  制造退料(查看、修改、删除、新增、提交)
+  制造入库(查看、修改、删除、新增、提交)
+  制造退货(查看、修改、删除、新增、提交)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看、修改、删除、新增、提交)
+  制造退料(查看、修改、删除、新增、提交)
+  制造入库(查看、修改、删除、新增、提交)
+  制造退货(查看、修改、删除、新增、提交)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)
+</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 生产计划(查看)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 分析统计(查看)
+  库存情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)
+  成品报表(查看)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseMatchingReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购对数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f8b3596b-cbd1-47e0-b25c-783152ef6cbf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5882f0e-c25d-402f-ac34-2c0bab3105e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>458dee15-322d-4434-83fd-319b298a803c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3e34a34-8324-416f-9581-d509df7f753b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319d7edf-aaf9-46c4-8b30-8a9429520545</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2529,15 +2556,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2549,6 +2567,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2846,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2864,138 +2891,138 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="25" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="146.25">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="C2" s="13" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="135">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="135">
+    </row>
+    <row r="3" spans="1:7" ht="146.25">
       <c r="A3" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="135">
+    </row>
+    <row r="4" spans="1:7" ht="146.25">
       <c r="A4" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="123.75">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="135">
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="146.25">
       <c r="A6" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3468,22 +3495,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>14</v>
@@ -6172,13 +6199,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
-        <v>188</v>
+        <v>506</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>37</v>
@@ -6198,65 +6225,65 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B124" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C124" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>374</v>
+      <c r="D124" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>11</v>
@@ -6276,13 +6303,13 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>11</v>
@@ -6302,13 +6329,13 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>11</v>
@@ -6328,13 +6355,13 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>11</v>
@@ -6354,13 +6381,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>11</v>
@@ -6380,13 +6407,13 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>11</v>
@@ -6406,16 +6433,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>12</v>
@@ -6432,59 +6459,59 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>453</v>
+        <v>376</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>454</v>
+        <v>377</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>54</v>
@@ -6496,10 +6523,10 @@
         <v>37</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>375</v>
@@ -6510,7 +6537,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>54</v>
@@ -6522,10 +6549,10 @@
         <v>37</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>375</v>
@@ -6536,7 +6563,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>54</v>
@@ -6548,10 +6575,10 @@
         <v>37</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>375</v>
@@ -6562,22 +6589,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>375</v>
@@ -6588,13 +6615,13 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>37</v>
@@ -6614,7 +6641,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>66</v>
@@ -6626,10 +6653,10 @@
         <v>37</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>375</v>
@@ -6640,7 +6667,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>66</v>
@@ -6652,10 +6679,10 @@
         <v>37</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>375</v>
@@ -6666,7 +6693,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>66</v>
@@ -6678,10 +6705,10 @@
         <v>37</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>375</v>
@@ -6692,22 +6719,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>375</v>
@@ -6718,7 +6745,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>72</v>
@@ -6730,10 +6757,10 @@
         <v>37</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>375</v>
@@ -6744,7 +6771,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>72</v>
@@ -6756,10 +6783,10 @@
         <v>37</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>375</v>
@@ -6770,7 +6797,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>72</v>
@@ -6782,10 +6809,10 @@
         <v>37</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>375</v>
@@ -6796,22 +6823,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>375</v>
@@ -6822,13 +6849,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>37</v>
@@ -6848,13 +6875,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>37</v>
@@ -6874,13 +6901,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>37</v>
@@ -6900,7 +6927,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>96</v>
@@ -6912,10 +6939,10 @@
         <v>37</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>375</v>
@@ -6926,7 +6953,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>96</v>
@@ -6938,10 +6965,10 @@
         <v>37</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>375</v>
@@ -6952,7 +6979,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>96</v>
@@ -6964,10 +6991,10 @@
         <v>37</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>375</v>
@@ -6978,22 +7005,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>375</v>
@@ -7004,7 +7031,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>102</v>
@@ -7016,10 +7043,10 @@
         <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>375</v>
@@ -7030,7 +7057,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>102</v>
@@ -7042,10 +7069,10 @@
         <v>37</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>375</v>
@@ -7056,7 +7083,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>102</v>
@@ -7068,10 +7095,10 @@
         <v>37</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>375</v>
@@ -7082,22 +7109,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>375</v>
@@ -7108,13 +7135,13 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>37</v>
@@ -7134,7 +7161,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>256</v>
@@ -7146,10 +7173,10 @@
         <v>37</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>375</v>
@@ -7160,7 +7187,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>256</v>
@@ -7172,10 +7199,10 @@
         <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>375</v>
@@ -7186,7 +7213,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>256</v>
@@ -7198,10 +7225,10 @@
         <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>375</v>
@@ -7212,22 +7239,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>375</v>
@@ -7238,13 +7265,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>37</v>
@@ -7264,7 +7291,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>117</v>
@@ -7276,10 +7303,10 @@
         <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>375</v>
@@ -7290,7 +7317,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>117</v>
@@ -7302,10 +7329,10 @@
         <v>37</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>375</v>
@@ -7316,22 +7343,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>375</v>
@@ -7342,7 +7369,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>236</v>
@@ -7354,10 +7381,10 @@
         <v>37</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>375</v>
@@ -7368,22 +7395,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>375</v>
@@ -7394,7 +7421,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>123</v>
@@ -7406,10 +7433,10 @@
         <v>37</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>375</v>
@@ -7420,7 +7447,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>123</v>
@@ -7432,10 +7459,10 @@
         <v>37</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>375</v>
@@ -7446,22 +7473,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>375</v>
@@ -7472,7 +7499,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>239</v>
@@ -7484,10 +7511,10 @@
         <v>37</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>375</v>
@@ -7498,22 +7525,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>375</v>
@@ -7524,7 +7551,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>129</v>
@@ -7536,10 +7563,10 @@
         <v>37</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>375</v>
@@ -7550,7 +7577,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>129</v>
@@ -7562,10 +7589,10 @@
         <v>37</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>375</v>
@@ -7576,10 +7603,10 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>130</v>
@@ -7588,10 +7615,10 @@
         <v>37</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>375</v>
@@ -7602,7 +7629,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>241</v>
@@ -7614,10 +7641,10 @@
         <v>37</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>375</v>
@@ -7628,22 +7655,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>375</v>
@@ -7654,7 +7681,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>135</v>
@@ -7666,10 +7693,10 @@
         <v>37</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>375</v>
@@ -7680,7 +7707,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>135</v>
@@ -7692,10 +7719,10 @@
         <v>37</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>375</v>
@@ -7706,7 +7733,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>135</v>
@@ -7718,10 +7745,10 @@
         <v>37</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>375</v>
@@ -7732,7 +7759,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>135</v>
@@ -7744,10 +7771,10 @@
         <v>37</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>375</v>
@@ -7758,22 +7785,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>375</v>
@@ -7784,7 +7811,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>141</v>
@@ -7796,10 +7823,10 @@
         <v>37</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>375</v>
@@ -7810,7 +7837,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>141</v>
@@ -7822,10 +7849,10 @@
         <v>37</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>375</v>
@@ -7836,7 +7863,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>141</v>
@@ -7848,10 +7875,10 @@
         <v>37</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>375</v>
@@ -7862,7 +7889,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>141</v>
@@ -7874,10 +7901,10 @@
         <v>37</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>375</v>
@@ -7888,22 +7915,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>375</v>
@@ -7914,7 +7941,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>147</v>
@@ -7926,10 +7953,10 @@
         <v>37</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>375</v>
@@ -7940,7 +7967,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>147</v>
@@ -7952,10 +7979,10 @@
         <v>37</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>375</v>
@@ -7966,7 +7993,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>147</v>
@@ -7978,10 +8005,10 @@
         <v>37</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>375</v>
@@ -7992,7 +8019,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>147</v>
@@ -8004,10 +8031,10 @@
         <v>37</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>375</v>
@@ -8018,22 +8045,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>375</v>
@@ -8044,7 +8071,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>153</v>
@@ -8056,10 +8083,10 @@
         <v>37</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>375</v>
@@ -8070,7 +8097,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>153</v>
@@ -8082,10 +8109,10 @@
         <v>37</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>375</v>
@@ -8096,7 +8123,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>153</v>
@@ -8108,10 +8135,10 @@
         <v>37</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>375</v>
@@ -8122,7 +8149,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>153</v>
@@ -8134,10 +8161,10 @@
         <v>37</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>375</v>
@@ -8148,22 +8175,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>375</v>
@@ -8174,7 +8201,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>159</v>
@@ -8186,10 +8213,10 @@
         <v>37</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>375</v>
@@ -8200,7 +8227,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>159</v>
@@ -8212,10 +8239,10 @@
         <v>37</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>375</v>
@@ -8226,7 +8253,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>159</v>
@@ -8238,10 +8265,10 @@
         <v>37</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>375</v>
@@ -8252,7 +8279,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>159</v>
@@ -8264,10 +8291,10 @@
         <v>37</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>375</v>
@@ -8278,22 +8305,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>375</v>
@@ -8304,7 +8331,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>165</v>
@@ -8316,10 +8343,10 @@
         <v>37</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>375</v>
@@ -8330,7 +8357,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>165</v>
@@ -8342,10 +8369,10 @@
         <v>37</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>375</v>
@@ -8356,7 +8383,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>165</v>
@@ -8368,10 +8395,10 @@
         <v>37</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>375</v>
@@ -8382,7 +8409,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>165</v>
@@ -8394,10 +8421,10 @@
         <v>37</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>375</v>
@@ -8408,22 +8435,22 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>375</v>
@@ -8434,7 +8461,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>171</v>
@@ -8446,10 +8473,10 @@
         <v>37</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>375</v>
@@ -8460,7 +8487,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>171</v>
@@ -8472,10 +8499,10 @@
         <v>37</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>375</v>
@@ -8486,7 +8513,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>171</v>
@@ -8498,10 +8525,10 @@
         <v>37</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>375</v>
@@ -8512,7 +8539,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>171</v>
@@ -8524,10 +8551,10 @@
         <v>37</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>375</v>
@@ -8538,22 +8565,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>375</v>
@@ -8564,13 +8591,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>37</v>
@@ -8590,13 +8617,13 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>37</v>
@@ -8616,13 +8643,13 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>37</v>
@@ -8642,13 +8669,13 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>37</v>
@@ -8668,91 +8695,91 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B220" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" s="4" t="s">
+      <c r="D220" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="H218" s="4" t="s">
+      <c r="H220" s="4" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B219" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D219" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E219" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F219" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="H219" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B220" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C220" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="D220" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="E220" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F220" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="G220" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H220" s="17" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B221" s="17" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C221" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D221" s="17" t="s">
         <v>11</v>
@@ -8764,73 +8791,73 @@
         <v>13</v>
       </c>
       <c r="G221" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H221" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="17" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>441</v>
+        <v>196</v>
       </c>
       <c r="H222" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="17" t="s">
-        <v>452</v>
+        <v>359</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>454</v>
+        <v>21</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="E223" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H223" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>11</v>
@@ -8842,47 +8869,47 @@
         <v>13</v>
       </c>
       <c r="G224" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="17" t="s">
-        <v>362</v>
+        <v>450</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E225" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>441</v>
+        <v>196</v>
       </c>
       <c r="H225" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D226" s="17" t="s">
         <v>11</v>
@@ -8894,24 +8921,24 @@
         <v>13</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H226" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E227" s="17" t="s">
         <v>12</v>
@@ -8920,24 +8947,24 @@
         <v>13</v>
       </c>
       <c r="G227" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H227" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E228" s="17" t="s">
         <v>12</v>
@@ -8946,41 +8973,41 @@
         <v>13</v>
       </c>
       <c r="G228" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H228" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D229" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G229" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H229" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B230" s="17" t="s">
         <v>108</v>
@@ -8992,21 +9019,21 @@
         <v>37</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G230" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H230" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>108</v>
@@ -9018,21 +9045,21 @@
         <v>37</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G231" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H231" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B232" s="17" t="s">
         <v>108</v>
@@ -9044,79 +9071,79 @@
         <v>37</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="G232" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H232" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B233" s="17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C233" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G233" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H233" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G234" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H234" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>37</v>
@@ -9128,21 +9155,21 @@
         <v>13</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H235" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B236" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C236" s="17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D236" s="17" t="s">
         <v>37</v>
@@ -9154,21 +9181,21 @@
         <v>13</v>
       </c>
       <c r="G236" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H236" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>37</v>
@@ -9180,21 +9207,21 @@
         <v>13</v>
       </c>
       <c r="G237" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H237" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>37</v>
@@ -9206,21 +9233,21 @@
         <v>13</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H238" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>37</v>
@@ -9232,21 +9259,21 @@
         <v>13</v>
       </c>
       <c r="G239" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H239" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>37</v>
@@ -9258,21 +9285,21 @@
         <v>13</v>
       </c>
       <c r="G240" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H240" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>37</v>
@@ -9284,21 +9311,21 @@
         <v>13</v>
       </c>
       <c r="G241" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H241" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>37</v>
@@ -9310,21 +9337,21 @@
         <v>13</v>
       </c>
       <c r="G242" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H242" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>37</v>
@@ -9336,21 +9363,21 @@
         <v>13</v>
       </c>
       <c r="G243" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H243" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>37</v>
@@ -9362,21 +9389,21 @@
         <v>13</v>
       </c>
       <c r="G244" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H244" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>37</v>
@@ -9388,21 +9415,21 @@
         <v>13</v>
       </c>
       <c r="G245" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H245" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>37</v>
@@ -9414,21 +9441,21 @@
         <v>13</v>
       </c>
       <c r="G246" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H246" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>37</v>
@@ -9440,21 +9467,21 @@
         <v>13</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H247" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D248" s="17" t="s">
         <v>37</v>
@@ -9466,73 +9493,73 @@
         <v>13</v>
       </c>
       <c r="G248" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H248" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B249" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="H249" s="18" t="s">
-        <v>444</v>
+      <c r="A249" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B249" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H249" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="D250" s="18" t="s">
-        <v>450</v>
-      </c>
-      <c r="E250" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="G250" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="H250" s="18" t="s">
-        <v>444</v>
+      <c r="A250" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E250" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H250" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C251" s="18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D251" s="18" t="s">
         <v>11</v>
@@ -9544,47 +9571,47 @@
         <v>13</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C252" s="18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E252" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F252" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G252" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D253" s="18" t="s">
         <v>11</v>
@@ -9596,47 +9623,47 @@
         <v>13</v>
       </c>
       <c r="G253" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="18" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>27</v>
+        <v>452</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E254" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G254" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D255" s="18" t="s">
         <v>11</v>
@@ -9648,21 +9675,21 @@
         <v>13</v>
       </c>
       <c r="G255" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D256" s="18" t="s">
         <v>11</v>
@@ -9674,24 +9701,24 @@
         <v>13</v>
       </c>
       <c r="G256" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D257" s="18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E257" s="18" t="s">
         <v>12</v>
@@ -9700,70 +9727,70 @@
         <v>13</v>
       </c>
       <c r="G257" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="18" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>502</v>
+        <v>32</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D258" s="18">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D258" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>503</v>
+        <v>12</v>
       </c>
       <c r="F258" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G258" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="18" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>502</v>
+        <v>90</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D259" s="18">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="D259" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="E259" s="18" t="s">
-        <v>495</v>
+        <v>12</v>
       </c>
       <c r="F259" s="18" t="s">
-        <v>496</v>
+        <v>13</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="18" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="C260" s="18" t="s">
         <v>61</v>
@@ -9772,24 +9799,24 @@
         <v>1</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F260" s="18" t="s">
-        <v>498</v>
+        <v>13</v>
       </c>
       <c r="G260" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="C261" s="18" t="s">
         <v>61</v>
@@ -9798,177 +9825,177 @@
         <v>1</v>
       </c>
       <c r="E261" s="18" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G261" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="18" t="s">
-        <v>505</v>
+        <v>210</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C262" s="18" t="s">
-        <v>504</v>
+        <v>61</v>
       </c>
       <c r="D262" s="18">
         <v>1</v>
       </c>
       <c r="E262" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G262" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H262" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="18" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C263" s="18" t="s">
-        <v>504</v>
+        <v>61</v>
       </c>
       <c r="D263" s="18">
         <v>1</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G263" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="18" t="s">
-        <v>295</v>
+        <v>498</v>
       </c>
       <c r="B264" s="18" t="s">
         <v>250</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D264" s="18">
         <v>1</v>
       </c>
       <c r="E264" s="18" t="s">
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>498</v>
+        <v>13</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H264" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>250</v>
       </c>
       <c r="C265" s="18" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D265" s="18">
         <v>1</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G265" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H265" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="18" t="s">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C266" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D266" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D266" s="18">
+        <v>1</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G266" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H266" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="18" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C267" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D267" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D267" s="18">
+        <v>1</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>40</v>
+        <v>493</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H267" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B268" s="18" t="s">
         <v>108</v>
@@ -9980,21 +10007,21 @@
         <v>37</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G268" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H268" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B269" s="18" t="s">
         <v>108</v>
@@ -10006,79 +10033,79 @@
         <v>37</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G269" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H269" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C270" s="18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D270" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E270" s="18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G270" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H270" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C271" s="18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D271" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G271" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H271" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>37</v>
@@ -10090,21 +10117,21 @@
         <v>13</v>
       </c>
       <c r="G272" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H272" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>37</v>
@@ -10116,21 +10143,21 @@
         <v>13</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H273" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C274" s="18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D274" s="18" t="s">
         <v>37</v>
@@ -10142,21 +10169,21 @@
         <v>13</v>
       </c>
       <c r="G274" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H274" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C275" s="18" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>37</v>
@@ -10168,21 +10195,21 @@
         <v>13</v>
       </c>
       <c r="G275" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H275" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C276" s="18" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>37</v>
@@ -10194,21 +10221,21 @@
         <v>13</v>
       </c>
       <c r="G276" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H276" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>37</v>
@@ -10220,21 +10247,21 @@
         <v>13</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H277" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>37</v>
@@ -10246,21 +10273,21 @@
         <v>13</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H278" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>37</v>
@@ -10272,21 +10299,21 @@
         <v>13</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H279" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>37</v>
@@ -10298,21 +10325,21 @@
         <v>13</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H280" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>37</v>
@@ -10324,21 +10351,21 @@
         <v>13</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H281" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>37</v>
@@ -10350,21 +10377,21 @@
         <v>13</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H282" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>37</v>
@@ -10376,21 +10403,21 @@
         <v>13</v>
       </c>
       <c r="G283" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H283" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>37</v>
@@ -10402,73 +10429,73 @@
         <v>13</v>
       </c>
       <c r="G284" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H284" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B285" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C285" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D285" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F285" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G285" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="H285" s="19" t="s">
-        <v>446</v>
+      <c r="A285" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C285" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H285" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="B286" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="C286" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="D286" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="E286" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F286" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="G286" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="H286" s="19" t="s">
-        <v>446</v>
+      <c r="A286" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B286" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E286" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H286" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D287" s="19" t="s">
         <v>11</v>
@@ -10480,47 +10507,47 @@
         <v>13</v>
       </c>
       <c r="G287" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H287" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D288" s="19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E288" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G288" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H288" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D289" s="19" t="s">
         <v>11</v>
@@ -10532,47 +10559,47 @@
         <v>13</v>
       </c>
       <c r="G289" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H289" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="19" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>27</v>
+        <v>452</v>
       </c>
       <c r="D290" s="19" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F290" s="19" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G290" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H290" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D291" s="19" t="s">
         <v>11</v>
@@ -10584,21 +10611,21 @@
         <v>13</v>
       </c>
       <c r="G291" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H291" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D292" s="19" t="s">
         <v>11</v>
@@ -10610,24 +10637,24 @@
         <v>13</v>
       </c>
       <c r="G292" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H292" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E293" s="19" t="s">
         <v>12</v>
@@ -10636,41 +10663,41 @@
         <v>13</v>
       </c>
       <c r="G293" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H293" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="19" t="s">
-        <v>223</v>
+        <v>421</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D294" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D294" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E294" s="19" t="s">
-        <v>495</v>
+        <v>12</v>
       </c>
       <c r="F294" s="19" t="s">
-        <v>496</v>
+        <v>13</v>
       </c>
       <c r="G294" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H294" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="19" t="s">
-        <v>224</v>
+        <v>422</v>
       </c>
       <c r="B295" s="19" t="s">
         <v>90</v>
@@ -10678,25 +10705,25 @@
       <c r="C295" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D295" s="19">
-        <v>1</v>
+      <c r="D295" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E295" s="19" t="s">
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="F295" s="19" t="s">
-        <v>498</v>
+        <v>13</v>
       </c>
       <c r="G295" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H295" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>90</v>
@@ -10708,79 +10735,79 @@
         <v>1</v>
       </c>
       <c r="E296" s="19" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F296" s="19" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G296" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H296" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="19" t="s">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D297" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D297" s="19">
+        <v>1</v>
       </c>
       <c r="E297" s="19" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F297" s="19" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G297" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H297" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="19" t="s">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D298" s="19">
+        <v>1</v>
       </c>
       <c r="E298" s="19" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F298" s="19" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="G298" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H298" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D299" s="19" t="s">
         <v>37</v>
@@ -10792,21 +10819,21 @@
         <v>13</v>
       </c>
       <c r="G299" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H299" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="19" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D300" s="19" t="s">
         <v>37</v>
@@ -10818,21 +10845,21 @@
         <v>13</v>
       </c>
       <c r="G300" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H300" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D301" s="19" t="s">
         <v>37</v>
@@ -10844,21 +10871,21 @@
         <v>13</v>
       </c>
       <c r="G301" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H301" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D302" s="19" t="s">
         <v>37</v>
@@ -10870,21 +10897,21 @@
         <v>13</v>
       </c>
       <c r="G302" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H302" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D303" s="19" t="s">
         <v>37</v>
@@ -10896,21 +10923,21 @@
         <v>13</v>
       </c>
       <c r="G303" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H303" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D304" s="19" t="s">
         <v>37</v>
@@ -10922,21 +10949,21 @@
         <v>13</v>
       </c>
       <c r="G304" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H304" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="19" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D305" s="19" t="s">
         <v>37</v>
@@ -10948,21 +10975,21 @@
         <v>13</v>
       </c>
       <c r="G305" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H305" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="19" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D306" s="19" t="s">
         <v>37</v>
@@ -10974,21 +11001,21 @@
         <v>13</v>
       </c>
       <c r="G306" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H306" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D307" s="19" t="s">
         <v>37</v>
@@ -11000,21 +11027,21 @@
         <v>13</v>
       </c>
       <c r="G307" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H307" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="19" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D308" s="19" t="s">
         <v>37</v>
@@ -11026,21 +11053,21 @@
         <v>13</v>
       </c>
       <c r="G308" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H308" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D309" s="19" t="s">
         <v>37</v>
@@ -11052,21 +11079,21 @@
         <v>13</v>
       </c>
       <c r="G309" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H309" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="19" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D310" s="19" t="s">
         <v>37</v>
@@ -11078,21 +11105,21 @@
         <v>13</v>
       </c>
       <c r="G310" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H310" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="19" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D311" s="19" t="s">
         <v>37</v>
@@ -11104,36 +11131,114 @@
         <v>13</v>
       </c>
       <c r="G311" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H311" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="19" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B312" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C312" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D312" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E312" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F312" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H312" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B313" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C313" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D313" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E313" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F313" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G313" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H313" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B314" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C314" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D314" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E314" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G314" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H314" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B315" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C312" s="19" t="s">
+      <c r="C315" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D312" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E312" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F312" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G312" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="H312" s="19" t="s">
-        <v>446</v>
+      <c r="D315" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E315" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G315" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H315" s="19" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -11166,7 +11271,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>266</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -11174,61 +11279,61 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>292</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -11236,19 +11341,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>277</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -11256,37 +11361,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="23"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>281</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -11294,31 +11399,31 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>283</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -11326,25 +11431,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="23"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>286</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -11352,25 +11457,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
-      <c r="A33" s="23"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="25" t="s">
         <v>288</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -11378,37 +11483,37 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
-      <c r="A40" s="23"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="12" t="s">
         <v>282</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="系统角色" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="516">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,6 +2187,26 @@
   </si>
   <si>
     <t>319d7edf-aaf9-46c4-8b30-8a9429520545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ccf1b17-dea7-4886-abfd-21474f050054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseBillManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1eaf691-9cf3-4344-b3d1-8c19b8f7a561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>894ba5db-f126-4258-9de1-1f1b5a5f24ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2298,7 +2318,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2350,6 +2370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2492,7 +2518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2576,6 +2602,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2873,7 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3034,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H315"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4794,34 +4823,34 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="5" t="s">
+      <c r="A68" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>117</v>
@@ -4833,10 +4862,10 @@
         <v>37</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>14</v>
@@ -4847,7 +4876,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>117</v>
@@ -4859,10 +4888,10 @@
         <v>37</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>14</v>
@@ -4873,22 +4902,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>14</v>
@@ -4899,7 +4928,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>236</v>
@@ -4911,10 +4940,10 @@
         <v>37</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>14</v>
@@ -4925,22 +4954,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>14</v>
@@ -4951,7 +4980,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>123</v>
@@ -4963,10 +4992,10 @@
         <v>37</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>14</v>
@@ -4977,7 +5006,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>123</v>
@@ -4989,10 +5018,10 @@
         <v>37</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>14</v>
@@ -5003,22 +5032,22 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>14</v>
@@ -5029,7 +5058,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="5" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>239</v>
@@ -5041,10 +5070,10 @@
         <v>37</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>14</v>
@@ -5055,22 +5084,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="5" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>14</v>
@@ -5081,7 +5110,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>129</v>
@@ -5093,10 +5122,10 @@
         <v>37</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>14</v>
@@ -5107,7 +5136,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>129</v>
@@ -5119,10 +5148,10 @@
         <v>37</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>14</v>
@@ -5133,10 +5162,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>130</v>
@@ -5145,10 +5174,10 @@
         <v>37</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>14</v>
@@ -5159,7 +5188,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="5" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>241</v>
@@ -5171,10 +5200,10 @@
         <v>37</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>14</v>
@@ -5185,22 +5214,22 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="5" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>14</v>
@@ -5211,7 +5240,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>135</v>
@@ -5223,10 +5252,10 @@
         <v>37</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>14</v>
@@ -5237,7 +5266,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>135</v>
@@ -5249,10 +5278,10 @@
         <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>14</v>
@@ -5263,7 +5292,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>135</v>
@@ -5275,10 +5304,10 @@
         <v>37</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>14</v>
@@ -5289,7 +5318,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>135</v>
@@ -5301,10 +5330,10 @@
         <v>37</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>14</v>
@@ -5315,22 +5344,22 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="5" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>14</v>
@@ -5341,7 +5370,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>141</v>
@@ -5353,10 +5382,10 @@
         <v>37</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>14</v>
@@ -5367,7 +5396,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>141</v>
@@ -5379,10 +5408,10 @@
         <v>37</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>14</v>
@@ -5393,7 +5422,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>141</v>
@@ -5405,10 +5434,10 @@
         <v>37</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>14</v>
@@ -5419,7 +5448,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="5" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>141</v>
@@ -5431,10 +5460,10 @@
         <v>37</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>14</v>
@@ -5445,22 +5474,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="5" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>14</v>
@@ -5471,7 +5500,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>147</v>
@@ -5483,10 +5512,10 @@
         <v>37</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>14</v>
@@ -5497,7 +5526,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>147</v>
@@ -5509,10 +5538,10 @@
         <v>37</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>14</v>
@@ -5523,7 +5552,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>147</v>
@@ -5535,10 +5564,10 @@
         <v>37</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>14</v>
@@ -5549,7 +5578,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>147</v>
@@ -5561,10 +5590,10 @@
         <v>37</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>14</v>
@@ -5575,22 +5604,22 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="5" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>14</v>
@@ -5601,7 +5630,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>153</v>
@@ -5613,10 +5642,10 @@
         <v>37</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>14</v>
@@ -5627,7 +5656,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>153</v>
@@ -5639,10 +5668,10 @@
         <v>37</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>14</v>
@@ -5653,7 +5682,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>153</v>
@@ -5665,10 +5694,10 @@
         <v>37</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>14</v>
@@ -5679,7 +5708,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="5" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>153</v>
@@ -5691,10 +5720,10 @@
         <v>37</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>14</v>
@@ -5705,22 +5734,22 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="5" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>14</v>
@@ -5731,7 +5760,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>159</v>
@@ -5743,10 +5772,10 @@
         <v>37</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>14</v>
@@ -5757,7 +5786,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>159</v>
@@ -5769,10 +5798,10 @@
         <v>37</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>14</v>
@@ -5783,7 +5812,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>159</v>
@@ -5795,10 +5824,10 @@
         <v>37</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>14</v>
@@ -5809,7 +5838,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="5" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>159</v>
@@ -5821,10 +5850,10 @@
         <v>37</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>14</v>
@@ -5835,22 +5864,22 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="5" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>14</v>
@@ -5861,7 +5890,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>165</v>
@@ -5873,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>14</v>
@@ -5887,7 +5916,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>165</v>
@@ -5899,10 +5928,10 @@
         <v>37</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>14</v>
@@ -5913,7 +5942,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>165</v>
@@ -5925,10 +5954,10 @@
         <v>37</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>14</v>
@@ -5939,7 +5968,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="5" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>165</v>
@@ -5951,10 +5980,10 @@
         <v>37</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>14</v>
@@ -5965,22 +5994,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="5" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>14</v>
@@ -5991,7 +6020,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>171</v>
@@ -6003,10 +6032,10 @@
         <v>37</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>14</v>
@@ -6017,7 +6046,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>171</v>
@@ -6029,10 +6058,10 @@
         <v>37</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>14</v>
@@ -6043,7 +6072,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>171</v>
@@ -6055,10 +6084,10 @@
         <v>37</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>14</v>
@@ -6069,7 +6098,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="5" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>171</v>
@@ -6081,10 +6110,10 @@
         <v>37</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>14</v>
@@ -6095,22 +6124,22 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="5" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>14</v>
@@ -6121,13 +6150,13 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>37</v>
@@ -6147,13 +6176,13 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>37</v>
@@ -6173,13 +6202,13 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>37</v>
@@ -6199,13 +6228,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="5" t="s">
-        <v>506</v>
+        <v>185</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>504</v>
+        <v>186</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>505</v>
+        <v>187</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>37</v>
@@ -6225,13 +6254,13 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="5" t="s">
-        <v>188</v>
+        <v>506</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>37</v>
@@ -6251,65 +6280,65 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>374</v>
+      <c r="D125" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>11</v>
@@ -6329,13 +6358,13 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>11</v>
@@ -6355,13 +6384,13 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>11</v>
@@ -6381,13 +6410,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>11</v>
@@ -6407,13 +6436,13 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>11</v>
@@ -6433,13 +6462,13 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>11</v>
@@ -6459,16 +6488,16 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
-        <v>379</v>
+        <v>203</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>12</v>
@@ -6485,59 +6514,59 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
-        <v>458</v>
+        <v>379</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>451</v>
+        <v>376</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>453</v>
+        <v>37</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>54</v>
@@ -6549,10 +6578,10 @@
         <v>37</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>375</v>
@@ -6563,7 +6592,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>54</v>
@@ -6575,10 +6604,10 @@
         <v>37</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>375</v>
@@ -6589,7 +6618,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>54</v>
@@ -6601,10 +6630,10 @@
         <v>37</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>375</v>
@@ -6615,22 +6644,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>375</v>
@@ -6641,13 +6670,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>37</v>
@@ -6667,7 +6696,7 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>66</v>
@@ -6679,10 +6708,10 @@
         <v>37</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>375</v>
@@ -6693,7 +6722,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>66</v>
@@ -6705,10 +6734,10 @@
         <v>37</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>375</v>
@@ -6719,7 +6748,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>66</v>
@@ -6731,10 +6760,10 @@
         <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>375</v>
@@ -6745,22 +6774,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>375</v>
@@ -6771,7 +6800,7 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>72</v>
@@ -6783,10 +6812,10 @@
         <v>37</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>375</v>
@@ -6797,7 +6826,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>72</v>
@@ -6809,10 +6838,10 @@
         <v>37</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>375</v>
@@ -6823,7 +6852,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>72</v>
@@ -6835,10 +6864,10 @@
         <v>37</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>375</v>
@@ -6849,22 +6878,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>375</v>
@@ -6875,13 +6904,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>37</v>
@@ -6901,13 +6930,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>37</v>
@@ -6927,13 +6956,13 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>37</v>
@@ -6953,7 +6982,7 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>96</v>
@@ -6965,10 +6994,10 @@
         <v>37</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>375</v>
@@ -6979,7 +7008,7 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>96</v>
@@ -6991,10 +7020,10 @@
         <v>37</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>375</v>
@@ -7005,7 +7034,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>96</v>
@@ -7017,10 +7046,10 @@
         <v>37</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>375</v>
@@ -7031,22 +7060,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>375</v>
@@ -7057,7 +7086,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>102</v>
@@ -7069,10 +7098,10 @@
         <v>37</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>375</v>
@@ -7083,7 +7112,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>102</v>
@@ -7095,10 +7124,10 @@
         <v>37</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>375</v>
@@ -7109,7 +7138,7 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>102</v>
@@ -7121,10 +7150,10 @@
         <v>37</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>375</v>
@@ -7135,22 +7164,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>375</v>
@@ -7161,13 +7190,13 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>37</v>
@@ -7187,7 +7216,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>256</v>
@@ -7199,10 +7228,10 @@
         <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>375</v>
@@ -7213,7 +7242,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>256</v>
@@ -7225,10 +7254,10 @@
         <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>375</v>
@@ -7239,7 +7268,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>256</v>
@@ -7251,10 +7280,10 @@
         <v>37</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>375</v>
@@ -7265,22 +7294,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>375</v>
@@ -7291,13 +7320,13 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>37</v>
@@ -7317,7 +7346,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>117</v>
@@ -7329,10 +7358,10 @@
         <v>37</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>375</v>
@@ -7343,7 +7372,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>117</v>
@@ -7355,10 +7384,10 @@
         <v>37</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>375</v>
@@ -7369,22 +7398,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>375</v>
@@ -7395,7 +7424,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>236</v>
@@ -7407,10 +7436,10 @@
         <v>37</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>375</v>
@@ -7421,22 +7450,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>375</v>
@@ -7447,7 +7476,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>123</v>
@@ -7459,10 +7488,10 @@
         <v>37</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>375</v>
@@ -7473,7 +7502,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>123</v>
@@ -7485,10 +7514,10 @@
         <v>37</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>375</v>
@@ -7499,22 +7528,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>375</v>
@@ -7525,7 +7554,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>239</v>
@@ -7537,10 +7566,10 @@
         <v>37</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>375</v>
@@ -7551,22 +7580,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>375</v>
@@ -7577,7 +7606,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>129</v>
@@ -7589,10 +7618,10 @@
         <v>37</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>375</v>
@@ -7603,7 +7632,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>129</v>
@@ -7615,10 +7644,10 @@
         <v>37</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>375</v>
@@ -7629,10 +7658,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>130</v>
@@ -7641,10 +7670,10 @@
         <v>37</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>375</v>
@@ -7655,7 +7684,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>241</v>
@@ -7667,10 +7696,10 @@
         <v>37</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>375</v>
@@ -7681,22 +7710,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>375</v>
@@ -7707,7 +7736,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>135</v>
@@ -7719,10 +7748,10 @@
         <v>37</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>375</v>
@@ -7733,7 +7762,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>135</v>
@@ -7745,10 +7774,10 @@
         <v>37</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>375</v>
@@ -7759,7 +7788,7 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>135</v>
@@ -7771,10 +7800,10 @@
         <v>37</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>375</v>
@@ -7785,7 +7814,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>135</v>
@@ -7797,10 +7826,10 @@
         <v>37</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>375</v>
@@ -7811,22 +7840,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>375</v>
@@ -7837,7 +7866,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>141</v>
@@ -7849,10 +7878,10 @@
         <v>37</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>375</v>
@@ -7863,7 +7892,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>141</v>
@@ -7875,10 +7904,10 @@
         <v>37</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>375</v>
@@ -7889,7 +7918,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>141</v>
@@ -7901,10 +7930,10 @@
         <v>37</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>375</v>
@@ -7915,7 +7944,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>141</v>
@@ -7927,10 +7956,10 @@
         <v>37</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>375</v>
@@ -7941,22 +7970,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>375</v>
@@ -7967,7 +7996,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>147</v>
@@ -7979,10 +8008,10 @@
         <v>37</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>375</v>
@@ -7993,7 +8022,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>147</v>
@@ -8005,10 +8034,10 @@
         <v>37</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>375</v>
@@ -8019,7 +8048,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>147</v>
@@ -8031,10 +8060,10 @@
         <v>37</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>375</v>
@@ -8045,7 +8074,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>147</v>
@@ -8057,10 +8086,10 @@
         <v>37</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>375</v>
@@ -8071,22 +8100,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>375</v>
@@ -8097,7 +8126,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>153</v>
@@ -8109,10 +8138,10 @@
         <v>37</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>375</v>
@@ -8123,7 +8152,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>153</v>
@@ -8135,10 +8164,10 @@
         <v>37</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>375</v>
@@ -8149,7 +8178,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>153</v>
@@ -8161,10 +8190,10 @@
         <v>37</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>375</v>
@@ -8175,7 +8204,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>153</v>
@@ -8187,10 +8216,10 @@
         <v>37</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>375</v>
@@ -8201,22 +8230,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>375</v>
@@ -8227,7 +8256,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>159</v>
@@ -8239,10 +8268,10 @@
         <v>37</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>375</v>
@@ -8253,7 +8282,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>159</v>
@@ -8265,10 +8294,10 @@
         <v>37</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>375</v>
@@ -8279,7 +8308,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>159</v>
@@ -8291,10 +8320,10 @@
         <v>37</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>375</v>
@@ -8305,7 +8334,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>159</v>
@@ -8317,10 +8346,10 @@
         <v>37</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>375</v>
@@ -8331,22 +8360,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>375</v>
@@ -8357,7 +8386,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>165</v>
@@ -8369,10 +8398,10 @@
         <v>37</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>375</v>
@@ -8383,7 +8412,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>165</v>
@@ -8395,10 +8424,10 @@
         <v>37</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>375</v>
@@ -8409,7 +8438,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>165</v>
@@ -8421,10 +8450,10 @@
         <v>37</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>375</v>
@@ -8435,7 +8464,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>165</v>
@@ -8447,10 +8476,10 @@
         <v>37</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>375</v>
@@ -8461,22 +8490,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>375</v>
@@ -8487,7 +8516,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>171</v>
@@ -8499,10 +8528,10 @@
         <v>37</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>375</v>
@@ -8513,7 +8542,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>171</v>
@@ -8525,10 +8554,10 @@
         <v>37</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>375</v>
@@ -8539,7 +8568,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>171</v>
@@ -8551,10 +8580,10 @@
         <v>37</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>375</v>
@@ -8565,7 +8594,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>171</v>
@@ -8577,10 +8606,10 @@
         <v>37</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>375</v>
@@ -8591,22 +8620,22 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>375</v>
@@ -8617,13 +8646,13 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>37</v>
@@ -8643,13 +8672,13 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>37</v>
@@ -8669,13 +8698,13 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>37</v>
@@ -8695,13 +8724,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>504</v>
+        <v>186</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>505</v>
+        <v>187</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>37</v>
@@ -8713,21 +8742,21 @@
         <v>13</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>189</v>
+        <v>504</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>190</v>
+        <v>505</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>37</v>
@@ -8739,21 +8768,21 @@
         <v>13</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>37</v>
@@ -8772,52 +8801,52 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B221" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C221" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F221" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H221" s="17" t="s">
-        <v>440</v>
+      <c r="A221" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="17" t="s">
-        <v>445</v>
+        <v>358</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>446</v>
+        <v>9</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>447</v>
+        <v>10</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="E222" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="G222" s="17" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H222" s="17" t="s">
         <v>440</v>
@@ -8825,25 +8854,25 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="17" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="B223" s="17" t="s">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="C223" s="17" t="s">
-        <v>21</v>
+        <v>447</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="E223" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G223" s="17" t="s">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="H223" s="17" t="s">
         <v>440</v>
@@ -8851,13 +8880,13 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C224" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D224" s="17" t="s">
         <v>11</v>
@@ -8877,25 +8906,25 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="17" t="s">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="B225" s="17" t="s">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="C225" s="17" t="s">
-        <v>452</v>
+        <v>24</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="E225" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="G225" s="17" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H225" s="17" t="s">
         <v>440</v>
@@ -8903,25 +8932,25 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="17" t="s">
-        <v>361</v>
+        <v>450</v>
       </c>
       <c r="B226" s="17" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>27</v>
+        <v>452</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E226" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G226" s="17" t="s">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="H226" s="17" t="s">
         <v>440</v>
@@ -8929,13 +8958,13 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B227" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C227" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D227" s="17" t="s">
         <v>11</v>
@@ -8955,13 +8984,13 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B228" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>11</v>
@@ -8981,16 +9010,16 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B229" s="17" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C229" s="17" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E229" s="17" t="s">
         <v>12</v>
@@ -9007,13 +9036,13 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C230" s="17" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D230" s="17" t="s">
         <v>37</v>
@@ -9033,7 +9062,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B231" s="17" t="s">
         <v>108</v>
@@ -9045,10 +9074,10 @@
         <v>37</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G231" s="17" t="s">
         <v>439</v>
@@ -9059,7 +9088,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B232" s="17" t="s">
         <v>108</v>
@@ -9071,10 +9100,10 @@
         <v>37</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G232" s="17" t="s">
         <v>439</v>
@@ -9085,7 +9114,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B233" s="17" t="s">
         <v>108</v>
@@ -9097,10 +9126,10 @@
         <v>37</v>
       </c>
       <c r="E233" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G233" s="17" t="s">
         <v>439</v>
@@ -9111,7 +9140,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B234" s="17" t="s">
         <v>108</v>
@@ -9123,10 +9152,10 @@
         <v>37</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="G234" s="17" t="s">
         <v>439</v>
@@ -9137,65 +9166,65 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>117</v>
+        <v>513</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G235" s="17" t="s">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="H235" s="17" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B236" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E236" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G236" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H236" s="17" t="s">
+      <c r="A236" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B236" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C236" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G236" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H236" s="28" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>37</v>
@@ -9215,13 +9244,13 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>37</v>
@@ -9241,13 +9270,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="17" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>37</v>
@@ -9267,13 +9296,13 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>37</v>
@@ -9293,13 +9322,13 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>37</v>
@@ -9319,13 +9348,13 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>37</v>
@@ -9345,13 +9374,13 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>37</v>
@@ -9371,13 +9400,13 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>37</v>
@@ -9397,13 +9426,13 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>37</v>
@@ -9423,13 +9452,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>37</v>
@@ -9449,13 +9478,13 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>37</v>
@@ -9475,13 +9504,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D248" s="17" t="s">
         <v>37</v>
@@ -9501,13 +9530,13 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="17" t="s">
-        <v>508</v>
+        <v>388</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>504</v>
+        <v>183</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>505</v>
+        <v>184</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>37</v>
@@ -9519,7 +9548,7 @@
         <v>13</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H249" s="17" t="s">
         <v>440</v>
@@ -9527,13 +9556,13 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>37</v>
@@ -9552,66 +9581,66 @@
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C251" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F251" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G251" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H251" s="18" t="s">
-        <v>442</v>
+      <c r="A251" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H251" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C252" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D252" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E252" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F252" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G252" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H252" s="18" t="s">
-        <v>442</v>
+      <c r="A252" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G252" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H252" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D253" s="18" t="s">
         <v>11</v>
@@ -9631,16 +9660,16 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C254" s="18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D254" s="18" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E254" s="18" t="s">
         <v>12</v>
@@ -9657,13 +9686,13 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B255" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C255" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D255" s="18" t="s">
         <v>11</v>
@@ -9683,22 +9712,22 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="18" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="C256" s="18" t="s">
-        <v>27</v>
+        <v>452</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E256" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F256" s="18" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G256" s="18" t="s">
         <v>441</v>
@@ -9709,13 +9738,13 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C257" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>11</v>
@@ -9735,13 +9764,13 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B258" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C258" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D258" s="18" t="s">
         <v>11</v>
@@ -9761,16 +9790,16 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C259" s="18" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D259" s="18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E259" s="18" t="s">
         <v>12</v>
@@ -9787,19 +9816,19 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="18" t="s">
-        <v>494</v>
+        <v>396</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>495</v>
+        <v>32</v>
       </c>
       <c r="C260" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D260" s="18">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D260" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>496</v>
+        <v>12</v>
       </c>
       <c r="F260" s="18" t="s">
         <v>13</v>
@@ -9813,22 +9842,22 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="18" t="s">
-        <v>209</v>
+        <v>397</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>495</v>
+        <v>90</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D261" s="18">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="D261" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="E261" s="18" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="F261" s="18" t="s">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="G261" s="18" t="s">
         <v>441</v>
@@ -9839,10 +9868,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="18" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>61</v>
@@ -9851,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="E262" s="18" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F262" s="18" t="s">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="G262" s="18" t="s">
         <v>441</v>
@@ -9865,10 +9894,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
       <c r="C263" s="18" t="s">
         <v>61</v>
@@ -9877,10 +9906,10 @@
         <v>1</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G263" s="18" t="s">
         <v>441</v>
@@ -9891,22 +9920,22 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="18" t="s">
-        <v>498</v>
+        <v>210</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C264" s="18" t="s">
-        <v>497</v>
+        <v>61</v>
       </c>
       <c r="D264" s="18">
         <v>1</v>
       </c>
       <c r="E264" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G264" s="18" t="s">
         <v>441</v>
@@ -9917,22 +9946,22 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="18" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="C265" s="18" t="s">
-        <v>497</v>
+        <v>61</v>
       </c>
       <c r="D265" s="18">
         <v>1</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F265" s="18" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G265" s="18" t="s">
         <v>441</v>
@@ -9943,7 +9972,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="18" t="s">
-        <v>295</v>
+        <v>498</v>
       </c>
       <c r="B266" s="18" t="s">
         <v>250</v>
@@ -9955,10 +9984,10 @@
         <v>1</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>490</v>
+        <v>12</v>
       </c>
       <c r="F266" s="18" t="s">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="G266" s="18" t="s">
         <v>441</v>
@@ -9969,7 +9998,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B267" s="18" t="s">
         <v>250</v>
@@ -9981,10 +10010,10 @@
         <v>1</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G267" s="18" t="s">
         <v>441</v>
@@ -9995,22 +10024,22 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="18" t="s">
-        <v>398</v>
+        <v>295</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C268" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D268" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D268" s="18">
+        <v>1</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G268" s="18" t="s">
         <v>441</v>
@@ -10021,22 +10050,22 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="18" t="s">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C269" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D269" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D269" s="18">
+        <v>1</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>40</v>
+        <v>493</v>
       </c>
       <c r="G269" s="18" t="s">
         <v>441</v>
@@ -10047,7 +10076,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>108</v>
@@ -10059,10 +10088,10 @@
         <v>37</v>
       </c>
       <c r="E270" s="18" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G270" s="18" t="s">
         <v>441</v>
@@ -10073,7 +10102,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>108</v>
@@ -10085,10 +10114,10 @@
         <v>37</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G271" s="18" t="s">
         <v>441</v>
@@ -10099,22 +10128,22 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D272" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E272" s="18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G272" s="18" t="s">
         <v>441</v>
@@ -10125,22 +10154,22 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D273" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G273" s="18" t="s">
         <v>441</v>
@@ -10150,40 +10179,40 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C274" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D274" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E274" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G274" s="18" t="s">
+      <c r="A274" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="B274" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D274" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E274" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="F274" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G274" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="H274" s="18" t="s">
+      <c r="H274" s="28" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C275" s="18" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>37</v>
@@ -10203,13 +10232,13 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C276" s="18" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D276" s="18" t="s">
         <v>37</v>
@@ -10229,13 +10258,13 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D277" s="18" t="s">
         <v>37</v>
@@ -10255,13 +10284,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D278" s="18" t="s">
         <v>37</v>
@@ -10281,13 +10310,13 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D279" s="18" t="s">
         <v>37</v>
@@ -10307,13 +10336,13 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D280" s="18" t="s">
         <v>37</v>
@@ -10333,13 +10362,13 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D281" s="18" t="s">
         <v>37</v>
@@ -10359,13 +10388,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D282" s="18" t="s">
         <v>37</v>
@@ -10385,13 +10414,13 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D283" s="18" t="s">
         <v>37</v>
@@ -10411,13 +10440,13 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>37</v>
@@ -10437,13 +10466,13 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="18" t="s">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>505</v>
+        <v>181</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>37</v>
@@ -10463,13 +10492,13 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>37</v>
@@ -10488,101 +10517,101 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B287" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C287" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D287" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E287" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F287" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G287" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H287" s="19" t="s">
-        <v>444</v>
+      <c r="A287" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B287" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C287" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D287" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E287" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H287" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B288" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C288" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D288" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="E288" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="G288" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H288" s="19" t="s">
-        <v>444</v>
+      <c r="A288" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B288" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C288" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H288" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C289" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D289" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E289" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F289" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G289" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H289" s="19" t="s">
-        <v>444</v>
+      <c r="A289" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C289" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H289" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="19" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>451</v>
+        <v>9</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>452</v>
+        <v>10</v>
       </c>
       <c r="D290" s="19" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F290" s="19" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>443</v>
@@ -10593,22 +10622,22 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="19" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="D291" s="19" t="s">
-        <v>11</v>
+        <v>448</v>
       </c>
       <c r="E291" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="19" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G291" s="19" t="s">
         <v>443</v>
@@ -10619,13 +10648,13 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D292" s="19" t="s">
         <v>11</v>
@@ -10645,22 +10674,22 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="19" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="C293" s="19" t="s">
-        <v>30</v>
+        <v>452</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="E293" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F293" s="19" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G293" s="19" t="s">
         <v>443</v>
@@ -10671,13 +10700,13 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C294" s="19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D294" s="19" t="s">
         <v>11</v>
@@ -10697,16 +10726,16 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D295" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E295" s="19" t="s">
         <v>12</v>
@@ -10723,22 +10752,22 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="19" t="s">
-        <v>223</v>
+        <v>420</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C296" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D296" s="19">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D296" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E296" s="19" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="F296" s="19" t="s">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="G296" s="19" t="s">
         <v>443</v>
@@ -10749,22 +10778,22 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="19" t="s">
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C297" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D297" s="19">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D297" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="E297" s="19" t="s">
-        <v>490</v>
+        <v>12</v>
       </c>
       <c r="F297" s="19" t="s">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="G297" s="19" t="s">
         <v>443</v>
@@ -10775,7 +10804,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="19" t="s">
-        <v>225</v>
+        <v>422</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>90</v>
@@ -10783,14 +10812,14 @@
       <c r="C298" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D298" s="19">
-        <v>1</v>
+      <c r="D298" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E298" s="19" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="F298" s="19" t="s">
-        <v>493</v>
+        <v>13</v>
       </c>
       <c r="G298" s="19" t="s">
         <v>443</v>
@@ -10801,22 +10830,22 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="19" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C299" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D299" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D299" s="19">
+        <v>1</v>
       </c>
       <c r="E299" s="19" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F299" s="19" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="G299" s="19" t="s">
         <v>443</v>
@@ -10827,22 +10856,22 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="19" t="s">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D300" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D300" s="19">
+        <v>1</v>
       </c>
       <c r="E300" s="19" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F300" s="19" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G300" s="19" t="s">
         <v>443</v>
@@ -10853,22 +10882,22 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="19" t="s">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D301" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D301" s="19">
+        <v>1</v>
       </c>
       <c r="E301" s="19" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F301" s="19" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="G301" s="19" t="s">
         <v>443</v>
@@ -10879,13 +10908,13 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D302" s="19" t="s">
         <v>37</v>
@@ -10905,13 +10934,13 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C303" s="19" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D303" s="19" t="s">
         <v>37</v>
@@ -10931,13 +10960,13 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D304" s="19" t="s">
         <v>37</v>
@@ -10957,13 +10986,13 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C305" s="19" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D305" s="19" t="s">
         <v>37</v>
@@ -10983,13 +11012,13 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D306" s="19" t="s">
         <v>37</v>
@@ -11009,13 +11038,13 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D307" s="19" t="s">
         <v>37</v>
@@ -11035,13 +11064,13 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D308" s="19" t="s">
         <v>37</v>
@@ -11061,13 +11090,13 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D309" s="19" t="s">
         <v>37</v>
@@ -11087,13 +11116,13 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D310" s="19" t="s">
         <v>37</v>
@@ -11113,13 +11142,13 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D311" s="19" t="s">
         <v>37</v>
@@ -11139,13 +11168,13 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D312" s="19" t="s">
         <v>37</v>
@@ -11165,13 +11194,13 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="19" t="s">
-        <v>510</v>
+        <v>434</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>504</v>
+        <v>180</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>505</v>
+        <v>181</v>
       </c>
       <c r="D313" s="19" t="s">
         <v>37</v>
@@ -11191,13 +11220,13 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D314" s="19" t="s">
         <v>37</v>
@@ -11217,13 +11246,13 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D315" s="19" t="s">
         <v>37</v>
@@ -11238,6 +11267,84 @@
         <v>443</v>
       </c>
       <c r="H315" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B316" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D316" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E316" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G316" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H316" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E317" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F317" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H317" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B318" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D318" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E318" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G318" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H318" s="19" t="s">
         <v>444</v>
       </c>
     </row>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="549">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2209,12 +2209,120 @@
     <t>894ba5db-f126-4258-9de1-1f1b5a5f24ab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>workshopStockDetail</t>
+  </si>
+  <si>
+    <t>838a38c4-7483-4709-b710-9fb2a7ba2cae</t>
+  </si>
+  <si>
+    <t>车间储备情况</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>18f85a5d-1c39-44f4-9f2f-e7d64056ff8b</t>
+  </si>
+  <si>
+    <t>6c363a95-e602-4f8d-8e57-49a606083677</t>
+  </si>
+  <si>
+    <t>3f040f8d-c024-478f-9e00-e840caf3e7f3</t>
+  </si>
+  <si>
+    <t>9e82ca4d-efba-47ec-bf93-12c68926c1ef</t>
+  </si>
+  <si>
+    <t>e5c70c6d-d992-4109-abcb-eb7ac5c93f18</t>
+  </si>
+  <si>
+    <t>1df7b42f-2b82-4eeb-8e8c-c4846f2ec2a5</t>
+  </si>
+  <si>
+    <t>ecb7d323-f3b8-4697-a3b8-10d7420846ce</t>
+  </si>
+  <si>
+    <t>a2978922-19ee-41ae-bebb-17d7c74fc71f</t>
+  </si>
+  <si>
+    <t>2c47bb25-d14c-4098-a670-a27d5cf67f64</t>
+  </si>
+  <si>
+    <t>20c75d22-ec30-4af5-82d5-9a42c530e27a</t>
+  </si>
+  <si>
+    <t>WorkshopOtherDrawBill</t>
+  </si>
+  <si>
+    <t>制造其它领料</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopReturnProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85492a5c-10fb-4876-8524-eb15bfbaa87b</t>
+  </si>
+  <si>
+    <t>8f44f63b-dfa8-4a06-a899-306801a80361</t>
+  </si>
+  <si>
+    <t>5ec5b2d3-a700-4205-b111-a4b670f8a030</t>
+  </si>
+  <si>
+    <t>eb617021-c952-491e-b567-7e13a0d5182f</t>
+  </si>
+  <si>
+    <t>6d91b761-51d1-4eeb-8e2a-0908fca2b56c</t>
+  </si>
+  <si>
+    <t>5d4c78ed-229b-41b3-9d58-fd3f9f06f951</t>
+  </si>
+  <si>
+    <t>c4517d85-3564-46af-9309-cd41fc9f3bcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a2a60fe-63f1-46b1-b9ff-b545f2c74510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2316,6 +2424,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2518,7 +2633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2594,6 +2709,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2603,7 +2721,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3063,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4823,28 +4941,28 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="D68" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="28" t="s">
+      <c r="D68" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="G68" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="28" t="s">
+      <c r="G68" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6127,7 +6245,7 @@
         <v>249</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>171</v>
+        <v>540</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>172</v>
@@ -6149,144 +6267,144 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>15</v>
+      <c r="A119" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>15</v>
+      <c r="A120" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>15</v>
+      <c r="A121" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>15</v>
+      <c r="A122" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="G122" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>15</v>
+      <c r="A123" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>37</v>
@@ -6306,195 +6424,195 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B131" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C131" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>374</v>
+      <c r="D131" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>11</v>
@@ -6514,16 +6632,16 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="4" t="s">
-        <v>379</v>
+        <v>198</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>376</v>
+        <v>17</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>12</v>
@@ -6540,42 +6658,42 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="4" t="s">
-        <v>458</v>
+        <v>199</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>453</v>
+        <v>11</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>12</v>
@@ -6592,22 +6710,22 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>375</v>
@@ -6618,22 +6736,22 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>375</v>
@@ -6644,22 +6762,22 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>375</v>
@@ -6670,13 +6788,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="4" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>60</v>
+        <v>376</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>37</v>
@@ -6696,48 +6814,48 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="4" t="s">
-        <v>212</v>
+        <v>458</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>66</v>
+        <v>451</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>67</v>
+        <v>452</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>375</v>
@@ -6748,22 +6866,22 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>375</v>
@@ -6774,22 +6892,22 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>375</v>
@@ -6800,22 +6918,22 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>375</v>
@@ -6826,22 +6944,22 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>375</v>
@@ -6852,22 +6970,22 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>375</v>
@@ -6878,22 +6996,22 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>375</v>
@@ -6904,22 +7022,22 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>375</v>
@@ -6930,22 +7048,22 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>375</v>
@@ -6956,13 +7074,13 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>37</v>
@@ -6982,22 +7100,22 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>375</v>
@@ -7008,22 +7126,22 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>375</v>
@@ -7034,22 +7152,22 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>375</v>
@@ -7060,22 +7178,22 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>375</v>
@@ -7086,13 +7204,13 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>37</v>
@@ -7112,22 +7230,22 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>375</v>
@@ -7138,22 +7256,22 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>375</v>
@@ -7164,22 +7282,22 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>375</v>
@@ -7190,22 +7308,22 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>375</v>
@@ -7216,22 +7334,22 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="4" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>375</v>
@@ -7242,22 +7360,22 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="4" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>375</v>
@@ -7268,22 +7386,22 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="4" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>375</v>
@@ -7294,22 +7412,22 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="4" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>256</v>
+        <v>102</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>375</v>
@@ -7320,22 +7438,22 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="4" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>375</v>
@@ -7346,13 +7464,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="4" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>37</v>
@@ -7372,22 +7490,22 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>375</v>
@@ -7398,22 +7516,22 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>375</v>
@@ -7424,22 +7542,22 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>375</v>
@@ -7450,22 +7568,22 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>375</v>
@@ -7476,13 +7594,13 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>37</v>
@@ -7502,22 +7620,22 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>375</v>
@@ -7528,22 +7646,22 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>375</v>
@@ -7554,22 +7672,22 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>375</v>
@@ -7580,22 +7698,22 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>375</v>
@@ -7606,22 +7724,22 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>129</v>
+        <v>236</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>375</v>
@@ -7632,22 +7750,22 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>375</v>
@@ -7658,22 +7776,22 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>375</v>
@@ -7684,22 +7802,22 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>375</v>
@@ -7710,22 +7828,22 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>375</v>
@@ -7736,22 +7854,22 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>375</v>
@@ -7762,22 +7880,22 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>375</v>
@@ -7788,22 +7906,22 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>375</v>
@@ -7814,22 +7932,22 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>375</v>
@@ -7840,22 +7958,22 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>375</v>
@@ -7866,22 +7984,22 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>375</v>
@@ -7892,22 +8010,22 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>375</v>
@@ -7918,22 +8036,22 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>375</v>
@@ -7944,22 +8062,22 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>375</v>
@@ -7970,22 +8088,22 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>375</v>
@@ -7996,22 +8114,22 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>375</v>
@@ -8022,22 +8140,22 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>375</v>
@@ -8048,22 +8166,22 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>375</v>
@@ -8074,22 +8192,22 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>375</v>
@@ -8100,22 +8218,22 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>375</v>
@@ -8126,22 +8244,22 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>375</v>
@@ -8152,22 +8270,22 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>375</v>
@@ -8178,22 +8296,22 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>375</v>
@@ -8204,22 +8322,22 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>375</v>
@@ -8230,22 +8348,22 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>375</v>
@@ -8256,22 +8374,22 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>375</v>
@@ -8282,22 +8400,22 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>375</v>
@@ -8308,22 +8426,22 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>375</v>
@@ -8334,22 +8452,22 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>375</v>
@@ -8360,22 +8478,22 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>375</v>
@@ -8386,22 +8504,22 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>375</v>
@@ -8412,22 +8530,22 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>375</v>
@@ -8438,22 +8556,22 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>375</v>
@@ -8464,22 +8582,22 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>375</v>
@@ -8490,22 +8608,22 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>375</v>
@@ -8516,22 +8634,22 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>375</v>
@@ -8542,22 +8660,22 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>375</v>
@@ -8568,22 +8686,22 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>375</v>
@@ -8594,22 +8712,22 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>375</v>
@@ -8620,22 +8738,22 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>375</v>
@@ -8646,22 +8764,22 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>375</v>
@@ -8672,13 +8790,13 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>37</v>
@@ -8698,22 +8816,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>375</v>
@@ -8724,22 +8842,22 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>375</v>
@@ -8750,48 +8868,48 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="4" t="s">
-        <v>507</v>
+        <v>350</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>504</v>
+        <v>171</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>505</v>
+        <v>172</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>375</v>
@@ -8802,22 +8920,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
-        <v>357</v>
+        <v>541</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>192</v>
+        <v>531</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>193</v>
+        <v>532</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>12</v>
+        <v>519</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>13</v>
+        <v>534</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>375</v>
@@ -8827,335 +8945,335 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B222" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F222" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H222" s="17" t="s">
-        <v>440</v>
+      <c r="A222" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B223" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="C223" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="D223" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="E223" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F223" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="G223" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H223" s="17" t="s">
-        <v>440</v>
+      <c r="A223" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B224" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C224" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D224" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F224" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H224" s="17" t="s">
-        <v>440</v>
+      <c r="A224" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H224" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="B225" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C225" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D225" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F225" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H225" s="17" t="s">
-        <v>440</v>
+      <c r="A225" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B226" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C226" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D226" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="E226" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F226" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="G226" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H226" s="17" t="s">
-        <v>440</v>
+      <c r="A226" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="B227" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C227" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D227" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F227" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G227" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H227" s="17" t="s">
-        <v>440</v>
+      <c r="A227" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="B228" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D228" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F228" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G228" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H228" s="17" t="s">
-        <v>440</v>
+      <c r="A228" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B229" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C229" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D229" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G229" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H229" s="17" t="s">
-        <v>440</v>
+      <c r="A229" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B230" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C230" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D230" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E230" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G230" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H230" s="17" t="s">
-        <v>440</v>
+      <c r="A230" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H230" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="B231" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C231" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D231" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E231" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G231" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H231" s="17" t="s">
-        <v>440</v>
+      <c r="A231" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="B232" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D232" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E232" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F232" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G232" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H232" s="17" t="s">
-        <v>440</v>
+      <c r="A232" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H232" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="B233" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E233" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F233" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G233" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H233" s="17" t="s">
-        <v>440</v>
+      <c r="A233" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C234" s="17" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E234" s="17" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F234" s="17" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G234" s="17" t="s">
         <v>439</v>
@@ -9166,22 +9284,22 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="17" t="s">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="B235" s="17" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="E235" s="17" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="G235" s="17" t="s">
         <v>196</v>
@@ -9191,43 +9309,43 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="B236" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="C236" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E236" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="F236" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G236" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="H236" s="28" t="s">
+      <c r="A236" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H236" s="17" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E237" s="17" t="s">
         <v>12</v>
@@ -9244,25 +9362,25 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="17" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="B238" s="17" t="s">
-        <v>123</v>
+        <v>451</v>
       </c>
       <c r="C238" s="17" t="s">
-        <v>124</v>
+        <v>452</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E238" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F238" s="17" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G238" s="17" t="s">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="H238" s="17" t="s">
         <v>440</v>
@@ -9270,16 +9388,16 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="17" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C239" s="17" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E239" s="17" t="s">
         <v>12</v>
@@ -9296,16 +9414,16 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="17" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C240" s="17" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E240" s="17" t="s">
         <v>12</v>
@@ -9322,16 +9440,16 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="17" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E241" s="17" t="s">
         <v>12</v>
@@ -9348,13 +9466,13 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="17" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C242" s="17" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>37</v>
@@ -9374,13 +9492,13 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="17" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>37</v>
@@ -9400,22 +9518,22 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="17" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="C244" s="17" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E244" s="17" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F244" s="17" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G244" s="17" t="s">
         <v>439</v>
@@ -9426,22 +9544,22 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="17" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C245" s="17" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E245" s="17" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F245" s="17" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G245" s="17" t="s">
         <v>439</v>
@@ -9452,22 +9570,22 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="17" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E246" s="17" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F246" s="17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G246" s="17" t="s">
         <v>439</v>
@@ -9478,65 +9596,65 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="17" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>177</v>
+        <v>513</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>178</v>
+        <v>512</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E247" s="17" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F247" s="17" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G247" s="17" t="s">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="H247" s="17" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="B248" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D248" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E248" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G248" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="H248" s="17" t="s">
+      <c r="A248" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B248" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D248" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E248" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F248" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G248" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H248" s="25" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="17" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C249" s="17" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>37</v>
@@ -9556,13 +9674,13 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="17" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>37</v>
@@ -9582,13 +9700,13 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="17" t="s">
-        <v>508</v>
+        <v>372</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>504</v>
+        <v>129</v>
       </c>
       <c r="C251" s="17" t="s">
-        <v>505</v>
+        <v>130</v>
       </c>
       <c r="D251" s="17" t="s">
         <v>37</v>
@@ -9600,7 +9718,7 @@
         <v>13</v>
       </c>
       <c r="G251" s="17" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H251" s="17" t="s">
         <v>440</v>
@@ -9608,13 +9726,13 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="17" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="D252" s="17" t="s">
         <v>37</v>
@@ -9633,387 +9751,387 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B253" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C253" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E253" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F253" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G253" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H253" s="18" t="s">
-        <v>442</v>
+      <c r="A253" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E253" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F253" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G253" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H253" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C254" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="D254" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="E254" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F254" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G254" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H254" s="18" t="s">
-        <v>442</v>
+      <c r="A254" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D254" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G254" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H254" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="B255" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C255" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D255" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F255" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H255" s="18" t="s">
-        <v>442</v>
+      <c r="A255" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E255" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H255" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="B256" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C256" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="D256" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="E256" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F256" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G256" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H256" s="18" t="s">
-        <v>442</v>
+      <c r="A256" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E256" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H256" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="B257" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C257" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D257" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H257" s="18" t="s">
-        <v>442</v>
+      <c r="A257" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D257" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E257" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H257" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B258" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F258" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H258" s="18" t="s">
-        <v>442</v>
+      <c r="A258" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G258" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H258" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B259" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D259" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E259" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F259" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H259" s="18" t="s">
-        <v>442</v>
+      <c r="A259" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B259" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E259" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F259" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="G259" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H259" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D260" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H260" s="18" t="s">
-        <v>442</v>
+      <c r="A260" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E260" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H260" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B261" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D261" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E261" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G261" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H261" s="18" t="s">
-        <v>442</v>
+      <c r="A261" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B261" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D261" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E261" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G261" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H261" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="B262" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="C262" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D262" s="18">
-        <v>1</v>
-      </c>
-      <c r="E262" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="F262" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G262" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H262" s="18" t="s">
-        <v>442</v>
+      <c r="A262" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B262" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D262" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E262" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F262" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G262" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H262" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="B263" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="C263" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D263" s="18">
-        <v>1</v>
-      </c>
-      <c r="E263" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="F263" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="G263" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H263" s="18" t="s">
-        <v>442</v>
+      <c r="A263" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B263" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D263" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E263" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H263" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B264" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C264" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D264" s="18">
-        <v>1</v>
-      </c>
-      <c r="E264" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="F264" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="G264" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H264" s="18" t="s">
-        <v>442</v>
+      <c r="A264" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B264" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E264" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H264" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B265" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C265" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D265" s="18">
-        <v>1</v>
-      </c>
-      <c r="E265" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="F265" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="G265" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H265" s="18" t="s">
-        <v>442</v>
+      <c r="A265" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B265" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="D265" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E265" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H265" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D266" s="18">
-        <v>1</v>
-      </c>
-      <c r="E266" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G266" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="H266" s="18" t="s">
-        <v>442</v>
+      <c r="A266" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B266" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D266" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="H266" s="17" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="18" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>250</v>
+        <v>9</v>
       </c>
       <c r="C267" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D267" s="18">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D267" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>489</v>
+        <v>13</v>
       </c>
       <c r="G267" s="18" t="s">
         <v>441</v>
@@ -10024,22 +10142,22 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="18" t="s">
-        <v>295</v>
+        <v>455</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>250</v>
+        <v>446</v>
       </c>
       <c r="C268" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D268" s="18">
-        <v>1</v>
+        <v>447</v>
+      </c>
+      <c r="D268" s="18" t="s">
+        <v>448</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>490</v>
+        <v>12</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="G268" s="18" t="s">
         <v>441</v>
@@ -10050,22 +10168,22 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="18" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="C269" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="D269" s="18">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D269" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="F269" s="18" t="s">
-        <v>493</v>
+        <v>13</v>
       </c>
       <c r="G269" s="18" t="s">
         <v>441</v>
@@ -10076,22 +10194,22 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="18" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="C270" s="18" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E270" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G270" s="18" t="s">
         <v>441</v>
@@ -10102,22 +10220,22 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="C271" s="18" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D271" s="18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F271" s="18" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G271" s="18" t="s">
         <v>441</v>
@@ -10128,22 +10246,22 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C272" s="18" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D272" s="18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E272" s="18" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G272" s="18" t="s">
         <v>441</v>
@@ -10154,22 +10272,22 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C273" s="18" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D273" s="18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G273" s="18" t="s">
         <v>441</v>
@@ -10179,40 +10297,40 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="B274" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="C274" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="D274" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E274" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="F274" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="G274" s="28" t="s">
+      <c r="A274" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D274" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="H274" s="28" t="s">
+      <c r="H274" s="18" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C275" s="18" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D275" s="18" t="s">
         <v>37</v>
@@ -10232,19 +10350,19 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="18" t="s">
-        <v>403</v>
+        <v>494</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>123</v>
+        <v>495</v>
       </c>
       <c r="C276" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D276" s="18">
+        <v>1</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="F276" s="18" t="s">
         <v>13</v>
@@ -10258,22 +10376,22 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="18" t="s">
-        <v>404</v>
+        <v>209</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>129</v>
+        <v>495</v>
       </c>
       <c r="C277" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D277" s="18" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D277" s="18">
+        <v>1</v>
       </c>
       <c r="E277" s="18" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F277" s="18" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="G277" s="18" t="s">
         <v>441</v>
@@ -10284,22 +10402,22 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="18" t="s">
-        <v>405</v>
+        <v>210</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="C278" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D278" s="18">
+        <v>1</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F278" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G278" s="18" t="s">
         <v>441</v>
@@ -10310,22 +10428,22 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="18" t="s">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="C279" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D279" s="18" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="D279" s="18">
+        <v>1</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F279" s="18" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="G279" s="18" t="s">
         <v>441</v>
@@ -10336,16 +10454,16 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="18" t="s">
-        <v>407</v>
+        <v>498</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="C280" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D280" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D280" s="18">
+        <v>1</v>
       </c>
       <c r="E280" s="18" t="s">
         <v>12</v>
@@ -10362,22 +10480,22 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="18" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="C281" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D281" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D281" s="18">
+        <v>1</v>
       </c>
       <c r="E281" s="18" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F281" s="18" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="G281" s="18" t="s">
         <v>441</v>
@@ -10388,22 +10506,22 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="18" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="C282" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D282" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D282" s="18">
+        <v>1</v>
       </c>
       <c r="E282" s="18" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F282" s="18" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G282" s="18" t="s">
         <v>441</v>
@@ -10414,22 +10532,22 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="18" t="s">
-        <v>410</v>
+        <v>296</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="C283" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D283" s="18" t="s">
-        <v>37</v>
+        <v>497</v>
+      </c>
+      <c r="D283" s="18">
+        <v>1</v>
       </c>
       <c r="E283" s="18" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F283" s="18" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="G283" s="18" t="s">
         <v>441</v>
@@ -10440,13 +10558,13 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="18" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C284" s="18" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D284" s="18" t="s">
         <v>37</v>
@@ -10466,22 +10584,22 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="18" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="C285" s="18" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="D285" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E285" s="18" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F285" s="18" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G285" s="18" t="s">
         <v>441</v>
@@ -10492,22 +10610,22 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="18" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B286" s="18" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="C286" s="18" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="D286" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E286" s="18" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F286" s="18" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G286" s="18" t="s">
         <v>441</v>
@@ -10518,22 +10636,22 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="18" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="C287" s="18" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="D287" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G287" s="18" t="s">
         <v>441</v>
@@ -10543,40 +10661,40 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D288" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E288" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F288" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G288" s="18" t="s">
+      <c r="A288" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E288" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F288" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G288" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="H288" s="18" t="s">
+      <c r="H288" s="25" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="18" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D289" s="18" t="s">
         <v>37</v>
@@ -10595,433 +10713,433 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B290" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C290" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D290" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E290" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F290" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H290" s="19" t="s">
-        <v>444</v>
+      <c r="A290" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D290" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E290" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H290" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B291" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="C291" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="D291" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="E291" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F291" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="G291" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H291" s="19" t="s">
-        <v>444</v>
+      <c r="A291" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H291" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="B292" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C292" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D292" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E292" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F292" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G292" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H292" s="19" t="s">
-        <v>444</v>
+      <c r="A292" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E292" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G292" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H292" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="B293" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C293" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="D293" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E293" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F293" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="G293" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H293" s="19" t="s">
-        <v>444</v>
+      <c r="A293" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B293" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H293" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B294" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C294" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D294" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E294" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F294" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G294" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H294" s="19" t="s">
-        <v>444</v>
+      <c r="A294" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E294" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H294" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="B295" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C295" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D295" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E295" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F295" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G295" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H295" s="19" t="s">
-        <v>444</v>
+      <c r="A295" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H295" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B296" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C296" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D296" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E296" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F296" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G296" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H296" s="19" t="s">
-        <v>444</v>
+      <c r="A296" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E296" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H296" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C297" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D297" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E297" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F297" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G297" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H297" s="19" t="s">
-        <v>444</v>
+      <c r="A297" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C297" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H297" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B298" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C298" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E298" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F298" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G298" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H298" s="19" t="s">
-        <v>444</v>
+      <c r="A298" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C298" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D298" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E298" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G298" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H298" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B299" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C299" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D299" s="19">
-        <v>1</v>
-      </c>
-      <c r="E299" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="F299" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="G299" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H299" s="19" t="s">
-        <v>444</v>
+      <c r="A299" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B299" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E299" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F299" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="G299" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H299" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C300" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D300" s="19">
-        <v>1</v>
-      </c>
-      <c r="E300" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="F300" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="G300" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H300" s="19" t="s">
-        <v>444</v>
+      <c r="A300" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B300" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H300" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B301" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C301" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D301" s="19">
-        <v>1</v>
-      </c>
-      <c r="E301" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="F301" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="G301" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H301" s="19" t="s">
-        <v>444</v>
+      <c r="A301" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="B301" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E301" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H301" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="B302" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C302" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D302" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E302" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F302" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G302" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H302" s="19" t="s">
-        <v>444</v>
+      <c r="A302" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H302" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="B303" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C303" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D303" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E303" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F303" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G303" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H303" s="19" t="s">
-        <v>444</v>
+      <c r="A303" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B303" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E303" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H303" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B304" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C304" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D304" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E304" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F304" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G304" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H304" s="19" t="s">
-        <v>444</v>
+      <c r="A304" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C304" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D304" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E304" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H304" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B305" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C305" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D305" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E305" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F305" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G305" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="H305" s="19" t="s">
-        <v>444</v>
+      <c r="A305" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B305" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C305" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E305" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G305" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H305" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="19" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B306" s="19" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="C306" s="19" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D306" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E306" s="19" t="s">
         <v>12</v>
@@ -11038,22 +11156,22 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="19" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>142</v>
+        <v>447</v>
       </c>
       <c r="D307" s="19" t="s">
-        <v>37</v>
+        <v>448</v>
       </c>
       <c r="E307" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F307" s="19" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G307" s="19" t="s">
         <v>443</v>
@@ -11064,16 +11182,16 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="19" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B308" s="19" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="C308" s="19" t="s">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="D308" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E308" s="19" t="s">
         <v>12</v>
@@ -11090,22 +11208,22 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="19" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B309" s="19" t="s">
-        <v>153</v>
+        <v>451</v>
       </c>
       <c r="C309" s="19" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="D309" s="19" t="s">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="E309" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F309" s="19" t="s">
-        <v>13</v>
+        <v>449</v>
       </c>
       <c r="G309" s="19" t="s">
         <v>443</v>
@@ -11116,16 +11234,16 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="19" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B310" s="19" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="C310" s="19" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="D310" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E310" s="19" t="s">
         <v>12</v>
@@ -11142,16 +11260,16 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="19" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B311" s="19" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C311" s="19" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D311" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E311" s="19" t="s">
         <v>12</v>
@@ -11168,16 +11286,16 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="19" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B312" s="19" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C312" s="19" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="D312" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E312" s="19" t="s">
         <v>12</v>
@@ -11194,16 +11312,16 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="19" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B313" s="19" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="C313" s="19" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="D313" s="19" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E313" s="19" t="s">
         <v>12</v>
@@ -11220,13 +11338,13 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="19" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B314" s="19" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="C314" s="19" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
       <c r="D314" s="19" t="s">
         <v>37</v>
@@ -11246,22 +11364,22 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="19" t="s">
-        <v>436</v>
+        <v>223</v>
       </c>
       <c r="B315" s="19" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="C315" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D315" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D315" s="19">
+        <v>1</v>
       </c>
       <c r="E315" s="19" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="F315" s="19" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="G315" s="19" t="s">
         <v>443</v>
@@ -11272,22 +11390,22 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="19" t="s">
-        <v>510</v>
+        <v>224</v>
       </c>
       <c r="B316" s="19" t="s">
-        <v>504</v>
+        <v>90</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="D316" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D316" s="19">
+        <v>1</v>
       </c>
       <c r="E316" s="19" t="s">
-        <v>12</v>
+        <v>490</v>
       </c>
       <c r="F316" s="19" t="s">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="G316" s="19" t="s">
         <v>443</v>
@@ -11298,22 +11416,22 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="19" t="s">
-        <v>437</v>
+        <v>225</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D317" s="19" t="s">
-        <v>37</v>
+        <v>91</v>
+      </c>
+      <c r="D317" s="19">
+        <v>1</v>
       </c>
       <c r="E317" s="19" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
       <c r="F317" s="19" t="s">
-        <v>13</v>
+        <v>493</v>
       </c>
       <c r="G317" s="19" t="s">
         <v>443</v>
@@ -11324,13 +11442,13 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="19" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B318" s="19" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="C318" s="19" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="D318" s="19" t="s">
         <v>37</v>
@@ -11345,6 +11463,474 @@
         <v>443</v>
       </c>
       <c r="H318" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B319" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D319" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E319" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H319" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B320" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D320" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E320" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G320" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H320" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="B321" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D321" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E321" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H321" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D322" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E322" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G322" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H322" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="B323" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D323" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E323" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G323" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H323" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D324" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E324" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F324" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H324" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D325" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E325" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H325" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B326" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D326" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E326" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H326" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D327" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E327" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F327" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H327" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D328" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E328" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F328" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H328" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="D329" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E329" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F329" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="G329" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H329" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B330" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D330" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H330" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B331" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D331" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E331" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="F331" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="G331" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H331" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B332" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D332" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E332" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H332" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B333" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D333" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E333" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F333" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H333" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="D334" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E334" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F334" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H334" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C335" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D335" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E335" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H335" s="19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B336" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C336" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D336" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E336" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F336" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G336" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="H336" s="19" t="s">
         <v>444</v>
       </c>
     </row>
@@ -11378,7 +11964,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>266</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -11386,61 +11972,61 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>292</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -11448,19 +12034,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>277</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -11468,37 +12054,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>281</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -11506,31 +12092,31 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>283</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -11538,25 +12124,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>286</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -11564,25 +12150,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="26" t="s">
         <v>288</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -11590,37 +12176,37 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="12" t="s">
         <v>282</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="系统角色" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="551">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1954,6 +1954,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>purchaseMatchingReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购对数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f8b3596b-cbd1-47e0-b25c-783152ef6cbf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a5882f0e-c25d-402f-ac34-2c0bab3105e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>458dee15-322d-4434-83fd-319b298a803c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3e34a34-8324-416f-9581-d509df7f753b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>319d7edf-aaf9-46c4-8b30-8a9429520545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ccf1b17-dea7-4886-abfd-21474f050054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseBillManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1eaf691-9cf3-4344-b3d1-8c19b8f7a561</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>894ba5db-f126-4258-9de1-1f1b5a5f24ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopStockDetail</t>
+  </si>
+  <si>
+    <t>838a38c4-7483-4709-b710-9fb2a7ba2cae</t>
+  </si>
+  <si>
+    <t>车间储备情况</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>18f85a5d-1c39-44f4-9f2f-e7d64056ff8b</t>
+  </si>
+  <si>
+    <t>6c363a95-e602-4f8d-8e57-49a606083677</t>
+  </si>
+  <si>
+    <t>3f040f8d-c024-478f-9e00-e840caf3e7f3</t>
+  </si>
+  <si>
+    <t>9e82ca4d-efba-47ec-bf93-12c68926c1ef</t>
+  </si>
+  <si>
+    <t>e5c70c6d-d992-4109-abcb-eb7ac5c93f18</t>
+  </si>
+  <si>
+    <t>1df7b42f-2b82-4eeb-8e8c-c4846f2ec2a5</t>
+  </si>
+  <si>
+    <t>ecb7d323-f3b8-4697-a3b8-10d7420846ce</t>
+  </si>
+  <si>
+    <t>a2978922-19ee-41ae-bebb-17d7c74fc71f</t>
+  </si>
+  <si>
+    <t>2c47bb25-d14c-4098-a670-a27d5cf67f64</t>
+  </si>
+  <si>
+    <t>20c75d22-ec30-4af5-82d5-9a42c530e27a</t>
+  </si>
+  <si>
+    <t>WorkshopOtherDrawBill</t>
+  </si>
+  <si>
+    <t>制造其它领料</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopReturnProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85492a5c-10fb-4876-8524-eb15bfbaa87b</t>
+  </si>
+  <si>
+    <t>8f44f63b-dfa8-4a06-a899-306801a80361</t>
+  </si>
+  <si>
+    <t>5ec5b2d3-a700-4205-b111-a4b670f8a030</t>
+  </si>
+  <si>
+    <t>eb617021-c952-491e-b567-7e13a0d5182f</t>
+  </si>
+  <si>
+    <t>6d91b761-51d1-4eeb-8e2a-0908fca2b56c</t>
+  </si>
+  <si>
+    <t>5d4c78ed-229b-41b3-9d58-fd3f9f06f951</t>
+  </si>
+  <si>
+    <t>c4517d85-3564-46af-9309-cd41fc9f3bcf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8a2a60fe-63f1-46b1-b9ff-b545f2c74510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间储备情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造其它领料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> 车间制造(查看)
 </t>
@@ -1969,7 +2133,8 @@
       <t xml:space="preserve">  制造领料(查看、修改、删除、新增、提交)
   制造退料(查看、修改、删除、新增、提交)
   制造入库(查看、修改、删除、新增、提交)
-  制造退货(查看、修改、删除、新增、提交)</t>
+  制造退货(查看、修改、删除、新增、提交)
+  制造其它领料(查看、修改、删除、新增、提交)</t>
     </r>
     <r>
       <rPr>
@@ -2010,6 +2175,7 @@
       </rPr>
       <t>分析统计(查看)
   库存情况(查看)
+  车间储备情况(查看)
   黑胚材料耗用表(查看)
   发外加工对数表(查看)
   采购对数表(查看)
@@ -2025,6 +2191,7 @@
   制造退料(查看、修改、删除、新增、提交)
   制造入库(查看、修改、删除、新增、提交)
   制造退货(查看、修改、删除、新增、提交)
+  制造其它领料(查看、修改、删除、新增、提交)
   </t>
     </r>
     <r>
@@ -2056,6 +2223,7 @@
       </rPr>
       <t xml:space="preserve"> 分析统计(查看)
   库存情况(查看)
+  车间储备情况(查看)
   黑胚材料耗用表(查看)
   发外加工对数表(查看)
   采购对数表(查看)
@@ -2065,27 +2233,13 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 车间制造(查看)
-  制造领料(查看)
-  制造退料(查看)
-  制造入库(查看)
-  制造退货(查看)
- 分析统计(查看)
-  库存情况(查看)
-  黑胚材料耗用表(查看)
-  发外加工对数表(查看)
-  采购对数表(查看)
-  安装包装材料表(查看)
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> 车间制造(查看)
   制造领料(查看)
   制造退料(查看)
   制造入库(查看)
   制造退货(查看)
+  制造其它领料(查看)
   </t>
     </r>
     <r>
@@ -2107,12 +2261,28 @@
       <t xml:space="preserve">
  分析统计(查看)
   库存情况(查看)
+  车间储备情况(查看)
   黑胚材料耗用表(查看)
   发外加工对数表(查看)
   采购对数表(查看)
-  安装包装材料表(查看)
-</t>
+  安装包装材料表(查看)</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 车间制造(查看)
+  制造领料(查看)
+  制造退料(查看)
+  制造入库(查看)
+  制造退货(查看)
+  制造其它领料(查看)
+ 分析统计(查看)
+  库存情况(查看)
+  车间储备情况(查看)
+  黑胚材料耗用表(查看)
+  发外加工对数表(查看)
+  采购对数表(查看)
+  安装包装材料表(查看)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2122,6 +2292,7 @@
   制造退料(查看)
   制造入库(查看)
   制造退货(查看)
+  制造其它领料(查看)
 </t>
     </r>
     <r>
@@ -2153,6 +2324,7 @@
       <t xml:space="preserve">
  分析统计(查看)
   库存情况(查看)
+  车间储备情况(查看)
   黑胚材料耗用表(查看)
   发外加工对数表(查看)
   采购对数表(查看)
@@ -2160,162 +2332,6 @@
   成品报表(查看)</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchaseMatchingReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购对数表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f8b3596b-cbd1-47e0-b25c-783152ef6cbf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a5882f0e-c25d-402f-ac34-2c0bab3105e7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>458dee15-322d-4434-83fd-319b298a803c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a3e34a34-8324-416f-9581-d509df7f753b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>319d7edf-aaf9-46c4-8b30-8a9429520545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ccf1b17-dea7-4886-abfd-21474f050054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchaseBillManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e1eaf691-9cf3-4344-b3d1-8c19b8f7a561</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>894ba5db-f126-4258-9de1-1f1b5a5f24ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshopStockDetail</t>
-  </si>
-  <si>
-    <t>838a38c4-7483-4709-b710-9fb2a7ba2cae</t>
-  </si>
-  <si>
-    <t>车间储备情况</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>18f85a5d-1c39-44f4-9f2f-e7d64056ff8b</t>
-  </si>
-  <si>
-    <t>6c363a95-e602-4f8d-8e57-49a606083677</t>
-  </si>
-  <si>
-    <t>3f040f8d-c024-478f-9e00-e840caf3e7f3</t>
-  </si>
-  <si>
-    <t>9e82ca4d-efba-47ec-bf93-12c68926c1ef</t>
-  </si>
-  <si>
-    <t>e5c70c6d-d992-4109-abcb-eb7ac5c93f18</t>
-  </si>
-  <si>
-    <t>1df7b42f-2b82-4eeb-8e8c-c4846f2ec2a5</t>
-  </si>
-  <si>
-    <t>ecb7d323-f3b8-4697-a3b8-10d7420846ce</t>
-  </si>
-  <si>
-    <t>a2978922-19ee-41ae-bebb-17d7c74fc71f</t>
-  </si>
-  <si>
-    <t>2c47bb25-d14c-4098-a670-a27d5cf67f64</t>
-  </si>
-  <si>
-    <t>20c75d22-ec30-4af5-82d5-9a42c530e27a</t>
-  </si>
-  <si>
-    <t>WorkshopOtherDrawBill</t>
-  </si>
-  <si>
-    <t>制造其它领料</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workshopReturnProduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85492a5c-10fb-4876-8524-eb15bfbaa87b</t>
-  </si>
-  <si>
-    <t>8f44f63b-dfa8-4a06-a899-306801a80361</t>
-  </si>
-  <si>
-    <t>5ec5b2d3-a700-4205-b111-a4b670f8a030</t>
-  </si>
-  <si>
-    <t>eb617021-c952-491e-b567-7e13a0d5182f</t>
-  </si>
-  <si>
-    <t>6d91b761-51d1-4eeb-8e2a-0908fca2b56c</t>
-  </si>
-  <si>
-    <t>5d4c78ed-229b-41b3-9d58-fd3f9f06f951</t>
-  </si>
-  <si>
-    <t>c4517d85-3564-46af-9309-cd41fc9f3bcf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8a2a60fe-63f1-46b1-b9ff-b545f2c74510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2712,6 +2728,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2720,9 +2739,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3020,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3029,7 +3045,8 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="5" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
     <col min="6" max="6" width="32.75" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
@@ -3057,7 +3074,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="146.25">
+    <row r="2" spans="1:7" ht="168.75">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>468</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>486</v>
@@ -3080,7 +3097,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="146.25">
+    <row r="3" spans="1:7" ht="168.75">
       <c r="A3" s="6" t="s">
         <v>293</v>
       </c>
@@ -3094,7 +3111,7 @@
         <v>472</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>487</v>
@@ -3103,7 +3120,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="146.25">
+    <row r="4" spans="1:7" ht="157.5">
       <c r="A4" s="2" t="s">
         <v>194</v>
       </c>
@@ -3117,7 +3134,7 @@
         <v>476</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>487</v>
@@ -3126,7 +3143,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="135">
+    <row r="5" spans="1:7" ht="146.25">
       <c r="A5" s="2" t="s">
         <v>195</v>
       </c>
@@ -3140,7 +3157,7 @@
         <v>480</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>487</v>
@@ -3149,7 +3166,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="146.25">
+    <row r="6" spans="1:7" ht="168.75">
       <c r="A6" s="2" t="s">
         <v>196</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>484</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>487</v>
@@ -3183,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView topLeftCell="A309" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C331" sqref="C331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4942,13 +4959,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="25" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>37</v>
@@ -6245,7 +6262,7 @@
         <v>249</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>172</v>
@@ -6267,133 +6284,133 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="29" t="s">
+      <c r="A119" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="B119" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="C119" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="F119" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="G120" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="D119" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E119" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="F119" s="29" t="s">
+      <c r="G121" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="F122" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F123" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="G119" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="29" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="F120" s="29" t="s">
-        <v>536</v>
-      </c>
-      <c r="G120" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="29" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="B121" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="C121" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E121" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="F121" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="G121" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="29" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="B122" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="G122" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="29" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="29" t="s">
+      <c r="G123" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="26" t="s">
         <v>530</v>
-      </c>
-      <c r="B123" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="C123" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="D123" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F123" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="G123" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="29" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6450,25 +6467,25 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>266</v>
@@ -6528,13 +6545,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>37</v>
@@ -8920,22 +8937,22 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>375</v>
@@ -8946,13 +8963,13 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>37</v>
@@ -8961,7 +8978,7 @@
         <v>488</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G222" s="4" t="s">
         <v>375</v>
@@ -8972,13 +8989,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>37</v>
@@ -8987,7 +9004,7 @@
         <v>490</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G223" s="4" t="s">
         <v>375</v>
@@ -8998,13 +9015,13 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>37</v>
@@ -9013,7 +9030,7 @@
         <v>492</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G224" s="4" t="s">
         <v>375</v>
@@ -9024,22 +9041,22 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G225" s="4" t="s">
         <v>375</v>
@@ -9102,22 +9119,22 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="4" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>375</v>
@@ -9180,13 +9197,13 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="4" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>37</v>
@@ -9599,10 +9616,10 @@
         <v>369</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C247" s="17" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>37</v>
@@ -9622,13 +9639,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="25" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D248" s="25" t="s">
         <v>37</v>
@@ -9908,22 +9925,22 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="17" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D259" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E259" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F259" s="17" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G259" s="17" t="s">
         <v>439</v>
@@ -9986,22 +10003,22 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="17" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B262" s="17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C262" s="17" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E262" s="17" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G262" s="17" t="s">
         <v>196</v>
@@ -10064,13 +10081,13 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="17" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B265" s="17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C265" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>37</v>
@@ -10662,13 +10679,13 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="25" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D288" s="25" t="s">
         <v>37</v>
@@ -10948,22 +10965,22 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="18" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C299" s="18" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="D299" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F299" s="18" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G299" s="18" t="s">
         <v>441</v>
@@ -11000,22 +11017,22 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="18" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B301" s="18" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D301" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F301" s="18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G301" s="18" t="s">
         <v>441</v>
@@ -11078,13 +11095,13 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="18" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D304" s="18" t="s">
         <v>37</v>
@@ -11728,22 +11745,22 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B329" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C329" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D329" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E329" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F329" s="19" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G329" s="19" t="s">
         <v>443</v>
@@ -11780,22 +11797,22 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="D331" s="19" t="s">
         <v>37</v>
       </c>
       <c r="E331" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F331" s="19" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G331" s="19" t="s">
         <v>443</v>
@@ -11858,13 +11875,13 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="19" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B334" s="19" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C334" s="19" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D334" s="19" t="s">
         <v>37</v>
@@ -11964,7 +11981,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>266</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -11972,61 +11989,61 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="9" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>292</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -12034,19 +12051,19 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>277</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -12054,37 +12071,37 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="9" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="27" t="s">
         <v>281</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -12092,31 +12109,31 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>283</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -12124,25 +12141,25 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>286</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -12150,25 +12167,25 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" thickBot="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="12" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="27" t="s">
         <v>288</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -12176,37 +12193,37 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="9" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="9" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" thickBot="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="12" t="s">
         <v>282</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3701" uniqueCount="722">
   <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3060,6 +3060,10 @@
   </si>
   <si>
     <t>34e2250a-f501-42df-bae4-125b4c308043</t>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3895,10 +3899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H452"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A452" sqref="A2:A452"/>
+    <sheetView tabSelected="1" topLeftCell="B430" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H455" sqref="H455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8072,7 +8076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:9">
       <c r="A161" s="4" t="s">
         <v>640</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:9">
       <c r="A162" s="4" t="s">
         <v>641</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:9">
       <c r="A163" s="4" t="s">
         <v>642</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:9">
       <c r="A164" s="4" t="s">
         <v>643</v>
       </c>
@@ -8175,8 +8179,11 @@
       <c r="H164" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="4" t="s">
         <v>644</v>
       </c>
@@ -8201,8 +8208,11 @@
       <c r="H165" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="4" t="s">
         <v>645</v>
       </c>
@@ -8227,8 +8237,11 @@
       <c r="H166" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="4" t="s">
         <v>646</v>
       </c>
@@ -8254,7 +8267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:9">
       <c r="A168" s="4" t="s">
         <v>647</v>
       </c>
@@ -8280,7 +8293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:9">
       <c r="A169" s="4" t="s">
         <v>648</v>
       </c>
@@ -8306,7 +8319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:9">
       <c r="A170" s="4" t="s">
         <v>649</v>
       </c>
@@ -8332,7 +8345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:9">
       <c r="A171" s="4" t="s">
         <v>650</v>
       </c>
@@ -8358,7 +8371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:9">
       <c r="A172" s="4" t="s">
         <v>651</v>
       </c>
@@ -8383,8 +8396,11 @@
       <c r="H172" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="4" t="s">
         <v>652</v>
       </c>
@@ -8409,8 +8425,11 @@
       <c r="H173" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="4" t="s">
         <v>653</v>
       </c>
@@ -8435,8 +8454,11 @@
       <c r="H174" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="4" t="s">
         <v>705</v>
       </c>
@@ -8462,7 +8484,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:9">
       <c r="A176" s="4" t="s">
         <v>706</v>
       </c>
@@ -11816,7 +11838,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:9">
       <c r="A305" s="3" t="s">
         <v>589</v>
       </c>
@@ -11842,7 +11864,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:9">
       <c r="A306" s="3" t="s">
         <v>590</v>
       </c>
@@ -11868,7 +11890,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:9">
       <c r="A307" s="3" t="s">
         <v>591</v>
       </c>
@@ -11894,7 +11916,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:9">
       <c r="A308" s="3" t="s">
         <v>681</v>
       </c>
@@ -11920,7 +11942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:9">
       <c r="A309" s="3" t="s">
         <v>662</v>
       </c>
@@ -11946,7 +11968,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:9">
       <c r="A310" s="3" t="s">
         <v>663</v>
       </c>
@@ -11972,7 +11994,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:9">
       <c r="A311" s="3" t="s">
         <v>664</v>
       </c>
@@ -11998,7 +12020,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:9">
       <c r="A312" s="3" t="s">
         <v>665</v>
       </c>
@@ -12024,7 +12046,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:9">
       <c r="A313" s="3" t="s">
         <v>666</v>
       </c>
@@ -12050,7 +12072,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:9">
       <c r="A314" s="3" t="s">
         <v>667</v>
       </c>
@@ -12075,8 +12097,11 @@
       <c r="H314" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="I314" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" s="3" t="s">
         <v>668</v>
       </c>
@@ -12101,8 +12126,11 @@
       <c r="H315" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="I315" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" s="3" t="s">
         <v>669</v>
       </c>
@@ -12127,8 +12155,11 @@
       <c r="H316" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="I316" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" s="3" t="s">
         <v>670</v>
       </c>
@@ -12154,7 +12185,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:9">
       <c r="A318" s="3" t="s">
         <v>671</v>
       </c>
@@ -12180,7 +12211,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:9">
       <c r="A319" s="3" t="s">
         <v>672</v>
       </c>
@@ -12206,7 +12237,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:9">
       <c r="A320" s="3" t="s">
         <v>673</v>
       </c>
@@ -12232,7 +12263,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:9">
       <c r="A321" s="3" t="s">
         <v>674</v>
       </c>
@@ -12258,7 +12289,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:9">
       <c r="A322" s="3" t="s">
         <v>675</v>
       </c>
@@ -12283,8 +12314,11 @@
       <c r="H322" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="I322" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" s="3" t="s">
         <v>676</v>
       </c>
@@ -12309,8 +12343,11 @@
       <c r="H323" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="I323" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" s="3" t="s">
         <v>677</v>
       </c>
@@ -12335,8 +12372,11 @@
       <c r="H324" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="I324" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" s="3" t="s">
         <v>712</v>
       </c>
@@ -12362,7 +12402,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:9">
       <c r="A326" s="3" t="s">
         <v>713</v>
       </c>
@@ -12388,7 +12428,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:9">
       <c r="A327" s="3" t="s">
         <v>714</v>
       </c>
@@ -12414,7 +12454,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:9">
       <c r="A328" s="3" t="s">
         <v>715</v>
       </c>
@@ -12440,7 +12480,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:9">
       <c r="A329" s="3" t="s">
         <v>716</v>
       </c>
@@ -12466,7 +12506,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:9">
       <c r="A330" s="11" t="s">
         <v>358</v>
       </c>
@@ -12492,7 +12532,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:9">
       <c r="A331" s="11" t="s">
         <v>445</v>
       </c>
@@ -12518,7 +12558,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:9">
       <c r="A332" s="11" t="s">
         <v>359</v>
       </c>
@@ -12544,7 +12584,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:9">
       <c r="A333" s="11" t="s">
         <v>360</v>
       </c>
@@ -12570,7 +12610,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:9">
       <c r="A334" s="11" t="s">
         <v>450</v>
       </c>
@@ -12596,7 +12636,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:9">
       <c r="A335" s="11" t="s">
         <v>361</v>
       </c>
@@ -12622,7 +12662,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:9">
       <c r="A336" s="11" t="s">
         <v>362</v>
       </c>
@@ -15560,7 +15600,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:9">
       <c r="A449" s="13" t="s">
         <v>686</v>
       </c>
@@ -15585,8 +15625,11 @@
       <c r="H449" s="13" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="450" spans="1:8">
+      <c r="I449" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
       <c r="A450" s="13" t="s">
         <v>687</v>
       </c>
@@ -15612,7 +15655,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:9">
       <c r="A451" s="13" t="s">
         <v>688</v>
       </c>
@@ -15637,8 +15680,11 @@
       <c r="H451" s="13" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="452" spans="1:8">
+      <c r="I451" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
       <c r="A452" s="13" t="s">
         <v>720</v>
       </c>

--- a/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
+++ b/trunk/hot-deploy/partner/document/角色权限关系表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -12,9 +12,9 @@
     <sheet name="原始需求" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色权限关系数据!$A$1:$J$512</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色权限关系数据!$A$1:$J$510</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="841">
   <si>
     <t>角色编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3264,12 +3264,6 @@
     <t>7687e747-f73e-4798-9449-000a155b482d</t>
   </si>
   <si>
-    <t>bb182fcb-6a30-48f2-a1d8-7fe11c08049b</t>
-  </si>
-  <si>
-    <t>ad94b560-42a5-47f8-bb33-e68e204a0cfc</t>
-  </si>
-  <si>
     <t>基础设置(查看)
  基础代码维护(查看、修改、删除、新增)
  客户资料维护(查看)
@@ -3476,12 +3470,44 @@
   <si>
     <t>80759598-8ae1-4508-9d90-25623a776439</t>
   </si>
+  <si>
+    <t>6f4150c3-c743-458b-9434-66670d272b9c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成品管理(查看)
+  出货通知单（查看、修改、删除、新增、提交）
+  出货对数单(查看、</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改、删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3620,6 +3646,14 @@
     <font>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4214,8 +4248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4264,7 +4298,7 @@
         <v>366</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>525</v>
@@ -4287,7 +4321,7 @@
         <v>368</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>525</v>
@@ -4296,7 +4330,7 @@
         <v>407</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="69.95" customHeight="1">
@@ -4310,7 +4344,7 @@
         <v>370</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>527</v>
@@ -4319,7 +4353,7 @@
         <v>407</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="69.95" customHeight="1">
@@ -4333,7 +4367,7 @@
         <v>372</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>528</v>
@@ -4342,7 +4376,7 @@
         <v>407</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="69.95" customHeight="1">
@@ -4356,7 +4390,7 @@
         <v>374</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>529</v>
@@ -4400,7 +4434,7 @@
         <v>509</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="58" t="s">
@@ -4419,7 +4453,7 @@
         <v>512</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="58" t="s">
@@ -4438,7 +4472,7 @@
         <v>512</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>537</v>
@@ -4450,7 +4484,7 @@
     </row>
     <row r="11" spans="1:7" ht="42.75">
       <c r="A11" s="56" t="s">
-        <v>534</v>
+        <v>839</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>519</v>
@@ -4459,7 +4493,7 @@
         <v>520</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>537</v>
@@ -4478,11 +4512,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD512"/>
+  <dimension ref="A1:XFD510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174:A466"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E518" sqref="E518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9692,13 +9726,13 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B174" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="C174" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="D174" s="29" t="s">
         <v>27</v>
@@ -9716,7 +9750,7 @@
         <v>553</v>
       </c>
       <c r="I174" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J174" s="50">
         <v>20121211</v>
@@ -9724,13 +9758,13 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B175" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="C175" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="D175" s="29" t="s">
         <v>27</v>
@@ -9748,7 +9782,7 @@
         <v>553</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J175" s="50">
         <v>20121211</v>
@@ -9756,13 +9790,13 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="29" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B176" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="D176" s="29" t="s">
         <v>27</v>
@@ -9780,7 +9814,7 @@
         <v>553</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J176" s="50">
         <v>20121211</v>
@@ -9788,13 +9822,13 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B177" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="C177" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C177" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="D177" s="29" t="s">
         <v>27</v>
@@ -9812,7 +9846,7 @@
         <v>553</v>
       </c>
       <c r="I177" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J177" s="50">
         <v>20121211</v>
@@ -9820,13 +9854,13 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="B178" s="29" t="s">
         <v>831</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="C178" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C178" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="D178" s="29" t="s">
         <v>27</v>
@@ -9844,7 +9878,7 @@
         <v>553</v>
       </c>
       <c r="I178" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J178" s="50">
         <v>20121211</v>
@@ -34738,13 +34772,13 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462" s="38" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B462" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C462" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="C462" s="38" t="s">
-        <v>834</v>
       </c>
       <c r="D462" s="39" t="s">
         <v>27</v>
@@ -34770,13 +34804,13 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463" s="38" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B463" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C463" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="C463" s="38" t="s">
-        <v>834</v>
       </c>
       <c r="D463" s="39" t="s">
         <v>27</v>
@@ -34802,13 +34836,13 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464" s="38" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B464" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C464" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="C464" s="38" t="s">
-        <v>834</v>
       </c>
       <c r="D464" s="39" t="s">
         <v>27</v>
@@ -34834,13 +34868,13 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465" s="38" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B465" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C465" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="C465" s="38" t="s">
-        <v>834</v>
       </c>
       <c r="D465" s="39" t="s">
         <v>27</v>
@@ -34866,13 +34900,13 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B466" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="C466" s="38" t="s">
         <v>832</v>
-      </c>
-      <c r="C466" s="38" t="s">
-        <v>834</v>
       </c>
       <c r="D466" s="39" t="s">
         <v>27</v>
@@ -36250,72 +36284,8 @@
         <v>20121108</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
-      <c r="A511" s="31" t="s">
-        <v>813</v>
-      </c>
-      <c r="B511" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="C511" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="D511" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E511" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="F511" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="G511" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="H511" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="I511" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="J511" s="48">
-        <v>20121108</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10">
-      <c r="A512" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="B512" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="C512" s="31" t="s">
-        <v>803</v>
-      </c>
-      <c r="D512" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E512" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="F512" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="G512" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="H512" s="47" t="s">
-        <v>519</v>
-      </c>
-      <c r="I512" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="J512" s="48">
-        <v>20121108</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J512"/>
+  <autoFilter ref="A1:J510"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
